--- a/表格.xlsx
+++ b/表格.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715"/>
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AL$718</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AL$720</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="154">
   <si>
     <t>客房</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -662,6 +662,14 @@
   </si>
   <si>
     <t>蹲坑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打印机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>干衣机</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1133,11 +1141,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AL718"/>
+  <dimension ref="A1:AL720"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M109" sqref="M109"/>
+      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K127" sqref="K127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3928,11 +3936,11 @@
       <c r="C128" s="2"/>
       <c r="D128" s="12"/>
       <c r="E128" s="12"/>
-      <c r="F128" s="12"/>
+      <c r="F128" s="3" t="s">
+        <v>153</v>
+      </c>
       <c r="G128" s="12"/>
-      <c r="H128" s="7" t="s">
-        <v>103</v>
-      </c>
+      <c r="H128" s="12"/>
       <c r="I128" s="12"/>
       <c r="J128" s="12"/>
       <c r="K128" s="12"/>
@@ -3951,10 +3959,10 @@
       <c r="E129" s="12"/>
       <c r="F129" s="12"/>
       <c r="G129" s="12"/>
-      <c r="H129" s="12"/>
-      <c r="I129" s="8" t="s">
-        <v>70</v>
-      </c>
+      <c r="H129" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="I129" s="12"/>
       <c r="J129" s="12"/>
       <c r="K129" s="12"/>
       <c r="L129" s="2"/>
@@ -3973,10 +3981,10 @@
       <c r="F130" s="12"/>
       <c r="G130" s="12"/>
       <c r="H130" s="12"/>
-      <c r="I130" s="12"/>
-      <c r="J130" s="9" t="s">
-        <v>134</v>
-      </c>
+      <c r="I130" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="J130" s="12"/>
       <c r="K130" s="12"/>
       <c r="L130" s="2"/>
       <c r="M130" s="2"/>
@@ -3995,10 +4003,10 @@
       <c r="G131" s="12"/>
       <c r="H131" s="12"/>
       <c r="I131" s="12"/>
-      <c r="J131" s="12"/>
-      <c r="K131" s="10" t="s">
-        <v>37</v>
-      </c>
+      <c r="J131" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="K131" s="12"/>
       <c r="L131" s="2"/>
       <c r="M131" s="2"/>
       <c r="N131" s="2"/>
@@ -4006,58 +4014,58 @@
       <c r="P131" s="2"/>
       <c r="Q131" s="2"/>
     </row>
-    <row r="132" spans="1:17" s="19" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A132" s="17" t="s">
+    <row r="132" spans="1:17" ht="20.100000000000001" customHeight="1">
+      <c r="A132" s="1"/>
+      <c r="B132" s="2"/>
+      <c r="C132" s="2"/>
+      <c r="D132" s="12"/>
+      <c r="E132" s="12"/>
+      <c r="F132" s="12"/>
+      <c r="G132" s="12"/>
+      <c r="H132" s="12"/>
+      <c r="I132" s="12"/>
+      <c r="J132" s="12"/>
+      <c r="K132" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="L132" s="2"/>
+      <c r="M132" s="2"/>
+      <c r="N132" s="2"/>
+      <c r="O132" s="2"/>
+      <c r="P132" s="2"/>
+      <c r="Q132" s="2"/>
+    </row>
+    <row r="133" spans="1:17" s="19" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A133" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="B132" s="18">
+      <c r="B133" s="18">
         <f>2.73*1.54</f>
         <v>4.2042000000000002</v>
       </c>
-      <c r="C132" s="18"/>
-      <c r="D132" s="18"/>
-      <c r="E132" s="18"/>
-      <c r="F132" s="18"/>
-      <c r="G132" s="18"/>
-      <c r="H132" s="18"/>
-      <c r="I132" s="18"/>
-      <c r="J132" s="18"/>
-      <c r="K132" s="18"/>
-      <c r="L132" s="18"/>
-      <c r="M132" s="18"/>
-      <c r="N132" s="18"/>
-      <c r="O132" s="18"/>
-      <c r="P132" s="18"/>
-      <c r="Q132" s="18"/>
-    </row>
-    <row r="133" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A133" s="1"/>
-      <c r="B133" s="1"/>
-      <c r="C133" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D133" s="12"/>
-      <c r="E133" s="12"/>
-      <c r="F133" s="12"/>
-      <c r="G133" s="12"/>
-      <c r="H133" s="12"/>
-      <c r="I133" s="12"/>
-      <c r="J133" s="12"/>
-      <c r="K133" s="12"/>
-      <c r="L133" s="2"/>
-      <c r="M133" s="2"/>
-      <c r="N133" s="2"/>
-      <c r="O133" s="2"/>
-      <c r="P133" s="2"/>
-      <c r="Q133" s="2"/>
+      <c r="C133" s="18"/>
+      <c r="D133" s="18"/>
+      <c r="E133" s="18"/>
+      <c r="F133" s="18"/>
+      <c r="G133" s="18"/>
+      <c r="H133" s="18"/>
+      <c r="I133" s="18"/>
+      <c r="J133" s="18"/>
+      <c r="K133" s="18"/>
+      <c r="L133" s="18"/>
+      <c r="M133" s="18"/>
+      <c r="N133" s="18"/>
+      <c r="O133" s="18"/>
+      <c r="P133" s="18"/>
+      <c r="Q133" s="18"/>
     </row>
     <row r="134" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A134" s="1"/>
-      <c r="B134" s="2"/>
-      <c r="C134" s="1"/>
-      <c r="D134" s="4" t="s">
-        <v>101</v>
-      </c>
+      <c r="B134" s="1"/>
+      <c r="C134" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D134" s="12"/>
       <c r="E134" s="12"/>
       <c r="F134" s="12"/>
       <c r="G134" s="12"/>
@@ -4075,11 +4083,11 @@
     <row r="135" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A135" s="1"/>
       <c r="B135" s="2"/>
-      <c r="C135" s="2"/>
-      <c r="D135" s="12"/>
-      <c r="E135" s="5" t="s">
-        <v>69</v>
-      </c>
+      <c r="C135" s="1"/>
+      <c r="D135" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E135" s="12"/>
       <c r="F135" s="12"/>
       <c r="G135" s="12"/>
       <c r="H135" s="12"/>
@@ -4098,11 +4106,11 @@
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
       <c r="D136" s="12"/>
-      <c r="E136" s="12"/>
+      <c r="E136" s="5" t="s">
+        <v>69</v>
+      </c>
       <c r="F136" s="12"/>
-      <c r="G136" s="6" t="s">
-        <v>73</v>
-      </c>
+      <c r="G136" s="12"/>
       <c r="H136" s="12"/>
       <c r="I136" s="12"/>
       <c r="J136" s="12"/>
@@ -4120,10 +4128,10 @@
       <c r="C137" s="2"/>
       <c r="D137" s="12"/>
       <c r="E137" s="12"/>
-      <c r="F137" s="12"/>
-      <c r="G137" s="6" t="s">
-        <v>139</v>
-      </c>
+      <c r="F137" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="G137" s="12"/>
       <c r="H137" s="12"/>
       <c r="I137" s="12"/>
       <c r="J137" s="12"/>
@@ -4142,10 +4150,10 @@
       <c r="D138" s="12"/>
       <c r="E138" s="12"/>
       <c r="F138" s="12"/>
-      <c r="G138" s="12"/>
-      <c r="H138" s="7" t="s">
-        <v>135</v>
-      </c>
+      <c r="G138" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="H138" s="12"/>
       <c r="I138" s="12"/>
       <c r="J138" s="12"/>
       <c r="K138" s="12"/>
@@ -4156,41 +4164,38 @@
       <c r="P138" s="2"/>
       <c r="Q138" s="2"/>
     </row>
-    <row r="139" spans="1:17" s="19" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A139" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B139" s="18">
-        <f>1.3*(2.73+0.664+2.65+1.42+1.8+1.12+0.9)</f>
-        <v>14.669200000000002</v>
-      </c>
-      <c r="C139" s="18"/>
-      <c r="D139" s="18"/>
-      <c r="E139" s="18"/>
-      <c r="F139" s="18"/>
-      <c r="G139" s="18"/>
-      <c r="H139" s="18"/>
-      <c r="I139" s="18"/>
-      <c r="J139" s="18"/>
-      <c r="K139" s="18"/>
-      <c r="L139" s="18"/>
-      <c r="M139" s="18"/>
-      <c r="N139" s="18"/>
-      <c r="O139" s="18"/>
-      <c r="P139" s="18"/>
-      <c r="Q139" s="18"/>
+    <row r="139" spans="1:17" ht="20.100000000000001" customHeight="1">
+      <c r="A139" s="1"/>
+      <c r="B139" s="2"/>
+      <c r="C139" s="2"/>
+      <c r="D139" s="12"/>
+      <c r="E139" s="12"/>
+      <c r="F139" s="12"/>
+      <c r="G139" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="H139" s="12"/>
+      <c r="I139" s="12"/>
+      <c r="J139" s="12"/>
+      <c r="K139" s="12"/>
+      <c r="L139" s="2"/>
+      <c r="M139" s="2"/>
+      <c r="N139" s="2"/>
+      <c r="O139" s="2"/>
+      <c r="P139" s="2"/>
+      <c r="Q139" s="2"/>
     </row>
     <row r="140" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A140" s="1"/>
       <c r="B140" s="2"/>
-      <c r="C140" s="1" t="s">
-        <v>67</v>
-      </c>
+      <c r="C140" s="2"/>
       <c r="D140" s="12"/>
       <c r="E140" s="12"/>
       <c r="F140" s="12"/>
       <c r="G140" s="12"/>
-      <c r="H140" s="12"/>
+      <c r="H140" s="7" t="s">
+        <v>135</v>
+      </c>
       <c r="I140" s="12"/>
       <c r="J140" s="12"/>
       <c r="K140" s="12"/>
@@ -4201,35 +4206,38 @@
       <c r="P140" s="2"/>
       <c r="Q140" s="2"/>
     </row>
-    <row r="141" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A141" s="1"/>
-      <c r="B141" s="2"/>
-      <c r="C141" s="2"/>
-      <c r="D141" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="E141" s="12"/>
-      <c r="F141" s="12"/>
-      <c r="G141" s="12"/>
-      <c r="H141" s="12"/>
-      <c r="I141" s="12"/>
-      <c r="J141" s="12"/>
-      <c r="K141" s="12"/>
-      <c r="L141" s="2"/>
-      <c r="M141" s="2"/>
-      <c r="N141" s="2"/>
-      <c r="O141" s="2"/>
-      <c r="P141" s="2"/>
-      <c r="Q141" s="2"/>
+    <row r="141" spans="1:17" s="19" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A141" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B141" s="18">
+        <f>1.3*(2.73+0.664+2.65+1.42+1.8+1.12+0.9)</f>
+        <v>14.669200000000002</v>
+      </c>
+      <c r="C141" s="18"/>
+      <c r="D141" s="18"/>
+      <c r="E141" s="18"/>
+      <c r="F141" s="18"/>
+      <c r="G141" s="18"/>
+      <c r="H141" s="18"/>
+      <c r="I141" s="18"/>
+      <c r="J141" s="18"/>
+      <c r="K141" s="18"/>
+      <c r="L141" s="18"/>
+      <c r="M141" s="18"/>
+      <c r="N141" s="18"/>
+      <c r="O141" s="18"/>
+      <c r="P141" s="18"/>
+      <c r="Q141" s="18"/>
     </row>
     <row r="142" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A142" s="1"/>
       <c r="B142" s="2"/>
-      <c r="C142" s="2"/>
-      <c r="D142" s="11"/>
-      <c r="E142" s="5" t="s">
-        <v>42</v>
-      </c>
+      <c r="C142" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D142" s="12"/>
+      <c r="E142" s="12"/>
       <c r="F142" s="12"/>
       <c r="G142" s="12"/>
       <c r="H142" s="12"/>
@@ -4243,40 +4251,38 @@
       <c r="P142" s="2"/>
       <c r="Q142" s="2"/>
     </row>
-    <row r="143" spans="1:17" s="19" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A143" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="B143" s="18"/>
-      <c r="C143" s="18"/>
-      <c r="D143" s="18"/>
-      <c r="E143" s="17"/>
-      <c r="F143" s="18"/>
-      <c r="G143" s="18"/>
-      <c r="H143" s="18"/>
-      <c r="I143" s="18"/>
-      <c r="J143" s="18"/>
-      <c r="K143" s="18"/>
-      <c r="L143" s="18"/>
-      <c r="M143" s="18"/>
-      <c r="N143" s="18"/>
-      <c r="O143" s="18"/>
-      <c r="P143" s="18"/>
-      <c r="Q143" s="18"/>
+    <row r="143" spans="1:17" ht="20.100000000000001" customHeight="1">
+      <c r="A143" s="1"/>
+      <c r="B143" s="2"/>
+      <c r="C143" s="2"/>
+      <c r="D143" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E143" s="12"/>
+      <c r="F143" s="12"/>
+      <c r="G143" s="12"/>
+      <c r="H143" s="12"/>
+      <c r="I143" s="12"/>
+      <c r="J143" s="12"/>
+      <c r="K143" s="12"/>
+      <c r="L143" s="2"/>
+      <c r="M143" s="2"/>
+      <c r="N143" s="2"/>
+      <c r="O143" s="2"/>
+      <c r="P143" s="2"/>
+      <c r="Q143" s="2"/>
     </row>
     <row r="144" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A144" s="1"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
-      <c r="D144" s="12"/>
+      <c r="D144" s="11"/>
       <c r="E144" s="5" t="s">
-        <v>130</v>
+        <v>42</v>
       </c>
       <c r="F144" s="12"/>
       <c r="G144" s="12"/>
-      <c r="H144" s="7" t="s">
-        <v>61</v>
-      </c>
+      <c r="H144" s="12"/>
       <c r="I144" s="12"/>
       <c r="J144" s="12"/>
       <c r="K144" s="12"/>
@@ -4287,38 +4293,40 @@
       <c r="P144" s="2"/>
       <c r="Q144" s="2"/>
     </row>
-    <row r="145" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A145" s="1"/>
-      <c r="B145" s="2"/>
-      <c r="C145" s="2"/>
-      <c r="D145" s="12"/>
-      <c r="E145" s="12"/>
-      <c r="F145" s="12"/>
-      <c r="G145" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="H145" s="12"/>
-      <c r="I145" s="12"/>
-      <c r="J145" s="12"/>
-      <c r="K145" s="12"/>
-      <c r="L145" s="2"/>
-      <c r="M145" s="2"/>
-      <c r="N145" s="2"/>
-      <c r="O145" s="2"/>
-      <c r="P145" s="2"/>
-      <c r="Q145" s="2"/>
+    <row r="145" spans="1:17" s="19" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A145" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B145" s="18"/>
+      <c r="C145" s="18"/>
+      <c r="D145" s="18"/>
+      <c r="E145" s="17"/>
+      <c r="F145" s="18"/>
+      <c r="G145" s="18"/>
+      <c r="H145" s="18"/>
+      <c r="I145" s="18"/>
+      <c r="J145" s="18"/>
+      <c r="K145" s="18"/>
+      <c r="L145" s="18"/>
+      <c r="M145" s="18"/>
+      <c r="N145" s="18"/>
+      <c r="O145" s="18"/>
+      <c r="P145" s="18"/>
+      <c r="Q145" s="18"/>
     </row>
     <row r="146" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A146" s="1"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
       <c r="D146" s="12"/>
-      <c r="E146" s="12"/>
-      <c r="F146" s="3" t="s">
-        <v>131</v>
-      </c>
+      <c r="E146" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="F146" s="12"/>
       <c r="G146" s="12"/>
-      <c r="H146" s="12"/>
+      <c r="H146" s="7" t="s">
+        <v>61</v>
+      </c>
       <c r="I146" s="12"/>
       <c r="J146" s="12"/>
       <c r="K146" s="12"/>
@@ -4336,7 +4344,9 @@
       <c r="D147" s="12"/>
       <c r="E147" s="12"/>
       <c r="F147" s="12"/>
-      <c r="G147" s="12"/>
+      <c r="G147" s="6" t="s">
+        <v>95</v>
+      </c>
       <c r="H147" s="12"/>
       <c r="I147" s="12"/>
       <c r="J147" s="12"/>
@@ -4348,32 +4358,30 @@
       <c r="P147" s="2"/>
       <c r="Q147" s="2"/>
     </row>
-    <row r="148" spans="1:17" s="19" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A148" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="B148" s="18"/>
-      <c r="C148" s="18"/>
-      <c r="D148" s="18"/>
-      <c r="E148" s="18"/>
-      <c r="F148" s="18"/>
-      <c r="G148" s="18"/>
-      <c r="H148" s="18"/>
-      <c r="I148" s="18"/>
-      <c r="J148" s="18"/>
-      <c r="K148" s="18"/>
-      <c r="L148" s="18"/>
-      <c r="M148" s="18"/>
-      <c r="N148" s="18"/>
-      <c r="O148" s="18"/>
-      <c r="P148" s="18"/>
-      <c r="Q148" s="18"/>
+    <row r="148" spans="1:17" ht="20.100000000000001" customHeight="1">
+      <c r="A148" s="1"/>
+      <c r="B148" s="2"/>
+      <c r="C148" s="2"/>
+      <c r="D148" s="12"/>
+      <c r="E148" s="12"/>
+      <c r="F148" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="G148" s="12"/>
+      <c r="H148" s="12"/>
+      <c r="I148" s="12"/>
+      <c r="J148" s="12"/>
+      <c r="K148" s="12"/>
+      <c r="L148" s="2"/>
+      <c r="M148" s="2"/>
+      <c r="N148" s="2"/>
+      <c r="O148" s="2"/>
+      <c r="P148" s="2"/>
+      <c r="Q148" s="2"/>
     </row>
     <row r="149" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A149" s="2"/>
-      <c r="B149" s="1" t="s">
-        <v>144</v>
-      </c>
+      <c r="A149" s="1"/>
+      <c r="B149" s="2"/>
       <c r="C149" s="2"/>
       <c r="D149" s="12"/>
       <c r="E149" s="12"/>
@@ -4390,31 +4398,31 @@
       <c r="P149" s="2"/>
       <c r="Q149" s="2"/>
     </row>
-    <row r="150" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A150" s="2"/>
-      <c r="B150" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C150" s="2"/>
-      <c r="D150" s="12"/>
-      <c r="E150" s="12"/>
-      <c r="F150" s="12"/>
-      <c r="G150" s="12"/>
-      <c r="H150" s="12"/>
-      <c r="I150" s="12"/>
-      <c r="J150" s="12"/>
-      <c r="K150" s="12"/>
-      <c r="L150" s="2"/>
-      <c r="M150" s="2"/>
-      <c r="N150" s="2"/>
-      <c r="O150" s="2"/>
-      <c r="P150" s="2"/>
-      <c r="Q150" s="2"/>
+    <row r="150" spans="1:17" s="19" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A150" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B150" s="18"/>
+      <c r="C150" s="18"/>
+      <c r="D150" s="18"/>
+      <c r="E150" s="18"/>
+      <c r="F150" s="18"/>
+      <c r="G150" s="18"/>
+      <c r="H150" s="18"/>
+      <c r="I150" s="18"/>
+      <c r="J150" s="18"/>
+      <c r="K150" s="18"/>
+      <c r="L150" s="18"/>
+      <c r="M150" s="18"/>
+      <c r="N150" s="18"/>
+      <c r="O150" s="18"/>
+      <c r="P150" s="18"/>
+      <c r="Q150" s="18"/>
     </row>
     <row r="151" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A151" s="2"/>
       <c r="B151" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" s="12"/>
@@ -4435,7 +4443,7 @@
     <row r="152" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A152" s="2"/>
       <c r="B152" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" s="12"/>
@@ -4455,7 +4463,9 @@
     </row>
     <row r="153" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A153" s="2"/>
-      <c r="B153" s="1"/>
+      <c r="B153" s="1" t="s">
+        <v>147</v>
+      </c>
       <c r="C153" s="2"/>
       <c r="D153" s="12"/>
       <c r="E153" s="12"/>
@@ -4475,7 +4485,7 @@
     <row r="154" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A154" s="2"/>
       <c r="B154" s="1" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" s="12"/>
@@ -4515,7 +4525,7 @@
     <row r="156" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A156" s="2"/>
       <c r="B156" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" s="12"/>
@@ -4539,9 +4549,7 @@
       <c r="C157" s="2"/>
       <c r="D157" s="12"/>
       <c r="E157" s="12"/>
-      <c r="F157" s="3" t="s">
-        <v>141</v>
-      </c>
+      <c r="F157" s="12"/>
       <c r="G157" s="12"/>
       <c r="H157" s="12"/>
       <c r="I157" s="12"/>
@@ -4556,13 +4564,13 @@
     </row>
     <row r="158" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A158" s="2"/>
-      <c r="B158" s="1"/>
+      <c r="B158" s="1" t="s">
+        <v>128</v>
+      </c>
       <c r="C158" s="2"/>
       <c r="D158" s="12"/>
       <c r="E158" s="12"/>
-      <c r="F158" s="3" t="s">
-        <v>142</v>
-      </c>
+      <c r="F158" s="12"/>
       <c r="G158" s="12"/>
       <c r="H158" s="12"/>
       <c r="I158" s="12"/>
@@ -4577,13 +4585,13 @@
     </row>
     <row r="159" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A159" s="2"/>
-      <c r="B159" s="1" t="s">
-        <v>53</v>
-      </c>
+      <c r="B159" s="1"/>
       <c r="C159" s="2"/>
       <c r="D159" s="12"/>
       <c r="E159" s="12"/>
-      <c r="F159" s="12"/>
+      <c r="F159" s="3" t="s">
+        <v>141</v>
+      </c>
       <c r="G159" s="12"/>
       <c r="H159" s="12"/>
       <c r="I159" s="12"/>
@@ -4598,12 +4606,12 @@
     </row>
     <row r="160" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A160" s="2"/>
-      <c r="B160" s="2"/>
+      <c r="B160" s="1"/>
       <c r="C160" s="2"/>
       <c r="D160" s="12"/>
       <c r="E160" s="12"/>
       <c r="F160" s="3" t="s">
-        <v>81</v>
+        <v>142</v>
       </c>
       <c r="G160" s="12"/>
       <c r="H160" s="12"/>
@@ -4619,13 +4627,13 @@
     </row>
     <row r="161" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A161" s="2"/>
-      <c r="B161" s="2"/>
+      <c r="B161" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="C161" s="2"/>
       <c r="D161" s="12"/>
       <c r="E161" s="12"/>
-      <c r="F161" s="3" t="s">
-        <v>82</v>
-      </c>
+      <c r="F161" s="12"/>
       <c r="G161" s="12"/>
       <c r="H161" s="12"/>
       <c r="I161" s="12"/>
@@ -4645,7 +4653,7 @@
       <c r="D162" s="12"/>
       <c r="E162" s="12"/>
       <c r="F162" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G162" s="12"/>
       <c r="H162" s="12"/>
@@ -4666,7 +4674,7 @@
       <c r="D163" s="12"/>
       <c r="E163" s="12"/>
       <c r="F163" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G163" s="12"/>
       <c r="H163" s="12"/>
@@ -4687,7 +4695,7 @@
       <c r="D164" s="12"/>
       <c r="E164" s="12"/>
       <c r="F164" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G164" s="12"/>
       <c r="H164" s="12"/>
@@ -4703,13 +4711,13 @@
     </row>
     <row r="165" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A165" s="2"/>
-      <c r="B165" s="1" t="s">
-        <v>143</v>
-      </c>
+      <c r="B165" s="2"/>
       <c r="C165" s="2"/>
       <c r="D165" s="12"/>
       <c r="E165" s="12"/>
-      <c r="F165" s="12"/>
+      <c r="F165" s="3" t="s">
+        <v>84</v>
+      </c>
       <c r="G165" s="12"/>
       <c r="H165" s="12"/>
       <c r="I165" s="12"/>
@@ -4724,14 +4732,12 @@
     </row>
     <row r="166" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A166" s="2"/>
-      <c r="B166" s="1" t="s">
-        <v>54</v>
-      </c>
+      <c r="B166" s="2"/>
       <c r="C166" s="2"/>
       <c r="D166" s="12"/>
       <c r="E166" s="12"/>
       <c r="F166" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G166" s="12"/>
       <c r="H166" s="12"/>
@@ -4747,13 +4753,13 @@
     </row>
     <row r="167" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A167" s="2"/>
-      <c r="B167" s="2"/>
+      <c r="B167" s="1" t="s">
+        <v>143</v>
+      </c>
       <c r="C167" s="2"/>
       <c r="D167" s="12"/>
       <c r="E167" s="12"/>
-      <c r="F167" s="3" t="s">
-        <v>87</v>
-      </c>
+      <c r="F167" s="12"/>
       <c r="G167" s="12"/>
       <c r="H167" s="12"/>
       <c r="I167" s="12"/>
@@ -4768,12 +4774,14 @@
     </row>
     <row r="168" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A168" s="2"/>
-      <c r="B168" s="2"/>
+      <c r="B168" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="C168" s="2"/>
       <c r="D168" s="12"/>
       <c r="E168" s="12"/>
       <c r="F168" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G168" s="12"/>
       <c r="H168" s="12"/>
@@ -4789,16 +4797,14 @@
     </row>
     <row r="169" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A169" s="2"/>
-      <c r="B169" s="1" t="s">
-        <v>57</v>
-      </c>
+      <c r="B169" s="2"/>
       <c r="C169" s="2"/>
       <c r="D169" s="12"/>
       <c r="E169" s="12"/>
-      <c r="F169" s="12"/>
-      <c r="G169" s="6" t="s">
-        <v>96</v>
-      </c>
+      <c r="F169" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G169" s="12"/>
       <c r="H169" s="12"/>
       <c r="I169" s="12"/>
       <c r="J169" s="12"/>
@@ -4816,10 +4822,10 @@
       <c r="C170" s="2"/>
       <c r="D170" s="12"/>
       <c r="E170" s="12"/>
-      <c r="F170" s="12"/>
-      <c r="G170" s="6" t="s">
-        <v>55</v>
-      </c>
+      <c r="F170" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G170" s="12"/>
       <c r="H170" s="12"/>
       <c r="I170" s="12"/>
       <c r="J170" s="12"/>
@@ -4833,13 +4839,15 @@
     </row>
     <row r="171" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A171" s="2"/>
-      <c r="B171" s="2"/>
+      <c r="B171" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="C171" s="2"/>
       <c r="D171" s="12"/>
       <c r="E171" s="12"/>
       <c r="F171" s="12"/>
       <c r="G171" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H171" s="12"/>
       <c r="I171" s="12"/>
@@ -4854,18 +4862,16 @@
     </row>
     <row r="172" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A172" s="2"/>
-      <c r="B172" s="1" t="s">
-        <v>58</v>
-      </c>
+      <c r="B172" s="2"/>
       <c r="C172" s="2"/>
       <c r="D172" s="12"/>
       <c r="E172" s="12"/>
       <c r="F172" s="12"/>
-      <c r="G172" s="12"/>
+      <c r="G172" s="6" t="s">
+        <v>55</v>
+      </c>
       <c r="H172" s="12"/>
-      <c r="I172" s="8" t="s">
-        <v>56</v>
-      </c>
+      <c r="I172" s="12"/>
       <c r="J172" s="12"/>
       <c r="K172" s="12"/>
       <c r="L172" s="2"/>
@@ -4877,20 +4883,18 @@
     </row>
     <row r="173" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A173" s="2"/>
-      <c r="B173" s="1" t="s">
-        <v>59</v>
-      </c>
+      <c r="B173" s="2"/>
       <c r="C173" s="2"/>
       <c r="D173" s="12"/>
       <c r="E173" s="12"/>
       <c r="F173" s="12"/>
-      <c r="G173" s="12"/>
+      <c r="G173" s="6" t="s">
+        <v>97</v>
+      </c>
       <c r="H173" s="12"/>
       <c r="I173" s="12"/>
       <c r="J173" s="12"/>
-      <c r="K173" s="10" t="s">
-        <v>99</v>
-      </c>
+      <c r="K173" s="12"/>
       <c r="L173" s="2"/>
       <c r="M173" s="2"/>
       <c r="N173" s="2"/>
@@ -4900,14 +4904,18 @@
     </row>
     <row r="174" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A174" s="2"/>
-      <c r="B174" s="2"/>
+      <c r="B174" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="C174" s="2"/>
       <c r="D174" s="12"/>
       <c r="E174" s="12"/>
       <c r="F174" s="12"/>
       <c r="G174" s="12"/>
       <c r="H174" s="12"/>
-      <c r="I174" s="12"/>
+      <c r="I174" s="8" t="s">
+        <v>56</v>
+      </c>
       <c r="J174" s="12"/>
       <c r="K174" s="12"/>
       <c r="L174" s="2"/>
@@ -4919,7 +4927,9 @@
     </row>
     <row r="175" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A175" s="2"/>
-      <c r="B175" s="2"/>
+      <c r="B175" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="C175" s="2"/>
       <c r="D175" s="12"/>
       <c r="E175" s="12"/>
@@ -4928,7 +4938,9 @@
       <c r="H175" s="12"/>
       <c r="I175" s="12"/>
       <c r="J175" s="12"/>
-      <c r="K175" s="12"/>
+      <c r="K175" s="10" t="s">
+        <v>99</v>
+      </c>
       <c r="L175" s="2"/>
       <c r="M175" s="2"/>
       <c r="N175" s="2"/>
@@ -15063,7 +15075,45 @@
       <c r="P708" s="2"/>
       <c r="Q708" s="2"/>
     </row>
-    <row r="718" spans="1:17" ht="20.100000000000001" customHeight="1"/>
+    <row r="709" spans="1:17" ht="20.100000000000001" customHeight="1">
+      <c r="A709" s="2"/>
+      <c r="B709" s="2"/>
+      <c r="C709" s="2"/>
+      <c r="D709" s="12"/>
+      <c r="E709" s="12"/>
+      <c r="F709" s="12"/>
+      <c r="G709" s="12"/>
+      <c r="H709" s="12"/>
+      <c r="I709" s="12"/>
+      <c r="J709" s="12"/>
+      <c r="K709" s="12"/>
+      <c r="L709" s="2"/>
+      <c r="M709" s="2"/>
+      <c r="N709" s="2"/>
+      <c r="O709" s="2"/>
+      <c r="P709" s="2"/>
+      <c r="Q709" s="2"/>
+    </row>
+    <row r="710" spans="1:17" ht="20.100000000000001" customHeight="1">
+      <c r="A710" s="2"/>
+      <c r="B710" s="2"/>
+      <c r="C710" s="2"/>
+      <c r="D710" s="12"/>
+      <c r="E710" s="12"/>
+      <c r="F710" s="12"/>
+      <c r="G710" s="12"/>
+      <c r="H710" s="12"/>
+      <c r="I710" s="12"/>
+      <c r="J710" s="12"/>
+      <c r="K710" s="12"/>
+      <c r="L710" s="2"/>
+      <c r="M710" s="2"/>
+      <c r="N710" s="2"/>
+      <c r="O710" s="2"/>
+      <c r="P710" s="2"/>
+      <c r="Q710" s="2"/>
+    </row>
+    <row r="720" spans="1:17" ht="20.100000000000001" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/表格.xlsx
+++ b/表格.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\doc\-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D71EE9E0-FC7E-4570-B588-55CC46C47372}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45CB6CCF-468A-4A07-BD8F-0DDD454E0061}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="总体" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <sheet name="洗漱间" sheetId="10" r:id="rId10"/>
     <sheet name="网络设计" sheetId="11" r:id="rId11"/>
     <sheet name="候选" sheetId="12" r:id="rId12"/>
+    <sheet name="Sheet1" sheetId="13" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">插座规划1!$A$1:$AL$724</definedName>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="271">
   <si>
     <t>地面</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1391,6 +1392,46 @@
     <t>侯博：抗光幕布（亿立JER系列；）  投影仪（明基W1070+）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>暖气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>型号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购地点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tata</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菲斯曼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘉宝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1793,7 +1834,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1922,14 +1963,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6747,10 +6794,10 @@
       <c r="I172" s="52"/>
       <c r="J172" s="52"/>
       <c r="K172" s="52"/>
-      <c r="L172" s="74">
+      <c r="L172" s="75">
         <v>597.46</v>
       </c>
-      <c r="M172" s="74">
+      <c r="M172" s="75">
         <v>597.46</v>
       </c>
       <c r="N172" s="49"/>
@@ -6786,8 +6833,8 @@
       <c r="I173" s="52"/>
       <c r="J173" s="52"/>
       <c r="K173" s="52"/>
-      <c r="L173" s="75"/>
-      <c r="M173" s="75"/>
+      <c r="L173" s="76"/>
+      <c r="M173" s="76"/>
       <c r="N173" s="49"/>
       <c r="O173" s="49" t="s">
         <v>199</v>
@@ -19541,7 +19588,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB073F53-A6E2-4C9B-8BEC-F86238F23C4F}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -19635,7 +19682,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="71" x14ac:dyDescent="0.3">
-      <c r="B9" s="76" t="s">
+      <c r="B9" s="74" t="s">
         <v>259</v>
       </c>
     </row>
@@ -19643,6 +19690,397 @@
       <c r="B11" s="41" t="s">
         <v>260</v>
       </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1581B2B4-81F0-45E4-A07C-DE092DB2F40F}">
+  <dimension ref="A1:J29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:10" s="48" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="77" t="s">
+        <v>263</v>
+      </c>
+      <c r="B1" s="77" t="s">
+        <v>264</v>
+      </c>
+      <c r="C1" s="77" t="s">
+        <v>265</v>
+      </c>
+      <c r="D1" s="77" t="s">
+        <v>266</v>
+      </c>
+      <c r="E1" s="77" t="s">
+        <v>267</v>
+      </c>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+    </row>
+    <row r="2" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="50" t="s">
+        <v>270</v>
+      </c>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+    </row>
+    <row r="3" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="50" t="s">
+        <v>261</v>
+      </c>
+      <c r="B3" s="50" t="s">
+        <v>269</v>
+      </c>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+    </row>
+    <row r="4" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="50" t="s">
+        <v>254</v>
+      </c>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+    </row>
+    <row r="5" spans="1:10" s="48" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="50"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+    </row>
+    <row r="6" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="49"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+    </row>
+    <row r="7" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="50" t="s">
+        <v>262</v>
+      </c>
+      <c r="B7" s="49" t="s">
+        <v>268</v>
+      </c>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+    </row>
+    <row r="8" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="49"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="49"/>
+    </row>
+    <row r="9" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="49"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="49"/>
+    </row>
+    <row r="10" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="49"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="49"/>
+    </row>
+    <row r="11" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="49"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="49"/>
+    </row>
+    <row r="12" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="49"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="49"/>
+    </row>
+    <row r="13" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="49"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="49"/>
+    </row>
+    <row r="14" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="49"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="49"/>
+    </row>
+    <row r="15" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="49"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="49"/>
+    </row>
+    <row r="16" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="49"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="49"/>
+    </row>
+    <row r="17" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="49"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="49"/>
+    </row>
+    <row r="18" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="49"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="49"/>
+    </row>
+    <row r="19" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="49"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="49"/>
+      <c r="H19" s="49"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="49"/>
+    </row>
+    <row r="20" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="49"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="49"/>
+    </row>
+    <row r="21" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="49"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="49"/>
+      <c r="I21" s="49"/>
+      <c r="J21" s="49"/>
+    </row>
+    <row r="22" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="49"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="49"/>
+    </row>
+    <row r="23" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="49"/>
+      <c r="B23" s="49"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="49"/>
+      <c r="J23" s="49"/>
+    </row>
+    <row r="24" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="49"/>
+      <c r="B24" s="49"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="49"/>
+      <c r="I24" s="49"/>
+      <c r="J24" s="49"/>
+    </row>
+    <row r="25" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="49"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="49"/>
+      <c r="J25" s="49"/>
+    </row>
+    <row r="26" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="49"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="49"/>
+      <c r="J26" s="49"/>
+    </row>
+    <row r="27" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="49"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="49"/>
+      <c r="I27" s="49"/>
+      <c r="J27" s="49"/>
+    </row>
+    <row r="28" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="46"/>
+      <c r="B28" s="46"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="46"/>
+      <c r="H28" s="46"/>
+      <c r="I28" s="46"/>
+      <c r="J28" s="46"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="46"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="46"/>
+      <c r="H29" s="46"/>
+      <c r="I29" s="46"/>
+      <c r="J29" s="46"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/表格.xlsx
+++ b/表格.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\doc\-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9A9D02C-2037-4DB1-BEED-4FDEB688ADE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C337C21-337C-4C41-BC41-F750FAD0B74E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="661" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,6 +35,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -20351,7 +20352,7 @@
   <dimension ref="A1:N79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="N1" sqref="N1:N1048576"/>
     </sheetView>
   </sheetViews>
@@ -21529,9 +21530,11 @@
       <c r="J55" s="2"/>
       <c r="K55" s="2"/>
       <c r="L55" s="2"/>
-      <c r="M55" s="33"/>
+      <c r="M55" s="33">
+        <v>77500</v>
+      </c>
       <c r="N55" s="33">
-        <v>120000</v>
+        <v>124606</v>
       </c>
     </row>
     <row r="56" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -21800,6 +21803,11 @@
     <row r="79" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="A22:A29"/>
+    <mergeCell ref="N22:N29"/>
+    <mergeCell ref="A30:A36"/>
+    <mergeCell ref="N30:N36"/>
     <mergeCell ref="B4:B7"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="N4:N7"/>
@@ -21808,11 +21816,6 @@
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="M8:M9"/>
     <mergeCell ref="M4:M7"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="A22:A29"/>
-    <mergeCell ref="N22:N29"/>
-    <mergeCell ref="A30:A36"/>
-    <mergeCell ref="N30:N36"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/表格.xlsx
+++ b/表格.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\doc\-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C337C21-337C-4C41-BC41-F750FAD0B74E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BEB53E8-C4E2-49DD-9AA9-91051BF421B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="661" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="404">
   <si>
     <t>地面</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2240,6 +2240,10 @@
   </si>
   <si>
     <t>万家丽二楼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3700+450</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -20352,8 +20356,8 @@
   <dimension ref="A1:N79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N1" sqref="N1:N1048576"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I53" sqref="I53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -20810,11 +20814,11 @@
       <c r="J20" s="33"/>
       <c r="K20" s="33"/>
       <c r="L20" s="2"/>
-      <c r="M20" s="33">
-        <v>3700</v>
+      <c r="M20" s="33" t="s">
+        <v>403</v>
       </c>
       <c r="N20" s="33">
-        <v>3700</v>
+        <v>4150</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -20832,7 +20836,9 @@
       <c r="J21" s="33"/>
       <c r="K21" s="33"/>
       <c r="L21" s="2"/>
-      <c r="M21" s="33"/>
+      <c r="M21" s="33">
+        <v>4074</v>
+      </c>
       <c r="N21" s="33">
         <v>4000</v>
       </c>
@@ -21803,11 +21809,6 @@
     <row r="79" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="A22:A29"/>
-    <mergeCell ref="N22:N29"/>
-    <mergeCell ref="A30:A36"/>
-    <mergeCell ref="N30:N36"/>
     <mergeCell ref="B4:B7"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="N4:N7"/>
@@ -21816,6 +21817,11 @@
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="M8:M9"/>
     <mergeCell ref="M4:M7"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="A22:A29"/>
+    <mergeCell ref="N22:N29"/>
+    <mergeCell ref="A30:A36"/>
+    <mergeCell ref="N30:N36"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/表格.xlsx
+++ b/表格.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\doc\-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BEB53E8-C4E2-49DD-9AA9-91051BF421B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D4B2BA3-2ACC-4FC6-9505-D95AF4E0ACCB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="661" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="406">
   <si>
     <t>地面</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2244,6 +2244,14 @@
   </si>
   <si>
     <t>3700+450</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老板官网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>67A7+37B0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -20356,14 +20364,15 @@
   <dimension ref="A1:N79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I53" sqref="I53"/>
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N1" sqref="N1:N1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.58203125" customWidth="1"/>
     <col min="2" max="2" width="10.83203125" customWidth="1"/>
+    <col min="3" max="3" width="10.9140625" customWidth="1"/>
     <col min="5" max="5" width="8.58203125" style="32"/>
     <col min="7" max="7" width="25.33203125" customWidth="1"/>
     <col min="12" max="12" width="11.33203125" customWidth="1"/>
@@ -20892,19 +20901,27 @@
       <c r="B24" s="34" t="s">
         <v>389</v>
       </c>
-      <c r="C24" s="33"/>
+      <c r="C24" s="33" t="s">
+        <v>405</v>
+      </c>
       <c r="D24" s="33">
         <v>4000</v>
       </c>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
+      <c r="E24" s="33">
+        <v>1</v>
+      </c>
+      <c r="F24" s="34" t="s">
+        <v>404</v>
+      </c>
       <c r="G24" s="33"/>
       <c r="H24" s="33"/>
       <c r="I24" s="33"/>
       <c r="J24" s="33"/>
       <c r="K24" s="33"/>
       <c r="L24" s="2"/>
-      <c r="M24" s="33"/>
+      <c r="M24" s="33">
+        <v>4691.5</v>
+      </c>
       <c r="N24" s="71"/>
     </row>
     <row r="25" spans="1:14" s="32" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">

--- a/表格.xlsx
+++ b/表格.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\doc\-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D4B2BA3-2ACC-4FC6-9505-D95AF4E0ACCB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40842C83-FB2E-4002-AB05-6911DDA94719}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="661" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">插座规划1!$A$1:$AL$724</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">总体!$A$1:$AL$727</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">总体!$A$1:$AL$730</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="9">预算!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="431">
   <si>
     <t>地面</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2254,12 +2254,165 @@
     <t>67A7+37B0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>弱电移位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>HDMI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>线+音频线</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三泽+绿联</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>线缆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HDMI线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>音频线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HDMI线（光）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山泽（10米）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿联（12米）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>绿联（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>米）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.12.18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>#801</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>推荐</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华成供暖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万家丽附近</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水电增项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中宇卫浴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灰玉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>含定制、切角</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>追加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角阀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>潜水艇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>京东</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信转工长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加地支架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各类损耗、增补</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2353,6 +2506,13 @@
       <color theme="1"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="16">
@@ -2547,7 +2707,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -2675,7 +2835,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2688,18 +2863,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3052,11 +3215,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AL727"/>
+  <dimension ref="A1:AL730"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A192" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V202" sqref="V202"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A186" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U191" sqref="U191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -7455,15 +7618,17 @@
       <c r="T168" s="33"/>
       <c r="U168" s="33"/>
     </row>
-    <row r="169" spans="1:21" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:21" s="32" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="33"/>
-      <c r="B169" s="34" t="s">
-        <v>131</v>
+      <c r="B169" s="70" t="s">
+        <v>409</v>
       </c>
       <c r="C169" s="33"/>
       <c r="D169" s="36"/>
       <c r="E169" s="36"/>
-      <c r="F169" s="36"/>
+      <c r="F169" s="39" t="s">
+        <v>411</v>
+      </c>
       <c r="G169" s="36"/>
       <c r="H169" s="36"/>
       <c r="I169" s="36"/>
@@ -7480,131 +7645,143 @@
       <c r="T169" s="33"/>
       <c r="U169" s="33"/>
     </row>
-    <row r="170" spans="1:21" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:21" s="32" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="33"/>
-      <c r="B170" s="34" t="s">
-        <v>45</v>
-      </c>
+      <c r="B170" s="71"/>
       <c r="C170" s="33"/>
       <c r="D170" s="36"/>
       <c r="E170" s="36"/>
       <c r="F170" s="39" t="s">
-        <v>74</v>
+        <v>412</v>
       </c>
       <c r="G170" s="36"/>
       <c r="H170" s="36"/>
       <c r="I170" s="36"/>
       <c r="J170" s="36"/>
       <c r="K170" s="36"/>
-      <c r="L170" s="33"/>
-      <c r="M170" s="33"/>
+      <c r="L170" s="33">
+        <v>151</v>
+      </c>
+      <c r="M170" s="33">
+        <v>151</v>
+      </c>
       <c r="N170" s="33"/>
-      <c r="O170" s="33"/>
+      <c r="O170" s="63" t="s">
+        <v>415</v>
+      </c>
       <c r="P170" s="33"/>
       <c r="Q170" s="33"/>
-      <c r="R170" s="33"/>
-      <c r="S170" s="33"/>
+      <c r="R170" s="34" t="s">
+        <v>196</v>
+      </c>
+      <c r="S170" s="33" t="s">
+        <v>416</v>
+      </c>
       <c r="T170" s="33"/>
-      <c r="U170" s="33"/>
-    </row>
-    <row r="171" spans="1:21" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="U170" s="33" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="171" spans="1:21" s="32" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="33"/>
-      <c r="B171" s="33"/>
+      <c r="B171" s="72"/>
       <c r="C171" s="33"/>
       <c r="D171" s="36"/>
       <c r="E171" s="36"/>
       <c r="F171" s="39" t="s">
-        <v>75</v>
+        <v>410</v>
       </c>
       <c r="G171" s="36"/>
       <c r="H171" s="36"/>
       <c r="I171" s="36"/>
       <c r="J171" s="36"/>
       <c r="K171" s="36"/>
-      <c r="L171" s="33"/>
-      <c r="M171" s="33"/>
+      <c r="L171" s="33">
+        <v>264</v>
+      </c>
+      <c r="M171" s="33">
+        <v>264</v>
+      </c>
       <c r="N171" s="33"/>
-      <c r="O171" s="33"/>
+      <c r="O171" s="34" t="s">
+        <v>413</v>
+      </c>
       <c r="P171" s="33"/>
       <c r="Q171" s="33"/>
-      <c r="R171" s="33"/>
-      <c r="S171" s="33"/>
+      <c r="R171" s="34" t="s">
+        <v>196</v>
+      </c>
+      <c r="S171" s="33" t="s">
+        <v>416</v>
+      </c>
       <c r="T171" s="33"/>
-      <c r="U171" s="33"/>
+      <c r="U171" s="33" t="s">
+        <v>416</v>
+      </c>
     </row>
     <row r="172" spans="1:21" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="33"/>
-      <c r="B172" s="33"/>
+      <c r="B172" s="34" t="s">
+        <v>131</v>
+      </c>
       <c r="C172" s="33"/>
       <c r="D172" s="36"/>
       <c r="E172" s="36"/>
-      <c r="F172" s="39" t="s">
-        <v>194</v>
-      </c>
+      <c r="F172" s="36"/>
       <c r="G172" s="36"/>
       <c r="H172" s="36"/>
       <c r="I172" s="36"/>
       <c r="J172" s="36"/>
       <c r="K172" s="36"/>
-      <c r="L172" s="63">
-        <v>597.46</v>
-      </c>
-      <c r="M172" s="63">
-        <v>597.46</v>
+      <c r="L172" s="33">
+        <v>131</v>
+      </c>
+      <c r="M172" s="33">
+        <v>131</v>
       </c>
       <c r="N172" s="33"/>
-      <c r="O172" s="33" t="s">
-        <v>195</v>
+      <c r="O172" s="34" t="s">
+        <v>414</v>
       </c>
       <c r="P172" s="33"/>
-      <c r="Q172" s="48"/>
+      <c r="Q172" s="33"/>
       <c r="R172" s="34" t="s">
         <v>196</v>
       </c>
       <c r="S172" s="33" t="s">
-        <v>197</v>
-      </c>
-      <c r="T172" s="34" t="s">
-        <v>196</v>
-      </c>
+        <v>416</v>
+      </c>
+      <c r="T172" s="33"/>
       <c r="U172" s="33" t="s">
-        <v>197</v>
+        <v>416</v>
       </c>
     </row>
     <row r="173" spans="1:21" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="33"/>
-      <c r="B173" s="33"/>
+      <c r="B173" s="34" t="s">
+        <v>45</v>
+      </c>
       <c r="C173" s="33"/>
       <c r="D173" s="36"/>
       <c r="E173" s="36"/>
       <c r="F173" s="39" t="s">
-        <v>198</v>
+        <v>74</v>
       </c>
       <c r="G173" s="36"/>
       <c r="H173" s="36"/>
       <c r="I173" s="36"/>
       <c r="J173" s="36"/>
       <c r="K173" s="36"/>
-      <c r="L173" s="64"/>
-      <c r="M173" s="64"/>
+      <c r="L173" s="33"/>
+      <c r="M173" s="33"/>
       <c r="N173" s="33"/>
-      <c r="O173" s="33" t="s">
-        <v>199</v>
-      </c>
+      <c r="O173" s="33"/>
       <c r="P173" s="33"/>
-      <c r="Q173" s="48"/>
-      <c r="R173" s="34" t="s">
-        <v>196</v>
-      </c>
-      <c r="S173" s="33" t="s">
-        <v>197</v>
-      </c>
-      <c r="T173" s="34" t="s">
-        <v>196</v>
-      </c>
-      <c r="U173" s="33" t="s">
-        <v>197</v>
-      </c>
+      <c r="Q173" s="33"/>
+      <c r="R173" s="33"/>
+      <c r="S173" s="33"/>
+      <c r="T173" s="33"/>
+      <c r="U173" s="33"/>
     </row>
     <row r="174" spans="1:21" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="33"/>
@@ -7613,7 +7790,7 @@
       <c r="D174" s="36"/>
       <c r="E174" s="36"/>
       <c r="F174" s="39" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G174" s="36"/>
       <c r="H174" s="36"/>
@@ -7633,30 +7810,42 @@
     </row>
     <row r="175" spans="1:21" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="33"/>
-      <c r="B175" s="34" t="s">
-        <v>48</v>
-      </c>
+      <c r="B175" s="33"/>
       <c r="C175" s="33"/>
       <c r="D175" s="36"/>
       <c r="E175" s="36"/>
-      <c r="F175" s="36"/>
-      <c r="G175" s="40" t="s">
-        <v>84</v>
-      </c>
+      <c r="F175" s="39" t="s">
+        <v>194</v>
+      </c>
+      <c r="G175" s="36"/>
       <c r="H175" s="36"/>
       <c r="I175" s="36"/>
       <c r="J175" s="36"/>
       <c r="K175" s="36"/>
-      <c r="L175" s="33"/>
-      <c r="M175" s="33"/>
+      <c r="L175" s="67">
+        <v>597.46</v>
+      </c>
+      <c r="M175" s="67">
+        <v>597.46</v>
+      </c>
       <c r="N175" s="33"/>
-      <c r="O175" s="33"/>
+      <c r="O175" s="33" t="s">
+        <v>195</v>
+      </c>
       <c r="P175" s="33"/>
-      <c r="Q175" s="33"/>
-      <c r="R175" s="33"/>
-      <c r="S175" s="33"/>
-      <c r="T175" s="33"/>
-      <c r="U175" s="33"/>
+      <c r="Q175" s="48"/>
+      <c r="R175" s="34" t="s">
+        <v>196</v>
+      </c>
+      <c r="S175" s="33" t="s">
+        <v>197</v>
+      </c>
+      <c r="T175" s="34" t="s">
+        <v>196</v>
+      </c>
+      <c r="U175" s="33" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="176" spans="1:21" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="33"/>
@@ -7664,24 +7853,34 @@
       <c r="C176" s="33"/>
       <c r="D176" s="36"/>
       <c r="E176" s="36"/>
-      <c r="F176" s="36"/>
-      <c r="G176" s="40" t="s">
-        <v>46</v>
-      </c>
+      <c r="F176" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="G176" s="36"/>
       <c r="H176" s="36"/>
       <c r="I176" s="36"/>
       <c r="J176" s="36"/>
       <c r="K176" s="36"/>
-      <c r="L176" s="33"/>
-      <c r="M176" s="33"/>
+      <c r="L176" s="69"/>
+      <c r="M176" s="69"/>
       <c r="N176" s="33"/>
-      <c r="O176" s="33"/>
+      <c r="O176" s="33" t="s">
+        <v>199</v>
+      </c>
       <c r="P176" s="33"/>
-      <c r="Q176" s="33"/>
-      <c r="R176" s="33"/>
-      <c r="S176" s="33"/>
-      <c r="T176" s="33"/>
-      <c r="U176" s="33"/>
+      <c r="Q176" s="48"/>
+      <c r="R176" s="34" t="s">
+        <v>196</v>
+      </c>
+      <c r="S176" s="33" t="s">
+        <v>197</v>
+      </c>
+      <c r="T176" s="34" t="s">
+        <v>196</v>
+      </c>
+      <c r="U176" s="33" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="177" spans="1:38" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="33"/>
@@ -7689,10 +7888,10 @@
       <c r="C177" s="33"/>
       <c r="D177" s="36"/>
       <c r="E177" s="36"/>
-      <c r="F177" s="36"/>
-      <c r="G177" s="40" t="s">
-        <v>85</v>
-      </c>
+      <c r="F177" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="G177" s="36"/>
       <c r="H177" s="36"/>
       <c r="I177" s="36"/>
       <c r="J177" s="36"/>
@@ -7711,17 +7910,17 @@
     <row r="178" spans="1:38" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="33"/>
       <c r="B178" s="34" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C178" s="33"/>
       <c r="D178" s="36"/>
       <c r="E178" s="36"/>
       <c r="F178" s="36"/>
-      <c r="G178" s="36"/>
+      <c r="G178" s="40" t="s">
+        <v>84</v>
+      </c>
       <c r="H178" s="36"/>
-      <c r="I178" s="41" t="s">
-        <v>47</v>
-      </c>
+      <c r="I178" s="36"/>
       <c r="J178" s="36"/>
       <c r="K178" s="36"/>
       <c r="L178" s="33"/>
@@ -7737,86 +7936,58 @@
     </row>
     <row r="179" spans="1:38" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="33"/>
-      <c r="B179" s="34" t="s">
-        <v>202</v>
-      </c>
+      <c r="B179" s="33"/>
       <c r="C179" s="33"/>
       <c r="D179" s="36"/>
       <c r="E179" s="36"/>
       <c r="F179" s="36"/>
-      <c r="G179" s="36"/>
+      <c r="G179" s="40" t="s">
+        <v>46</v>
+      </c>
       <c r="H179" s="36"/>
       <c r="I179" s="36"/>
       <c r="J179" s="36"/>
-      <c r="K179" s="49" t="s">
-        <v>203</v>
-      </c>
+      <c r="K179" s="36"/>
       <c r="L179" s="33"/>
-      <c r="M179" s="57"/>
+      <c r="M179" s="33"/>
       <c r="N179" s="33"/>
       <c r="O179" s="33"/>
       <c r="P179" s="33"/>
-      <c r="Q179" s="48"/>
-      <c r="V179" s="27"/>
-      <c r="W179" s="27"/>
-      <c r="X179" s="27"/>
-      <c r="Y179" s="27"/>
-      <c r="Z179" s="27"/>
-      <c r="AA179" s="27"/>
-      <c r="AB179" s="27"/>
-      <c r="AC179" s="27"/>
-      <c r="AD179" s="27"/>
-      <c r="AE179" s="27"/>
-      <c r="AF179" s="27"/>
-      <c r="AG179" s="27"/>
-      <c r="AH179" s="27"/>
-      <c r="AI179" s="27"/>
-      <c r="AJ179" s="27"/>
-      <c r="AK179" s="27"/>
-      <c r="AL179" s="27"/>
+      <c r="Q179" s="33"/>
+      <c r="R179" s="33"/>
+      <c r="S179" s="33"/>
+      <c r="T179" s="33"/>
+      <c r="U179" s="33"/>
     </row>
     <row r="180" spans="1:38" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="33"/>
-      <c r="B180" s="34" t="s">
-        <v>204</v>
-      </c>
+      <c r="B180" s="33"/>
       <c r="C180" s="33"/>
       <c r="D180" s="36"/>
       <c r="E180" s="36"/>
       <c r="F180" s="36"/>
-      <c r="G180" s="36"/>
+      <c r="G180" s="40" t="s">
+        <v>85</v>
+      </c>
       <c r="H180" s="36"/>
       <c r="I180" s="36"/>
       <c r="J180" s="36"/>
       <c r="K180" s="36"/>
       <c r="L180" s="33"/>
-      <c r="M180" s="57"/>
+      <c r="M180" s="33"/>
       <c r="N180" s="33"/>
       <c r="O180" s="33"/>
       <c r="P180" s="33"/>
-      <c r="Q180" s="48"/>
-      <c r="V180" s="27"/>
-      <c r="W180" s="27"/>
-      <c r="X180" s="27"/>
-      <c r="Y180" s="27"/>
-      <c r="Z180" s="27"/>
-      <c r="AA180" s="27"/>
-      <c r="AB180" s="27"/>
-      <c r="AC180" s="27"/>
-      <c r="AD180" s="27"/>
-      <c r="AE180" s="27"/>
-      <c r="AF180" s="27"/>
-      <c r="AG180" s="27"/>
-      <c r="AH180" s="27"/>
-      <c r="AI180" s="27"/>
-      <c r="AJ180" s="27"/>
-      <c r="AK180" s="27"/>
-      <c r="AL180" s="27"/>
+      <c r="Q180" s="33"/>
+      <c r="R180" s="33"/>
+      <c r="S180" s="33"/>
+      <c r="T180" s="33"/>
+      <c r="U180" s="33"/>
     </row>
     <row r="181" spans="1:38" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="33"/>
       <c r="B181" s="34" t="s">
-        <v>205</v>
+        <v>49</v>
       </c>
       <c r="C181" s="33"/>
       <c r="D181" s="36"/>
@@ -7824,41 +7995,26 @@
       <c r="F181" s="36"/>
       <c r="G181" s="36"/>
       <c r="H181" s="36"/>
-      <c r="I181" s="36"/>
+      <c r="I181" s="41" t="s">
+        <v>47</v>
+      </c>
       <c r="J181" s="36"/>
       <c r="K181" s="36"/>
       <c r="L181" s="33"/>
-      <c r="M181" s="48"/>
+      <c r="M181" s="33"/>
       <c r="N181" s="33"/>
       <c r="O181" s="33"/>
       <c r="P181" s="33"/>
-      <c r="Q181" s="48"/>
+      <c r="Q181" s="33"/>
       <c r="R181" s="33"/>
       <c r="S181" s="33"/>
       <c r="T181" s="33"/>
       <c r="U181" s="33"/>
-      <c r="V181" s="27"/>
-      <c r="W181" s="27"/>
-      <c r="X181" s="27"/>
-      <c r="Y181" s="27"/>
-      <c r="Z181" s="27"/>
-      <c r="AA181" s="27"/>
-      <c r="AB181" s="27"/>
-      <c r="AC181" s="27"/>
-      <c r="AD181" s="27"/>
-      <c r="AE181" s="27"/>
-      <c r="AF181" s="27"/>
-      <c r="AG181" s="27"/>
-      <c r="AH181" s="27"/>
-      <c r="AI181" s="27"/>
-      <c r="AJ181" s="27"/>
-      <c r="AK181" s="27"/>
-      <c r="AL181" s="27"/>
     </row>
     <row r="182" spans="1:38" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="33"/>
       <c r="B182" s="34" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C182" s="33"/>
       <c r="D182" s="36"/>
@@ -7868,17 +8024,15 @@
       <c r="H182" s="36"/>
       <c r="I182" s="36"/>
       <c r="J182" s="36"/>
-      <c r="K182" s="36"/>
+      <c r="K182" s="49" t="s">
+        <v>203</v>
+      </c>
       <c r="L182" s="33"/>
-      <c r="M182" s="48"/>
+      <c r="M182" s="57"/>
       <c r="N182" s="33"/>
       <c r="O182" s="33"/>
       <c r="P182" s="33"/>
       <c r="Q182" s="48"/>
-      <c r="R182" s="33"/>
-      <c r="S182" s="33"/>
-      <c r="T182" s="33"/>
-      <c r="U182" s="33"/>
       <c r="V182" s="27"/>
       <c r="W182" s="27"/>
       <c r="X182" s="27"/>
@@ -7900,7 +8054,7 @@
     <row r="183" spans="1:38" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="33"/>
       <c r="B183" s="34" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="C183" s="33"/>
       <c r="D183" s="36"/>
@@ -7912,20 +8066,33 @@
       <c r="J183" s="36"/>
       <c r="K183" s="36"/>
       <c r="L183" s="33"/>
-      <c r="M183" s="33"/>
+      <c r="M183" s="57"/>
       <c r="N183" s="33"/>
       <c r="O183" s="33"/>
       <c r="P183" s="33"/>
-      <c r="Q183" s="33"/>
-      <c r="R183" s="33"/>
-      <c r="S183" s="33"/>
-      <c r="T183" s="33"/>
-      <c r="U183" s="33"/>
+      <c r="Q183" s="48"/>
+      <c r="V183" s="27"/>
+      <c r="W183" s="27"/>
+      <c r="X183" s="27"/>
+      <c r="Y183" s="27"/>
+      <c r="Z183" s="27"/>
+      <c r="AA183" s="27"/>
+      <c r="AB183" s="27"/>
+      <c r="AC183" s="27"/>
+      <c r="AD183" s="27"/>
+      <c r="AE183" s="27"/>
+      <c r="AF183" s="27"/>
+      <c r="AG183" s="27"/>
+      <c r="AH183" s="27"/>
+      <c r="AI183" s="27"/>
+      <c r="AJ183" s="27"/>
+      <c r="AK183" s="27"/>
+      <c r="AL183" s="27"/>
     </row>
     <row r="184" spans="1:38" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="33"/>
       <c r="B184" s="34" t="s">
-        <v>232</v>
+        <v>205</v>
       </c>
       <c r="C184" s="33"/>
       <c r="D184" s="36"/>
@@ -7937,19 +8104,38 @@
       <c r="J184" s="36"/>
       <c r="K184" s="36"/>
       <c r="L184" s="33"/>
-      <c r="M184" s="33"/>
+      <c r="M184" s="48"/>
       <c r="N184" s="33"/>
       <c r="O184" s="33"/>
       <c r="P184" s="33"/>
-      <c r="Q184" s="33"/>
+      <c r="Q184" s="48"/>
       <c r="R184" s="33"/>
       <c r="S184" s="33"/>
       <c r="T184" s="33"/>
       <c r="U184" s="33"/>
+      <c r="V184" s="27"/>
+      <c r="W184" s="27"/>
+      <c r="X184" s="27"/>
+      <c r="Y184" s="27"/>
+      <c r="Z184" s="27"/>
+      <c r="AA184" s="27"/>
+      <c r="AB184" s="27"/>
+      <c r="AC184" s="27"/>
+      <c r="AD184" s="27"/>
+      <c r="AE184" s="27"/>
+      <c r="AF184" s="27"/>
+      <c r="AG184" s="27"/>
+      <c r="AH184" s="27"/>
+      <c r="AI184" s="27"/>
+      <c r="AJ184" s="27"/>
+      <c r="AK184" s="27"/>
+      <c r="AL184" s="27"/>
     </row>
     <row r="185" spans="1:38" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="33"/>
-      <c r="B185" s="33"/>
+      <c r="B185" s="34" t="s">
+        <v>206</v>
+      </c>
       <c r="C185" s="33"/>
       <c r="D185" s="36"/>
       <c r="E185" s="36"/>
@@ -7960,19 +8146,38 @@
       <c r="J185" s="36"/>
       <c r="K185" s="36"/>
       <c r="L185" s="33"/>
-      <c r="M185" s="33"/>
+      <c r="M185" s="48"/>
       <c r="N185" s="33"/>
       <c r="O185" s="33"/>
       <c r="P185" s="33"/>
-      <c r="Q185" s="33"/>
+      <c r="Q185" s="48"/>
       <c r="R185" s="33"/>
       <c r="S185" s="33"/>
       <c r="T185" s="33"/>
       <c r="U185" s="33"/>
+      <c r="V185" s="27"/>
+      <c r="W185" s="27"/>
+      <c r="X185" s="27"/>
+      <c r="Y185" s="27"/>
+      <c r="Z185" s="27"/>
+      <c r="AA185" s="27"/>
+      <c r="AB185" s="27"/>
+      <c r="AC185" s="27"/>
+      <c r="AD185" s="27"/>
+      <c r="AE185" s="27"/>
+      <c r="AF185" s="27"/>
+      <c r="AG185" s="27"/>
+      <c r="AH185" s="27"/>
+      <c r="AI185" s="27"/>
+      <c r="AJ185" s="27"/>
+      <c r="AK185" s="27"/>
+      <c r="AL185" s="27"/>
     </row>
     <row r="186" spans="1:38" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="33"/>
-      <c r="B186" s="33"/>
+      <c r="B186" s="34" t="s">
+        <v>231</v>
+      </c>
       <c r="C186" s="33"/>
       <c r="D186" s="36"/>
       <c r="E186" s="36"/>
@@ -7995,7 +8200,9 @@
     </row>
     <row r="187" spans="1:38" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="33"/>
-      <c r="B187" s="33"/>
+      <c r="B187" s="34" t="s">
+        <v>232</v>
+      </c>
       <c r="C187" s="33"/>
       <c r="D187" s="36"/>
       <c r="E187" s="36"/>
@@ -8041,9 +8248,7 @@
     </row>
     <row r="189" spans="1:38" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="33"/>
-      <c r="B189" s="55" t="s">
-        <v>227</v>
-      </c>
+      <c r="B189" s="33"/>
       <c r="C189" s="33"/>
       <c r="D189" s="36"/>
       <c r="E189" s="36"/>
@@ -8053,12 +8258,8 @@
       <c r="I189" s="36"/>
       <c r="J189" s="36"/>
       <c r="K189" s="36"/>
-      <c r="L189" s="33">
-        <v>6600</v>
-      </c>
-      <c r="M189" s="33">
-        <v>6600</v>
-      </c>
+      <c r="L189" s="33"/>
+      <c r="M189" s="33"/>
       <c r="N189" s="33"/>
       <c r="O189" s="33"/>
       <c r="P189" s="33"/>
@@ -8070,9 +8271,7 @@
     </row>
     <row r="190" spans="1:38" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="33"/>
-      <c r="B190" s="55" t="s">
-        <v>228</v>
-      </c>
+      <c r="B190" s="33"/>
       <c r="C190" s="33"/>
       <c r="D190" s="36"/>
       <c r="E190" s="36"/>
@@ -8082,31 +8281,21 @@
       <c r="I190" s="36"/>
       <c r="J190" s="36"/>
       <c r="K190" s="36"/>
-      <c r="L190" s="33">
-        <v>3700</v>
-      </c>
-      <c r="M190" s="33">
-        <v>3700</v>
-      </c>
+      <c r="L190" s="33"/>
+      <c r="M190" s="33"/>
       <c r="N190" s="33"/>
       <c r="O190" s="33"/>
       <c r="P190" s="33"/>
       <c r="Q190" s="33"/>
-      <c r="R190" s="34" t="s">
-        <v>372</v>
-      </c>
-      <c r="S190" s="31">
-        <v>43755</v>
-      </c>
+      <c r="R190" s="33"/>
+      <c r="S190" s="33"/>
       <c r="T190" s="33"/>
-      <c r="U190" s="34" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="191" spans="1:38" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="U190" s="33"/>
+    </row>
+    <row r="191" spans="1:38" s="32" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="33"/>
       <c r="B191" s="55" t="s">
-        <v>229</v>
+        <v>406</v>
       </c>
       <c r="C191" s="33"/>
       <c r="D191" s="36"/>
@@ -8117,26 +8306,30 @@
       <c r="I191" s="36"/>
       <c r="J191" s="36"/>
       <c r="K191" s="36"/>
-      <c r="L191" s="33" t="s">
-        <v>254</v>
+      <c r="L191" s="33">
+        <v>500</v>
       </c>
       <c r="M191" s="33">
-        <v>12300</v>
+        <v>500</v>
       </c>
       <c r="N191" s="33"/>
       <c r="O191" s="33"/>
       <c r="P191" s="33"/>
       <c r="Q191" s="33"/>
-      <c r="R191" s="34" t="s">
-        <v>345</v>
-      </c>
-      <c r="S191" s="33"/>
+      <c r="R191" s="33" t="s">
+        <v>417</v>
+      </c>
+      <c r="S191" s="31">
+        <v>43819</v>
+      </c>
       <c r="T191" s="33"/>
       <c r="U191" s="33"/>
     </row>
     <row r="192" spans="1:38" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="33"/>
-      <c r="B192" s="33"/>
+      <c r="B192" s="55" t="s">
+        <v>227</v>
+      </c>
       <c r="C192" s="33"/>
       <c r="D192" s="36"/>
       <c r="E192" s="36"/>
@@ -8146,8 +8339,12 @@
       <c r="I192" s="36"/>
       <c r="J192" s="36"/>
       <c r="K192" s="36"/>
-      <c r="L192" s="33"/>
-      <c r="M192" s="33"/>
+      <c r="L192" s="33">
+        <v>6600</v>
+      </c>
+      <c r="M192" s="33">
+        <v>6600</v>
+      </c>
       <c r="N192" s="33"/>
       <c r="O192" s="33"/>
       <c r="P192" s="33"/>
@@ -8157,14 +8354,12 @@
       <c r="T192" s="33"/>
       <c r="U192" s="33"/>
     </row>
-    <row r="193" spans="1:21" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:21" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="33"/>
-      <c r="B193" s="34" t="s">
-        <v>249</v>
-      </c>
-      <c r="C193" s="56" t="s">
-        <v>250</v>
-      </c>
+      <c r="B193" s="55" t="s">
+        <v>228</v>
+      </c>
+      <c r="C193" s="33"/>
       <c r="D193" s="36"/>
       <c r="E193" s="36"/>
       <c r="F193" s="36"/>
@@ -8173,23 +8368,33 @@
       <c r="I193" s="36"/>
       <c r="J193" s="36"/>
       <c r="K193" s="36"/>
-      <c r="L193" s="33"/>
-      <c r="M193" s="33"/>
+      <c r="L193" s="33">
+        <v>3700</v>
+      </c>
+      <c r="M193" s="33">
+        <v>3700</v>
+      </c>
       <c r="N193" s="33"/>
       <c r="O193" s="33"/>
       <c r="P193" s="33"/>
       <c r="Q193" s="33"/>
-      <c r="R193" s="33"/>
-      <c r="S193" s="33"/>
+      <c r="R193" s="34" t="s">
+        <v>372</v>
+      </c>
+      <c r="S193" s="31">
+        <v>43755</v>
+      </c>
       <c r="T193" s="33"/>
-      <c r="U193" s="33"/>
+      <c r="U193" s="34" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="194" spans="1:21" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="33"/>
-      <c r="B194" s="33"/>
-      <c r="C194" s="34" t="s">
-        <v>251</v>
-      </c>
+      <c r="B194" s="55" t="s">
+        <v>229</v>
+      </c>
+      <c r="C194" s="33"/>
       <c r="D194" s="36"/>
       <c r="E194" s="36"/>
       <c r="F194" s="36"/>
@@ -8198,33 +8403,27 @@
       <c r="I194" s="36"/>
       <c r="J194" s="36"/>
       <c r="K194" s="36"/>
-      <c r="L194" s="33">
-        <v>13000</v>
+      <c r="L194" s="33" t="s">
+        <v>254</v>
       </c>
       <c r="M194" s="33">
-        <v>3000</v>
+        <v>12300</v>
       </c>
       <c r="N194" s="33"/>
-      <c r="O194" s="34" t="s">
-        <v>358</v>
-      </c>
+      <c r="O194" s="33"/>
       <c r="P194" s="33"/>
       <c r="Q194" s="33"/>
       <c r="R194" s="34" t="s">
-        <v>339</v>
-      </c>
-      <c r="S194" s="31">
-        <v>43739</v>
-      </c>
+        <v>345</v>
+      </c>
+      <c r="S194" s="33"/>
       <c r="T194" s="33"/>
       <c r="U194" s="33"/>
     </row>
     <row r="195" spans="1:21" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="33"/>
       <c r="B195" s="33"/>
-      <c r="C195" s="34" t="s">
-        <v>252</v>
-      </c>
+      <c r="C195" s="33"/>
       <c r="D195" s="36"/>
       <c r="E195" s="36"/>
       <c r="F195" s="36"/>
@@ -8233,32 +8432,24 @@
       <c r="I195" s="36"/>
       <c r="J195" s="36"/>
       <c r="K195" s="36"/>
-      <c r="L195" s="33">
-        <v>16000</v>
-      </c>
-      <c r="M195" s="33">
-        <v>4800</v>
-      </c>
+      <c r="L195" s="33"/>
+      <c r="M195" s="33"/>
       <c r="N195" s="33"/>
-      <c r="O195" s="34" t="s">
-        <v>337</v>
-      </c>
+      <c r="O195" s="33"/>
       <c r="P195" s="33"/>
       <c r="Q195" s="33"/>
-      <c r="R195" s="34" t="s">
-        <v>338</v>
-      </c>
-      <c r="S195" s="31">
-        <v>43744</v>
-      </c>
+      <c r="R195" s="33"/>
+      <c r="S195" s="33"/>
       <c r="T195" s="33"/>
       <c r="U195" s="33"/>
     </row>
-    <row r="196" spans="1:21" s="32" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:21" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="33"/>
-      <c r="B196" s="33"/>
-      <c r="C196" s="34" t="s">
-        <v>354</v>
+      <c r="B196" s="34" t="s">
+        <v>249</v>
+      </c>
+      <c r="C196" s="56" t="s">
+        <v>250</v>
       </c>
       <c r="D196" s="36"/>
       <c r="E196" s="36"/>
@@ -8268,38 +8459,22 @@
       <c r="I196" s="36"/>
       <c r="J196" s="36"/>
       <c r="K196" s="36"/>
-      <c r="L196" s="63">
-        <v>11890</v>
-      </c>
-      <c r="M196" s="63">
-        <v>5000</v>
-      </c>
-      <c r="N196" s="33">
-        <v>1</v>
-      </c>
-      <c r="O196" s="65" t="s">
-        <v>350</v>
-      </c>
+      <c r="L196" s="33"/>
+      <c r="M196" s="33"/>
+      <c r="N196" s="33"/>
+      <c r="O196" s="33"/>
       <c r="P196" s="33"/>
       <c r="Q196" s="33"/>
-      <c r="R196" s="65" t="s">
-        <v>355</v>
-      </c>
-      <c r="S196" s="68">
-        <v>43745</v>
-      </c>
-      <c r="T196" s="33">
-        <v>15274940456</v>
-      </c>
-      <c r="U196" s="33" t="s">
-        <v>356</v>
-      </c>
+      <c r="R196" s="33"/>
+      <c r="S196" s="33"/>
+      <c r="T196" s="33"/>
+      <c r="U196" s="33"/>
     </row>
     <row r="197" spans="1:21" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="33"/>
       <c r="B197" s="33"/>
       <c r="C197" s="34" t="s">
-        <v>320</v>
+        <v>251</v>
       </c>
       <c r="D197" s="36"/>
       <c r="E197" s="36"/>
@@ -8309,26 +8484,32 @@
       <c r="I197" s="36"/>
       <c r="J197" s="36"/>
       <c r="K197" s="36"/>
-      <c r="L197" s="71"/>
-      <c r="M197" s="71"/>
-      <c r="N197" s="33">
-        <v>3</v>
-      </c>
-      <c r="O197" s="66"/>
+      <c r="L197" s="33">
+        <v>13000</v>
+      </c>
+      <c r="M197" s="33">
+        <v>3000</v>
+      </c>
+      <c r="N197" s="33"/>
+      <c r="O197" s="34" t="s">
+        <v>358</v>
+      </c>
       <c r="P197" s="33"/>
       <c r="Q197" s="33"/>
-      <c r="R197" s="66"/>
-      <c r="S197" s="69"/>
+      <c r="R197" s="34" t="s">
+        <v>339</v>
+      </c>
+      <c r="S197" s="31">
+        <v>43739</v>
+      </c>
       <c r="T197" s="33"/>
-      <c r="U197" s="34" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="198" spans="1:21" s="32" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="U197" s="33"/>
+    </row>
+    <row r="198" spans="1:21" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="33"/>
       <c r="B198" s="33"/>
       <c r="C198" s="34" t="s">
-        <v>352</v>
+        <v>252</v>
       </c>
       <c r="D198" s="36"/>
       <c r="E198" s="36"/>
@@ -8338,26 +8519,32 @@
       <c r="I198" s="36"/>
       <c r="J198" s="36"/>
       <c r="K198" s="36"/>
-      <c r="L198" s="64"/>
-      <c r="M198" s="64"/>
-      <c r="N198" s="33">
-        <v>1</v>
-      </c>
-      <c r="O198" s="67"/>
+      <c r="L198" s="33">
+        <v>16000</v>
+      </c>
+      <c r="M198" s="33">
+        <v>4800</v>
+      </c>
+      <c r="N198" s="33"/>
+      <c r="O198" s="34" t="s">
+        <v>337</v>
+      </c>
       <c r="P198" s="33"/>
       <c r="Q198" s="33"/>
-      <c r="R198" s="67"/>
-      <c r="S198" s="70"/>
+      <c r="R198" s="34" t="s">
+        <v>338</v>
+      </c>
+      <c r="S198" s="31">
+        <v>43744</v>
+      </c>
       <c r="T198" s="33"/>
-      <c r="U198" s="34" t="s">
-        <v>360</v>
-      </c>
+      <c r="U198" s="33"/>
     </row>
     <row r="199" spans="1:21" s="32" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="33"/>
       <c r="B199" s="33"/>
       <c r="C199" s="34" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D199" s="36"/>
       <c r="E199" s="36"/>
@@ -8367,22 +8554,38 @@
       <c r="I199" s="36"/>
       <c r="J199" s="36"/>
       <c r="K199" s="36"/>
-      <c r="L199" s="33"/>
-      <c r="M199" s="33"/>
-      <c r="N199" s="33"/>
-      <c r="O199" s="33"/>
+      <c r="L199" s="67">
+        <v>11890</v>
+      </c>
+      <c r="M199" s="67">
+        <v>5000</v>
+      </c>
+      <c r="N199" s="33">
+        <v>1</v>
+      </c>
+      <c r="O199" s="70" t="s">
+        <v>350</v>
+      </c>
       <c r="P199" s="33"/>
       <c r="Q199" s="33"/>
-      <c r="R199" s="33"/>
-      <c r="S199" s="33"/>
-      <c r="T199" s="33"/>
-      <c r="U199" s="33"/>
+      <c r="R199" s="70" t="s">
+        <v>355</v>
+      </c>
+      <c r="S199" s="64">
+        <v>43745</v>
+      </c>
+      <c r="T199" s="33">
+        <v>15274940456</v>
+      </c>
+      <c r="U199" s="33" t="s">
+        <v>356</v>
+      </c>
     </row>
     <row r="200" spans="1:21" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="33"/>
       <c r="B200" s="33"/>
       <c r="C200" s="34" t="s">
-        <v>253</v>
+        <v>320</v>
       </c>
       <c r="D200" s="36"/>
       <c r="E200" s="36"/>
@@ -8392,32 +8595,26 @@
       <c r="I200" s="36"/>
       <c r="J200" s="36"/>
       <c r="K200" s="36"/>
-      <c r="L200" s="33">
-        <v>16300</v>
-      </c>
-      <c r="M200" s="33">
-        <v>15000</v>
-      </c>
-      <c r="N200" s="33"/>
-      <c r="O200" s="34" t="s">
-        <v>319</v>
-      </c>
+      <c r="L200" s="68"/>
+      <c r="M200" s="68"/>
+      <c r="N200" s="33">
+        <v>3</v>
+      </c>
+      <c r="O200" s="71"/>
       <c r="P200" s="33"/>
       <c r="Q200" s="33"/>
-      <c r="R200" s="34" t="s">
-        <v>340</v>
-      </c>
-      <c r="S200" s="31">
-        <v>43741</v>
-      </c>
+      <c r="R200" s="71"/>
+      <c r="S200" s="65"/>
       <c r="T200" s="33"/>
-      <c r="U200" s="33"/>
-    </row>
-    <row r="201" spans="1:21" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="U200" s="34" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="201" spans="1:21" s="32" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="33"/>
       <c r="B201" s="33"/>
       <c r="C201" s="34" t="s">
-        <v>324</v>
+        <v>352</v>
       </c>
       <c r="D201" s="36"/>
       <c r="E201" s="36"/>
@@ -8427,32 +8624,26 @@
       <c r="I201" s="36"/>
       <c r="J201" s="36"/>
       <c r="K201" s="36"/>
-      <c r="L201" s="33">
-        <v>37500</v>
-      </c>
-      <c r="M201" s="33">
-        <v>2000</v>
-      </c>
-      <c r="N201" s="33"/>
-      <c r="O201" s="34" t="s">
-        <v>325</v>
-      </c>
+      <c r="L201" s="69"/>
+      <c r="M201" s="69"/>
+      <c r="N201" s="33">
+        <v>1</v>
+      </c>
+      <c r="O201" s="72"/>
       <c r="P201" s="33"/>
       <c r="Q201" s="33"/>
-      <c r="R201" s="34" t="s">
-        <v>341</v>
-      </c>
-      <c r="S201" s="31">
-        <v>43742</v>
-      </c>
+      <c r="R201" s="72"/>
+      <c r="S201" s="66"/>
       <c r="T201" s="33"/>
-      <c r="U201" s="33"/>
-    </row>
-    <row r="202" spans="1:21" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="U201" s="34" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="202" spans="1:21" s="32" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="33"/>
       <c r="B202" s="33"/>
       <c r="C202" s="34" t="s">
-        <v>342</v>
+        <v>353</v>
       </c>
       <c r="D202" s="36"/>
       <c r="E202" s="36"/>
@@ -8462,34 +8653,22 @@
       <c r="I202" s="36"/>
       <c r="J202" s="36"/>
       <c r="K202" s="36"/>
-      <c r="L202" s="33">
-        <v>6200</v>
-      </c>
-      <c r="M202" s="33">
-        <v>5000</v>
-      </c>
+      <c r="L202" s="33"/>
+      <c r="M202" s="33"/>
       <c r="N202" s="33"/>
-      <c r="O202" s="34" t="s">
-        <v>343</v>
-      </c>
+      <c r="O202" s="33"/>
       <c r="P202" s="33"/>
       <c r="Q202" s="33"/>
-      <c r="R202" s="34" t="s">
-        <v>344</v>
-      </c>
-      <c r="S202" s="31">
-        <v>43744</v>
-      </c>
+      <c r="R202" s="33"/>
+      <c r="S202" s="33"/>
       <c r="T202" s="33"/>
       <c r="U202" s="33"/>
     </row>
     <row r="203" spans="1:21" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="33"/>
-      <c r="B203" s="33">
-        <v>46</v>
-      </c>
+      <c r="B203" s="33"/>
       <c r="C203" s="34" t="s">
-        <v>374</v>
+        <v>253</v>
       </c>
       <c r="D203" s="36"/>
       <c r="E203" s="36"/>
@@ -8500,22 +8679,22 @@
       <c r="J203" s="36"/>
       <c r="K203" s="36"/>
       <c r="L203" s="33">
-        <v>20000</v>
+        <v>16300</v>
       </c>
       <c r="M203" s="33">
-        <v>15870</v>
+        <v>15000</v>
       </c>
       <c r="N203" s="33"/>
       <c r="O203" s="34" t="s">
-        <v>401</v>
+        <v>319</v>
       </c>
       <c r="P203" s="33"/>
       <c r="Q203" s="33"/>
       <c r="R203" s="34" t="s">
-        <v>402</v>
+        <v>340</v>
       </c>
       <c r="S203" s="31">
-        <v>43758</v>
+        <v>43741</v>
       </c>
       <c r="T203" s="33"/>
       <c r="U203" s="33"/>
@@ -8523,7 +8702,9 @@
     <row r="204" spans="1:21" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="33"/>
       <c r="B204" s="33"/>
-      <c r="C204" s="33"/>
+      <c r="C204" s="34" t="s">
+        <v>324</v>
+      </c>
       <c r="D204" s="36"/>
       <c r="E204" s="36"/>
       <c r="F204" s="36"/>
@@ -8532,21 +8713,33 @@
       <c r="I204" s="36"/>
       <c r="J204" s="36"/>
       <c r="K204" s="36"/>
-      <c r="L204" s="33"/>
-      <c r="M204" s="33"/>
+      <c r="L204" s="33">
+        <v>37500</v>
+      </c>
+      <c r="M204" s="33">
+        <v>2000</v>
+      </c>
       <c r="N204" s="33"/>
-      <c r="O204" s="33"/>
+      <c r="O204" s="34" t="s">
+        <v>325</v>
+      </c>
       <c r="P204" s="33"/>
       <c r="Q204" s="33"/>
-      <c r="R204" s="33"/>
-      <c r="S204" s="33"/>
+      <c r="R204" s="34" t="s">
+        <v>341</v>
+      </c>
+      <c r="S204" s="31">
+        <v>43742</v>
+      </c>
       <c r="T204" s="33"/>
       <c r="U204" s="33"/>
     </row>
     <row r="205" spans="1:21" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="33"/>
       <c r="B205" s="33"/>
-      <c r="C205" s="33"/>
+      <c r="C205" s="34" t="s">
+        <v>342</v>
+      </c>
       <c r="D205" s="36"/>
       <c r="E205" s="36"/>
       <c r="F205" s="36"/>
@@ -8555,21 +8748,35 @@
       <c r="I205" s="36"/>
       <c r="J205" s="36"/>
       <c r="K205" s="36"/>
-      <c r="L205" s="33"/>
-      <c r="M205" s="33"/>
+      <c r="L205" s="33">
+        <v>6200</v>
+      </c>
+      <c r="M205" s="33">
+        <v>5000</v>
+      </c>
       <c r="N205" s="33"/>
-      <c r="O205" s="33"/>
+      <c r="O205" s="34" t="s">
+        <v>343</v>
+      </c>
       <c r="P205" s="33"/>
       <c r="Q205" s="33"/>
-      <c r="R205" s="33"/>
-      <c r="S205" s="33"/>
+      <c r="R205" s="34" t="s">
+        <v>344</v>
+      </c>
+      <c r="S205" s="31">
+        <v>43744</v>
+      </c>
       <c r="T205" s="33"/>
       <c r="U205" s="33"/>
     </row>
     <row r="206" spans="1:21" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="33"/>
-      <c r="B206" s="33"/>
-      <c r="C206" s="33"/>
+      <c r="B206" s="33">
+        <v>46</v>
+      </c>
+      <c r="C206" s="34" t="s">
+        <v>374</v>
+      </c>
       <c r="D206" s="36"/>
       <c r="E206" s="36"/>
       <c r="F206" s="36"/>
@@ -8578,14 +8785,24 @@
       <c r="I206" s="36"/>
       <c r="J206" s="36"/>
       <c r="K206" s="36"/>
-      <c r="L206" s="33"/>
-      <c r="M206" s="33"/>
+      <c r="L206" s="33">
+        <v>20000</v>
+      </c>
+      <c r="M206" s="33">
+        <v>15870</v>
+      </c>
       <c r="N206" s="33"/>
-      <c r="O206" s="33"/>
+      <c r="O206" s="34" t="s">
+        <v>401</v>
+      </c>
       <c r="P206" s="33"/>
       <c r="Q206" s="33"/>
-      <c r="R206" s="33"/>
-      <c r="S206" s="33"/>
+      <c r="R206" s="34" t="s">
+        <v>402</v>
+      </c>
+      <c r="S206" s="31">
+        <v>43758</v>
+      </c>
       <c r="T206" s="33"/>
       <c r="U206" s="33"/>
     </row>
@@ -20342,16 +20559,86 @@
       <c r="T717" s="33"/>
       <c r="U717" s="33"/>
     </row>
-    <row r="727" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="718" spans="1:21" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A718" s="33"/>
+      <c r="B718" s="33"/>
+      <c r="C718" s="33"/>
+      <c r="D718" s="36"/>
+      <c r="E718" s="36"/>
+      <c r="F718" s="36"/>
+      <c r="G718" s="36"/>
+      <c r="H718" s="36"/>
+      <c r="I718" s="36"/>
+      <c r="J718" s="36"/>
+      <c r="K718" s="36"/>
+      <c r="L718" s="33"/>
+      <c r="M718" s="33"/>
+      <c r="N718" s="33"/>
+      <c r="O718" s="33"/>
+      <c r="P718" s="33"/>
+      <c r="Q718" s="33"/>
+      <c r="R718" s="33"/>
+      <c r="S718" s="33"/>
+      <c r="T718" s="33"/>
+      <c r="U718" s="33"/>
+    </row>
+    <row r="719" spans="1:21" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A719" s="33"/>
+      <c r="B719" s="33"/>
+      <c r="C719" s="33"/>
+      <c r="D719" s="36"/>
+      <c r="E719" s="36"/>
+      <c r="F719" s="36"/>
+      <c r="G719" s="36"/>
+      <c r="H719" s="36"/>
+      <c r="I719" s="36"/>
+      <c r="J719" s="36"/>
+      <c r="K719" s="36"/>
+      <c r="L719" s="33"/>
+      <c r="M719" s="33"/>
+      <c r="N719" s="33"/>
+      <c r="O719" s="33"/>
+      <c r="P719" s="33"/>
+      <c r="Q719" s="33"/>
+      <c r="R719" s="33"/>
+      <c r="S719" s="33"/>
+      <c r="T719" s="33"/>
+      <c r="U719" s="33"/>
+    </row>
+    <row r="720" spans="1:21" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A720" s="33"/>
+      <c r="B720" s="33"/>
+      <c r="C720" s="33"/>
+      <c r="D720" s="36"/>
+      <c r="E720" s="36"/>
+      <c r="F720" s="36"/>
+      <c r="G720" s="36"/>
+      <c r="H720" s="36"/>
+      <c r="I720" s="36"/>
+      <c r="J720" s="36"/>
+      <c r="K720" s="36"/>
+      <c r="L720" s="33"/>
+      <c r="M720" s="33"/>
+      <c r="N720" s="33"/>
+      <c r="O720" s="33"/>
+      <c r="P720" s="33"/>
+      <c r="Q720" s="33"/>
+      <c r="R720" s="33"/>
+      <c r="S720" s="33"/>
+      <c r="T720" s="33"/>
+      <c r="U720" s="33"/>
+    </row>
+    <row r="730" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="L172:L173"/>
-    <mergeCell ref="M172:M173"/>
-    <mergeCell ref="O196:O198"/>
-    <mergeCell ref="R196:R198"/>
-    <mergeCell ref="S196:S198"/>
-    <mergeCell ref="L196:L198"/>
-    <mergeCell ref="M196:M198"/>
+  <mergeCells count="8">
+    <mergeCell ref="S199:S201"/>
+    <mergeCell ref="L199:L201"/>
+    <mergeCell ref="M199:M201"/>
+    <mergeCell ref="B169:B171"/>
+    <mergeCell ref="L175:L176"/>
+    <mergeCell ref="M175:M176"/>
+    <mergeCell ref="O199:O201"/>
+    <mergeCell ref="R199:R201"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20361,11 +20648,11 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:N79"/>
+  <dimension ref="A1:O79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N1" sqref="N1:N1048576"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M1" sqref="M1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -20380,7 +20667,7 @@
     <col min="14" max="14" width="8.58203125" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="32" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" s="32" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="59" t="s">
         <v>261</v>
       </c>
@@ -20413,8 +20700,11 @@
       <c r="N1" s="34" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O1" s="25" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="34" t="s">
         <v>30</v>
       </c>
@@ -20440,7 +20730,7 @@
         <v>13000</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="34" t="s">
         <v>259</v>
       </c>
@@ -20450,97 +20740,111 @@
       <c r="C3" s="33"/>
       <c r="D3" s="33"/>
       <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
+      <c r="F3" s="34" t="s">
+        <v>418</v>
+      </c>
+      <c r="G3" s="34" t="s">
+        <v>429</v>
+      </c>
       <c r="H3" s="33"/>
       <c r="I3" s="33"/>
       <c r="J3" s="33"/>
       <c r="K3" s="33"/>
       <c r="L3" s="2"/>
       <c r="M3" s="33">
-        <v>4800</v>
+        <v>16300</v>
       </c>
       <c r="N3" s="33">
-        <v>16000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" s="32" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="65" t="s">
+        <v>16300</v>
+      </c>
+      <c r="O3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="32" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="70" t="s">
         <v>253</v>
       </c>
-      <c r="B4" s="65" t="s">
+      <c r="B4" s="70" t="s">
         <v>272</v>
       </c>
       <c r="C4" s="33"/>
       <c r="D4" s="33"/>
       <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
+      <c r="F4" s="70" t="s">
+        <v>419</v>
+      </c>
       <c r="G4" s="33"/>
       <c r="H4" s="33"/>
       <c r="I4" s="33"/>
       <c r="J4" s="33"/>
       <c r="K4" s="33"/>
       <c r="L4" s="2"/>
-      <c r="M4" s="63">
-        <v>15000</v>
-      </c>
-      <c r="N4" s="63">
-        <v>16300</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="66"/>
-      <c r="B5" s="66"/>
+      <c r="M4" s="67">
+        <v>19968</v>
+      </c>
+      <c r="N4" s="67">
+        <v>19968</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="71"/>
+      <c r="B5" s="71"/>
       <c r="C5" s="33"/>
       <c r="D5" s="33"/>
       <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
+      <c r="F5" s="68"/>
       <c r="G5" s="34"/>
       <c r="H5" s="33"/>
       <c r="I5" s="33"/>
       <c r="J5" s="33"/>
       <c r="K5" s="33"/>
       <c r="L5" s="2"/>
-      <c r="M5" s="71"/>
-      <c r="N5" s="71"/>
-    </row>
-    <row r="6" spans="1:14" s="32" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="66"/>
-      <c r="B6" s="66"/>
+      <c r="M5" s="68"/>
+      <c r="N5" s="68"/>
+    </row>
+    <row r="6" spans="1:15" s="32" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="71"/>
+      <c r="B6" s="71"/>
       <c r="C6" s="33"/>
       <c r="D6" s="33"/>
       <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="34" t="s">
+        <v>430</v>
+      </c>
       <c r="H6" s="33"/>
       <c r="I6" s="33"/>
       <c r="J6" s="33"/>
       <c r="K6" s="33"/>
       <c r="L6" s="1"/>
-      <c r="M6" s="71"/>
-      <c r="N6" s="71"/>
-    </row>
-    <row r="7" spans="1:14" s="32" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="67"/>
-      <c r="B7" s="67"/>
+      <c r="M6" s="68"/>
+      <c r="N6" s="68"/>
+      <c r="O6" s="32">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" s="32" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="72"/>
+      <c r="B7" s="72"/>
       <c r="C7" s="33"/>
       <c r="D7" s="33"/>
       <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
+      <c r="F7" s="69"/>
       <c r="G7" s="33"/>
       <c r="H7" s="33"/>
       <c r="I7" s="33"/>
       <c r="J7" s="33"/>
       <c r="K7" s="33"/>
       <c r="L7" s="1"/>
-      <c r="M7" s="64"/>
-      <c r="N7" s="64"/>
-    </row>
-    <row r="8" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M7" s="69"/>
+      <c r="N7" s="69"/>
+    </row>
+    <row r="8" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="34" t="s">
         <v>260</v>
       </c>
-      <c r="B8" s="63" t="s">
+      <c r="B8" s="67" t="s">
         <v>266</v>
       </c>
       <c r="C8" s="34"/>
@@ -20548,7 +20852,7 @@
       <c r="E8" s="33">
         <v>3</v>
       </c>
-      <c r="F8" s="65" t="s">
+      <c r="F8" s="70" t="s">
         <v>351</v>
       </c>
       <c r="G8" s="33"/>
@@ -20557,34 +20861,34 @@
       <c r="J8" s="33"/>
       <c r="K8" s="33"/>
       <c r="L8" s="2"/>
-      <c r="M8" s="63">
+      <c r="M8" s="67">
         <v>10000</v>
       </c>
-      <c r="N8" s="63">
+      <c r="N8" s="67">
         <v>11792</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="32" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" s="32" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="34" t="s">
         <v>357</v>
       </c>
-      <c r="B9" s="64"/>
+      <c r="B9" s="69"/>
       <c r="C9" s="34"/>
       <c r="D9" s="33"/>
       <c r="E9" s="33">
         <v>1</v>
       </c>
-      <c r="F9" s="64"/>
+      <c r="F9" s="69"/>
       <c r="G9" s="33"/>
       <c r="H9" s="33"/>
       <c r="I9" s="33"/>
       <c r="J9" s="33"/>
       <c r="K9" s="33"/>
       <c r="L9" s="2"/>
-      <c r="M9" s="64"/>
-      <c r="N9" s="64"/>
-    </row>
-    <row r="10" spans="1:14" s="32" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M9" s="69"/>
+      <c r="N9" s="69"/>
+    </row>
+    <row r="10" spans="1:15" s="32" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="34" t="s">
         <v>285</v>
       </c>
@@ -20606,7 +20910,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="32" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" s="32" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="34" t="s">
         <v>286</v>
       </c>
@@ -20630,7 +20934,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="12" spans="1:14" s="32" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" s="32" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="34" t="s">
         <v>292</v>
       </c>
@@ -20646,13 +20950,13 @@
       <c r="K12" s="33"/>
       <c r="L12" s="2"/>
       <c r="M12" s="33">
-        <v>3000</v>
+        <v>3600</v>
       </c>
       <c r="N12" s="33">
         <v>3600</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="34" t="s">
         <v>291</v>
       </c>
@@ -20670,13 +20974,13 @@
         <v>38.799999999999997</v>
       </c>
       <c r="M13" s="33">
-        <v>2000</v>
+        <v>42550</v>
       </c>
       <c r="N13" s="33">
-        <v>37500</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>42556</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="34" t="s">
         <v>289</v>
       </c>
@@ -20700,7 +21004,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="34" t="s">
         <v>378</v>
       </c>
@@ -20722,22 +21026,32 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="34" t="s">
         <v>293</v>
       </c>
-      <c r="B16" s="33"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
+      <c r="B16" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="D16" s="2">
+        <v>3200</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="1" t="s">
+        <v>423</v>
+      </c>
       <c r="H16" s="33"/>
       <c r="I16" s="33"/>
       <c r="J16" s="33"/>
       <c r="K16" s="33"/>
       <c r="L16" s="2"/>
-      <c r="M16" s="33"/>
+      <c r="M16" s="33">
+        <v>200</v>
+      </c>
       <c r="N16" s="33">
         <v>3000</v>
       </c>
@@ -20853,7 +21167,7 @@
       </c>
     </row>
     <row r="22" spans="1:14" s="32" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="65" t="s">
+      <c r="A22" s="70" t="s">
         <v>299</v>
       </c>
       <c r="B22" s="34" t="s">
@@ -20872,12 +21186,12 @@
       <c r="K22" s="33"/>
       <c r="L22" s="2"/>
       <c r="M22" s="33"/>
-      <c r="N22" s="63">
+      <c r="N22" s="67">
         <v>50000</v>
       </c>
     </row>
     <row r="23" spans="1:14" s="32" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="66"/>
+      <c r="A23" s="71"/>
       <c r="B23" s="34" t="s">
         <v>390</v>
       </c>
@@ -20894,10 +21208,10 @@
       <c r="K23" s="33"/>
       <c r="L23" s="2"/>
       <c r="M23" s="33"/>
-      <c r="N23" s="71"/>
+      <c r="N23" s="68"/>
     </row>
     <row r="24" spans="1:14" s="32" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="66"/>
+      <c r="A24" s="71"/>
       <c r="B24" s="34" t="s">
         <v>389</v>
       </c>
@@ -20922,10 +21236,10 @@
       <c r="M24" s="33">
         <v>4691.5</v>
       </c>
-      <c r="N24" s="71"/>
+      <c r="N24" s="68"/>
     </row>
     <row r="25" spans="1:14" s="32" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="66"/>
+      <c r="A25" s="71"/>
       <c r="B25" s="34" t="s">
         <v>385</v>
       </c>
@@ -20942,10 +21256,10 @@
       <c r="K25" s="33"/>
       <c r="L25" s="2"/>
       <c r="M25" s="33"/>
-      <c r="N25" s="71"/>
+      <c r="N25" s="68"/>
     </row>
     <row r="26" spans="1:14" s="32" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="66"/>
+      <c r="A26" s="71"/>
       <c r="B26" s="34" t="s">
         <v>386</v>
       </c>
@@ -20962,10 +21276,10 @@
       <c r="K26" s="33"/>
       <c r="L26" s="2"/>
       <c r="M26" s="33"/>
-      <c r="N26" s="71"/>
+      <c r="N26" s="68"/>
     </row>
     <row r="27" spans="1:14" s="32" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="66"/>
+      <c r="A27" s="71"/>
       <c r="B27" s="34" t="s">
         <v>387</v>
       </c>
@@ -20982,10 +21296,10 @@
       <c r="K27" s="33"/>
       <c r="L27" s="2"/>
       <c r="M27" s="33"/>
-      <c r="N27" s="71"/>
+      <c r="N27" s="68"/>
     </row>
     <row r="28" spans="1:14" s="32" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="66"/>
+      <c r="A28" s="71"/>
       <c r="B28" s="34" t="s">
         <v>388</v>
       </c>
@@ -21002,10 +21316,10 @@
       <c r="K28" s="33"/>
       <c r="L28" s="2"/>
       <c r="M28" s="33"/>
-      <c r="N28" s="71"/>
+      <c r="N28" s="68"/>
     </row>
     <row r="29" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="67"/>
+      <c r="A29" s="72"/>
       <c r="B29" s="34" t="s">
         <v>301</v>
       </c>
@@ -21022,10 +21336,10 @@
       <c r="K29" s="33"/>
       <c r="L29" s="2"/>
       <c r="M29" s="33"/>
-      <c r="N29" s="64"/>
+      <c r="N29" s="69"/>
     </row>
     <row r="30" spans="1:14" s="32" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="65" t="s">
+      <c r="A30" s="70" t="s">
         <v>300</v>
       </c>
       <c r="B30" s="34" t="s">
@@ -21044,12 +21358,12 @@
       <c r="K30" s="33"/>
       <c r="L30" s="2"/>
       <c r="M30" s="33"/>
-      <c r="N30" s="63">
+      <c r="N30" s="67">
         <v>50000</v>
       </c>
     </row>
     <row r="31" spans="1:14" s="32" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="66"/>
+      <c r="A31" s="71"/>
       <c r="B31" s="34" t="s">
         <v>392</v>
       </c>
@@ -21066,10 +21380,10 @@
       <c r="K31" s="33"/>
       <c r="L31" s="2"/>
       <c r="M31" s="33"/>
-      <c r="N31" s="71"/>
+      <c r="N31" s="68"/>
     </row>
     <row r="32" spans="1:14" s="32" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="66"/>
+      <c r="A32" s="71"/>
       <c r="B32" s="34" t="s">
         <v>396</v>
       </c>
@@ -21086,10 +21400,10 @@
       <c r="K32" s="33"/>
       <c r="L32" s="2"/>
       <c r="M32" s="33"/>
-      <c r="N32" s="71"/>
+      <c r="N32" s="68"/>
     </row>
     <row r="33" spans="1:14" s="32" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="66"/>
+      <c r="A33" s="71"/>
       <c r="B33" s="34" t="s">
         <v>395</v>
       </c>
@@ -21106,10 +21420,10 @@
       <c r="K33" s="33"/>
       <c r="L33" s="2"/>
       <c r="M33" s="33"/>
-      <c r="N33" s="71"/>
+      <c r="N33" s="68"/>
     </row>
     <row r="34" spans="1:14" s="32" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="66"/>
+      <c r="A34" s="71"/>
       <c r="B34" s="34" t="s">
         <v>394</v>
       </c>
@@ -21126,10 +21440,10 @@
       <c r="K34" s="33"/>
       <c r="L34" s="2"/>
       <c r="M34" s="33"/>
-      <c r="N34" s="71"/>
+      <c r="N34" s="68"/>
     </row>
     <row r="35" spans="1:14" s="32" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="66"/>
+      <c r="A35" s="71"/>
       <c r="B35" s="34" t="s">
         <v>397</v>
       </c>
@@ -21146,10 +21460,10 @@
       <c r="K35" s="33"/>
       <c r="L35" s="2"/>
       <c r="M35" s="33"/>
-      <c r="N35" s="71"/>
+      <c r="N35" s="68"/>
     </row>
     <row r="36" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="67"/>
+      <c r="A36" s="72"/>
       <c r="B36" s="34" t="s">
         <v>398</v>
       </c>
@@ -21166,7 +21480,7 @@
       <c r="K36" s="33"/>
       <c r="L36" s="2"/>
       <c r="M36" s="33"/>
-      <c r="N36" s="64"/>
+      <c r="N36" s="69"/>
     </row>
     <row r="37" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="34" t="s">
@@ -21243,7 +21557,9 @@
       <c r="J40" s="33"/>
       <c r="K40" s="33"/>
       <c r="L40" s="2"/>
-      <c r="M40" s="33"/>
+      <c r="M40" s="33">
+        <v>444</v>
+      </c>
       <c r="N40" s="33">
         <v>300</v>
       </c>
@@ -21269,7 +21585,7 @@
       </c>
     </row>
     <row r="42" spans="1:14" s="32" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="65" t="s">
+      <c r="A42" s="70" t="s">
         <v>306</v>
       </c>
       <c r="B42" s="34" t="s">
@@ -21291,7 +21607,7 @@
       </c>
     </row>
     <row r="43" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="66"/>
+      <c r="A43" s="71"/>
       <c r="B43" s="34" t="s">
         <v>382</v>
       </c>
@@ -21311,7 +21627,7 @@
       </c>
     </row>
     <row r="44" spans="1:14" s="32" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="66"/>
+      <c r="A44" s="71"/>
       <c r="B44" s="34" t="s">
         <v>383</v>
       </c>
@@ -21331,7 +21647,7 @@
       </c>
     </row>
     <row r="45" spans="1:14" s="32" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="67"/>
+      <c r="A45" s="72"/>
       <c r="B45" s="34" t="s">
         <v>384</v>
       </c>
@@ -21561,7 +21877,9 @@
       </c>
     </row>
     <row r="56" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="2"/>
+      <c r="A56" s="1" t="s">
+        <v>406</v>
+      </c>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
@@ -21573,14 +21891,24 @@
       <c r="J56" s="2"/>
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
-      <c r="M56" s="33"/>
-      <c r="N56" s="33"/>
+      <c r="M56" s="33">
+        <v>500</v>
+      </c>
+      <c r="N56" s="33">
+        <v>500</v>
+      </c>
     </row>
     <row r="57" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="2"/>
-      <c r="B57" s="2"/>
+      <c r="A57" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>408</v>
+      </c>
       <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
+      <c r="D57" s="2">
+        <v>596</v>
+      </c>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
@@ -21589,40 +21917,66 @@
       <c r="J57" s="2"/>
       <c r="K57" s="2"/>
       <c r="L57" s="2"/>
-      <c r="M57" s="33"/>
-      <c r="N57" s="33"/>
+      <c r="M57" s="33">
+        <v>596</v>
+      </c>
+      <c r="N57" s="33">
+        <v>596</v>
+      </c>
     </row>
     <row r="58" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="2"/>
+      <c r="A58" s="1" t="s">
+        <v>420</v>
+      </c>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
-      <c r="G58" s="2"/>
+      <c r="G58" s="1" t="s">
+        <v>428</v>
+      </c>
       <c r="H58" s="2"/>
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
       <c r="K58" s="2"/>
       <c r="L58" s="2"/>
-      <c r="M58" s="33"/>
-      <c r="N58" s="33"/>
+      <c r="M58" s="33">
+        <v>2000</v>
+      </c>
+      <c r="N58" s="33">
+        <v>2000</v>
+      </c>
     </row>
     <row r="59" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="2"/>
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
-      <c r="G59" s="2"/>
+      <c r="A59" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="C59" s="1"/>
+      <c r="D59" s="2">
+        <v>199</v>
+      </c>
+      <c r="E59" s="2">
+        <v>7</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="G59" s="1"/>
       <c r="H59" s="2"/>
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
       <c r="K59" s="2"/>
       <c r="L59" s="2"/>
-      <c r="M59" s="33"/>
-      <c r="N59" s="33"/>
+      <c r="M59" s="33">
+        <v>199</v>
+      </c>
+      <c r="N59" s="33">
+        <v>199</v>
+      </c>
     </row>
     <row r="60" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="2"/>
@@ -21825,7 +22179,7 @@
     <row r="78" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="79" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="14">
     <mergeCell ref="B4:B7"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="N4:N7"/>
@@ -21834,6 +22188,7 @@
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="M8:M9"/>
     <mergeCell ref="M4:M7"/>
+    <mergeCell ref="F4:F7"/>
     <mergeCell ref="A42:A45"/>
     <mergeCell ref="A22:A29"/>
     <mergeCell ref="N22:N29"/>
@@ -36351,31 +36706,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="73" t="s">
         <v>269</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="74"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="75"/>
     </row>
     <row r="2" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="73" t="s">
         <v>270</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="74"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="75"/>
     </row>
     <row r="3" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="72" t="s">
+      <c r="A3" s="73" t="s">
         <v>271</v>
       </c>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="74"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="75"/>
     </row>
     <row r="4" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
@@ -37008,7 +37363,7 @@
       <c r="C13" t="s">
         <v>277</v>
       </c>
-      <c r="D13" s="75" t="s">
+      <c r="D13" s="76" t="s">
         <v>280</v>
       </c>
     </row>
@@ -37019,7 +37374,7 @@
       <c r="C14" t="s">
         <v>279</v>
       </c>
-      <c r="D14" s="75"/>
+      <c r="D14" s="76"/>
     </row>
     <row r="18" spans="1:7" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">

--- a/表格.xlsx
+++ b/表格.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\doc\-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40842C83-FB2E-4002-AB05-6911DDA94719}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3A5BA0B-EE76-45FC-AF41-0122E27C6F65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="661" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="661" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="总体" sheetId="1" r:id="rId1"/>
@@ -2075,10 +2075,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>主卫格局需要调整；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>可以安装</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2405,6 +2401,22 @@
   </si>
   <si>
     <t>各类损耗、增补</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生活家地板赠送梦洁床垫取毕</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7621,13 +7633,13 @@
     <row r="169" spans="1:21" s="32" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="33"/>
       <c r="B169" s="70" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C169" s="33"/>
       <c r="D169" s="36"/>
       <c r="E169" s="36"/>
       <c r="F169" s="39" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="G169" s="36"/>
       <c r="H169" s="36"/>
@@ -7652,7 +7664,7 @@
       <c r="D170" s="36"/>
       <c r="E170" s="36"/>
       <c r="F170" s="39" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G170" s="36"/>
       <c r="H170" s="36"/>
@@ -7667,7 +7679,7 @@
       </c>
       <c r="N170" s="33"/>
       <c r="O170" s="63" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="P170" s="33"/>
       <c r="Q170" s="33"/>
@@ -7675,11 +7687,11 @@
         <v>196</v>
       </c>
       <c r="S170" s="33" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="T170" s="33"/>
       <c r="U170" s="33" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="171" spans="1:21" s="32" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -7689,7 +7701,7 @@
       <c r="D171" s="36"/>
       <c r="E171" s="36"/>
       <c r="F171" s="39" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G171" s="36"/>
       <c r="H171" s="36"/>
@@ -7704,7 +7716,7 @@
       </c>
       <c r="N171" s="33"/>
       <c r="O171" s="34" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="P171" s="33"/>
       <c r="Q171" s="33"/>
@@ -7712,11 +7724,11 @@
         <v>196</v>
       </c>
       <c r="S171" s="33" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="T171" s="33"/>
       <c r="U171" s="33" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="172" spans="1:21" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -7741,7 +7753,7 @@
       </c>
       <c r="N172" s="33"/>
       <c r="O172" s="34" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="P172" s="33"/>
       <c r="Q172" s="33"/>
@@ -7749,11 +7761,11 @@
         <v>196</v>
       </c>
       <c r="S172" s="33" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="T172" s="33"/>
       <c r="U172" s="33" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="173" spans="1:21" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -8295,7 +8307,7 @@
     <row r="191" spans="1:38" s="32" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="33"/>
       <c r="B191" s="55" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C191" s="33"/>
       <c r="D191" s="36"/>
@@ -8317,7 +8329,7 @@
       <c r="P191" s="33"/>
       <c r="Q191" s="33"/>
       <c r="R191" s="33" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="S191" s="31">
         <v>43819</v>
@@ -8379,14 +8391,14 @@
       <c r="P193" s="33"/>
       <c r="Q193" s="33"/>
       <c r="R193" s="34" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="S193" s="31">
         <v>43755</v>
       </c>
       <c r="T193" s="33"/>
       <c r="U193" s="34" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="194" spans="1:21" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -8775,7 +8787,7 @@
         <v>46</v>
       </c>
       <c r="C206" s="34" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D206" s="36"/>
       <c r="E206" s="36"/>
@@ -8793,12 +8805,12 @@
       </c>
       <c r="N206" s="33"/>
       <c r="O206" s="34" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="P206" s="33"/>
       <c r="Q206" s="33"/>
       <c r="R206" s="34" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="S206" s="31">
         <v>43758</v>
@@ -20650,7 +20662,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:O79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="M1" sqref="M1:M1048576"/>
     </sheetView>
@@ -20695,13 +20707,13 @@
       <c r="K1" s="60"/>
       <c r="L1" s="2"/>
       <c r="M1" s="34" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="N1" s="34" t="s">
         <v>283</v>
       </c>
       <c r="O1" s="25" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -20741,10 +20753,10 @@
       <c r="D3" s="33"/>
       <c r="E3" s="33"/>
       <c r="F3" s="34" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G3" s="34" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H3" s="33"/>
       <c r="I3" s="33"/>
@@ -20772,7 +20784,7 @@
       <c r="D4" s="33"/>
       <c r="E4" s="33"/>
       <c r="F4" s="70" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G4" s="33"/>
       <c r="H4" s="33"/>
@@ -20811,7 +20823,7 @@
       <c r="E6" s="33"/>
       <c r="F6" s="68"/>
       <c r="G6" s="34" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H6" s="33"/>
       <c r="I6" s="33"/>
@@ -21006,7 +21018,7 @@
     </row>
     <row r="15" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="34" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B15" s="33"/>
       <c r="C15" s="33"/>
@@ -21031,10 +21043,10 @@
         <v>293</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>421</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>422</v>
       </c>
       <c r="D16" s="2">
         <v>3200</v>
@@ -21042,7 +21054,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H16" s="33"/>
       <c r="I16" s="33"/>
@@ -21138,7 +21150,7 @@
       <c r="K20" s="33"/>
       <c r="L20" s="2"/>
       <c r="M20" s="33" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="N20" s="33">
         <v>4150</v>
@@ -21171,7 +21183,7 @@
         <v>299</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C22" s="33"/>
       <c r="D22" s="33">
@@ -21193,7 +21205,7 @@
     <row r="23" spans="1:14" s="32" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="71"/>
       <c r="B23" s="34" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C23" s="33"/>
       <c r="D23" s="33">
@@ -21213,10 +21225,10 @@
     <row r="24" spans="1:14" s="32" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="71"/>
       <c r="B24" s="34" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C24" s="33" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D24" s="33">
         <v>4000</v>
@@ -21225,7 +21237,7 @@
         <v>1</v>
       </c>
       <c r="F24" s="34" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G24" s="33"/>
       <c r="H24" s="33"/>
@@ -21241,7 +21253,7 @@
     <row r="25" spans="1:14" s="32" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="71"/>
       <c r="B25" s="34" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C25" s="33"/>
       <c r="D25" s="33">
@@ -21261,7 +21273,7 @@
     <row r="26" spans="1:14" s="32" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="71"/>
       <c r="B26" s="34" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C26" s="33"/>
       <c r="D26" s="33">
@@ -21281,7 +21293,7 @@
     <row r="27" spans="1:14" s="32" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="71"/>
       <c r="B27" s="34" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C27" s="33"/>
       <c r="D27" s="33">
@@ -21301,7 +21313,7 @@
     <row r="28" spans="1:14" s="32" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="71"/>
       <c r="B28" s="34" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C28" s="33"/>
       <c r="D28" s="33">
@@ -21343,7 +21355,7 @@
         <v>300</v>
       </c>
       <c r="B30" s="34" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C30" s="34"/>
       <c r="D30" s="34">
@@ -21365,7 +21377,7 @@
     <row r="31" spans="1:14" s="32" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="71"/>
       <c r="B31" s="34" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C31" s="34"/>
       <c r="D31" s="34">
@@ -21385,7 +21397,7 @@
     <row r="32" spans="1:14" s="32" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="71"/>
       <c r="B32" s="34" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C32" s="34"/>
       <c r="D32" s="34">
@@ -21405,7 +21417,7 @@
     <row r="33" spans="1:14" s="32" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="71"/>
       <c r="B33" s="34" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C33" s="34"/>
       <c r="D33" s="34">
@@ -21425,7 +21437,7 @@
     <row r="34" spans="1:14" s="32" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="71"/>
       <c r="B34" s="34" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C34" s="34"/>
       <c r="D34" s="34">
@@ -21445,7 +21457,7 @@
     <row r="35" spans="1:14" s="32" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="71"/>
       <c r="B35" s="34" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C35" s="34"/>
       <c r="D35" s="34">
@@ -21465,7 +21477,7 @@
     <row r="36" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="72"/>
       <c r="B36" s="34" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C36" s="34"/>
       <c r="D36" s="34">
@@ -21484,7 +21496,7 @@
     </row>
     <row r="37" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="34" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B37" s="33"/>
       <c r="C37" s="33"/>
@@ -21589,7 +21601,7 @@
         <v>306</v>
       </c>
       <c r="B42" s="34" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C42" s="33"/>
       <c r="D42" s="33"/>
@@ -21609,7 +21621,7 @@
     <row r="43" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="71"/>
       <c r="B43" s="34" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C43" s="34"/>
       <c r="D43" s="33"/>
@@ -21629,7 +21641,7 @@
     <row r="44" spans="1:14" s="32" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="71"/>
       <c r="B44" s="34" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C44" s="34"/>
       <c r="D44" s="33"/>
@@ -21649,7 +21661,7 @@
     <row r="45" spans="1:14" s="32" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="72"/>
       <c r="B45" s="34" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C45" s="34"/>
       <c r="D45" s="33"/>
@@ -21668,7 +21680,7 @@
     </row>
     <row r="46" spans="1:14" s="32" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="62" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B46" s="34"/>
       <c r="C46" s="34"/>
@@ -21688,7 +21700,7 @@
     </row>
     <row r="47" spans="1:14" s="32" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="62" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B47" s="34"/>
       <c r="C47" s="34"/>
@@ -21751,14 +21763,14 @@
         <v>309</v>
       </c>
       <c r="B50" s="34" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C50" s="33"/>
       <c r="D50" s="33"/>
       <c r="E50" s="33"/>
       <c r="F50" s="33"/>
       <c r="G50" s="33" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H50" s="33"/>
       <c r="I50" s="33"/>
@@ -21772,10 +21784,10 @@
     </row>
     <row r="51" spans="1:14" s="32" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="34" t="s">
+        <v>378</v>
+      </c>
+      <c r="B51" s="34" t="s">
         <v>379</v>
-      </c>
-      <c r="B51" s="34" t="s">
-        <v>380</v>
       </c>
       <c r="C51" s="33"/>
       <c r="D51" s="33"/>
@@ -21796,7 +21808,7 @@
     </row>
     <row r="52" spans="1:14" s="32" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="34" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B52" s="34"/>
       <c r="C52" s="33"/>
@@ -21804,7 +21816,7 @@
       <c r="E52" s="33"/>
       <c r="F52" s="33"/>
       <c r="G52" s="33" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H52" s="33"/>
       <c r="I52" s="33"/>
@@ -21878,7 +21890,7 @@
     </row>
     <row r="56" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -21900,10 +21912,10 @@
     </row>
     <row r="57" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>407</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>408</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" s="2">
@@ -21926,7 +21938,7 @@
     </row>
     <row r="58" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -21934,7 +21946,7 @@
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
       <c r="G58" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H58" s="2"/>
       <c r="I58" s="2"/>
@@ -21950,10 +21962,10 @@
     </row>
     <row r="59" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>425</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>426</v>
       </c>
       <c r="C59" s="1"/>
       <c r="D59" s="2">
@@ -21963,7 +21975,7 @@
         <v>7</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G59" s="1"/>
       <c r="H59" s="2"/>
@@ -22180,6 +22192,11 @@
     <row r="79" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="A22:A29"/>
+    <mergeCell ref="N22:N29"/>
+    <mergeCell ref="A30:A36"/>
+    <mergeCell ref="N30:N36"/>
     <mergeCell ref="B4:B7"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="N4:N7"/>
@@ -22189,11 +22206,6 @@
     <mergeCell ref="M8:M9"/>
     <mergeCell ref="M4:M7"/>
     <mergeCell ref="F4:F7"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="A22:A29"/>
-    <mergeCell ref="N22:N29"/>
-    <mergeCell ref="A30:A36"/>
-    <mergeCell ref="N30:N36"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -22203,10 +22215,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:F57"/>
+  <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -22477,7 +22489,7 @@
       </c>
       <c r="D21" s="33"/>
       <c r="E21" s="34" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F21" s="33"/>
     </row>
@@ -22543,29 +22555,31 @@
     </row>
     <row r="27" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="33">
-        <v>24</v>
-      </c>
-      <c r="B27" s="33"/>
-      <c r="C27" s="33"/>
+        <v>26</v>
+      </c>
+      <c r="B27" s="31">
+        <v>43851</v>
+      </c>
+      <c r="C27" s="33" t="s">
+        <v>430</v>
+      </c>
       <c r="D27" s="33"/>
       <c r="E27" s="33"/>
       <c r="F27" s="33"/>
     </row>
     <row r="28" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="33">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B28" s="33"/>
-      <c r="C28" s="34" t="s">
-        <v>367</v>
-      </c>
+      <c r="C28" s="33"/>
       <c r="D28" s="33"/>
       <c r="E28" s="33"/>
       <c r="F28" s="33"/>
     </row>
     <row r="29" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="33">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B29" s="33"/>
       <c r="C29" s="33"/>
@@ -22575,7 +22589,7 @@
     </row>
     <row r="30" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="33">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B30" s="33"/>
       <c r="C30" s="33"/>
@@ -22585,7 +22599,7 @@
     </row>
     <row r="31" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="33">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B31" s="33"/>
       <c r="C31" s="33"/>
@@ -22595,7 +22609,7 @@
     </row>
     <row r="32" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="33">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B32" s="33"/>
       <c r="C32" s="33"/>
@@ -22605,7 +22619,7 @@
     </row>
     <row r="33" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="33">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B33" s="33"/>
       <c r="C33" s="33"/>
@@ -22615,7 +22629,7 @@
     </row>
     <row r="34" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="33">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B34" s="33"/>
       <c r="C34" s="33"/>
@@ -22625,7 +22639,7 @@
     </row>
     <row r="35" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="33">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B35" s="33"/>
       <c r="C35" s="33"/>
@@ -22635,7 +22649,7 @@
     </row>
     <row r="36" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="33">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B36" s="33"/>
       <c r="C36" s="33"/>
@@ -22645,7 +22659,7 @@
     </row>
     <row r="37" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="33">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B37" s="33"/>
       <c r="C37" s="33"/>
@@ -22655,7 +22669,7 @@
     </row>
     <row r="38" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="33">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B38" s="33"/>
       <c r="C38" s="33"/>
@@ -22665,7 +22679,7 @@
     </row>
     <row r="39" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="33">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B39" s="33"/>
       <c r="C39" s="33"/>
@@ -22675,7 +22689,7 @@
     </row>
     <row r="40" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="33">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B40" s="33"/>
       <c r="C40" s="33"/>
@@ -22685,7 +22699,7 @@
     </row>
     <row r="41" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="33">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B41" s="33"/>
       <c r="C41" s="33"/>
@@ -22695,7 +22709,7 @@
     </row>
     <row r="42" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="33">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B42" s="33"/>
       <c r="C42" s="33"/>
@@ -22705,7 +22719,7 @@
     </row>
     <row r="43" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="33">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B43" s="33"/>
       <c r="C43" s="33"/>
@@ -22715,7 +22729,7 @@
     </row>
     <row r="44" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="33">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B44" s="33"/>
       <c r="C44" s="33"/>
@@ -22725,7 +22739,7 @@
     </row>
     <row r="45" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="33">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B45" s="33"/>
       <c r="C45" s="33"/>
@@ -22735,7 +22749,7 @@
     </row>
     <row r="46" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="33">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B46" s="33"/>
       <c r="C46" s="33"/>
@@ -22745,7 +22759,7 @@
     </row>
     <row r="47" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="33">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B47" s="33"/>
       <c r="C47" s="33"/>
@@ -22755,7 +22769,7 @@
     </row>
     <row r="48" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="33">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B48" s="33"/>
       <c r="C48" s="33"/>
@@ -22765,7 +22779,7 @@
     </row>
     <row r="49" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="33">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B49" s="33"/>
       <c r="C49" s="33"/>
@@ -22775,7 +22789,7 @@
     </row>
     <row r="50" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="33">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B50" s="33"/>
       <c r="C50" s="33"/>
@@ -22785,7 +22799,7 @@
     </row>
     <row r="51" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="33">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B51" s="33"/>
       <c r="C51" s="33"/>
@@ -22795,7 +22809,7 @@
     </row>
     <row r="52" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="33">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B52" s="33"/>
       <c r="C52" s="33"/>
@@ -22805,7 +22819,7 @@
     </row>
     <row r="53" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="33">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B53" s="33"/>
       <c r="C53" s="33"/>
@@ -22815,7 +22829,7 @@
     </row>
     <row r="54" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="33">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B54" s="33"/>
       <c r="C54" s="33"/>
@@ -22825,33 +22839,13 @@
     </row>
     <row r="55" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="33">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B55" s="33"/>
       <c r="C55" s="33"/>
       <c r="D55" s="33"/>
       <c r="E55" s="33"/>
       <c r="F55" s="33"/>
-    </row>
-    <row r="56" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="33">
-        <v>53</v>
-      </c>
-      <c r="B56" s="33"/>
-      <c r="C56" s="33"/>
-      <c r="D56" s="33"/>
-      <c r="E56" s="33"/>
-      <c r="F56" s="33"/>
-    </row>
-    <row r="57" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="33">
-        <v>54</v>
-      </c>
-      <c r="B57" s="33"/>
-      <c r="C57" s="33"/>
-      <c r="D57" s="33"/>
-      <c r="E57" s="33"/>
-      <c r="F57" s="33"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/表格.xlsx
+++ b/表格.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\doc\-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3A5BA0B-EE76-45FC-AF41-0122E27C6F65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD4475F5-C223-407A-A3BA-E17F34BACC05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="661" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="437">
   <si>
     <t>地面</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2119,22 +2119,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>100cm*100cm</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（不锈钢）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>已付</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2152,10 +2136,6 @@
   </si>
   <si>
     <t>马桶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蹲便器</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2417,6 +2397,49 @@
       </rPr>
       <t>生活家地板赠送梦洁床垫取毕</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>90cm*90cm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（不锈钢）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>箭牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>箭牌 蹲便器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马王堆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALD515+AS109</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AL37S1</t>
+  </si>
+  <si>
+    <t>马王堆箭牌淋浴房+蹲便器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先送石基和蹲便器，支付宝已付300元，包送货安装（有赠品未领）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3230,7 +3253,7 @@
   <dimension ref="A1:AL730"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A186" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A216" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="U191" sqref="U191"/>
     </sheetView>
   </sheetViews>
@@ -7633,13 +7656,13 @@
     <row r="169" spans="1:21" s="32" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="33"/>
       <c r="B169" s="70" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C169" s="33"/>
       <c r="D169" s="36"/>
       <c r="E169" s="36"/>
       <c r="F169" s="39" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="G169" s="36"/>
       <c r="H169" s="36"/>
@@ -7664,7 +7687,7 @@
       <c r="D170" s="36"/>
       <c r="E170" s="36"/>
       <c r="F170" s="39" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="G170" s="36"/>
       <c r="H170" s="36"/>
@@ -7679,7 +7702,7 @@
       </c>
       <c r="N170" s="33"/>
       <c r="O170" s="63" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="P170" s="33"/>
       <c r="Q170" s="33"/>
@@ -7687,11 +7710,11 @@
         <v>196</v>
       </c>
       <c r="S170" s="33" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="T170" s="33"/>
       <c r="U170" s="33" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="171" spans="1:21" s="32" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -7701,7 +7724,7 @@
       <c r="D171" s="36"/>
       <c r="E171" s="36"/>
       <c r="F171" s="39" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="G171" s="36"/>
       <c r="H171" s="36"/>
@@ -7716,7 +7739,7 @@
       </c>
       <c r="N171" s="33"/>
       <c r="O171" s="34" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="P171" s="33"/>
       <c r="Q171" s="33"/>
@@ -7724,11 +7747,11 @@
         <v>196</v>
       </c>
       <c r="S171" s="33" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="T171" s="33"/>
       <c r="U171" s="33" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="172" spans="1:21" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -7753,7 +7776,7 @@
       </c>
       <c r="N172" s="33"/>
       <c r="O172" s="34" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="P172" s="33"/>
       <c r="Q172" s="33"/>
@@ -7761,11 +7784,11 @@
         <v>196</v>
       </c>
       <c r="S172" s="33" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="T172" s="33"/>
       <c r="U172" s="33" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="173" spans="1:21" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -8307,7 +8330,7 @@
     <row r="191" spans="1:38" s="32" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="33"/>
       <c r="B191" s="55" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C191" s="33"/>
       <c r="D191" s="36"/>
@@ -8329,7 +8352,7 @@
       <c r="P191" s="33"/>
       <c r="Q191" s="33"/>
       <c r="R191" s="33" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="S191" s="31">
         <v>43819</v>
@@ -8805,12 +8828,12 @@
       </c>
       <c r="N206" s="33"/>
       <c r="O206" s="34" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="P206" s="33"/>
       <c r="Q206" s="33"/>
       <c r="R206" s="34" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="S206" s="31">
         <v>43758</v>
@@ -20663,15 +20686,15 @@
   <dimension ref="A1:O79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M1" sqref="M1:M1048576"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J52" sqref="J52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.58203125" customWidth="1"/>
     <col min="2" max="2" width="10.83203125" customWidth="1"/>
-    <col min="3" max="3" width="10.9140625" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
     <col min="5" max="5" width="8.58203125" style="32"/>
     <col min="7" max="7" width="25.33203125" customWidth="1"/>
     <col min="12" max="12" width="11.33203125" customWidth="1"/>
@@ -20707,13 +20730,13 @@
       <c r="K1" s="60"/>
       <c r="L1" s="2"/>
       <c r="M1" s="34" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="N1" s="34" t="s">
         <v>283</v>
       </c>
       <c r="O1" s="25" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -20753,10 +20776,10 @@
       <c r="D3" s="33"/>
       <c r="E3" s="33"/>
       <c r="F3" s="34" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="G3" s="34" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="H3" s="33"/>
       <c r="I3" s="33"/>
@@ -20784,7 +20807,7 @@
       <c r="D4" s="33"/>
       <c r="E4" s="33"/>
       <c r="F4" s="70" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G4" s="33"/>
       <c r="H4" s="33"/>
@@ -20823,7 +20846,7 @@
       <c r="E6" s="33"/>
       <c r="F6" s="68"/>
       <c r="G6" s="34" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="H6" s="33"/>
       <c r="I6" s="33"/>
@@ -21018,7 +21041,7 @@
     </row>
     <row r="15" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="34" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B15" s="33"/>
       <c r="C15" s="33"/>
@@ -21043,10 +21066,10 @@
         <v>293</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D16" s="2">
         <v>3200</v>
@@ -21054,7 +21077,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="H16" s="33"/>
       <c r="I16" s="33"/>
@@ -21150,7 +21173,7 @@
       <c r="K20" s="33"/>
       <c r="L20" s="2"/>
       <c r="M20" s="33" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="N20" s="33">
         <v>4150</v>
@@ -21183,7 +21206,7 @@
         <v>299</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C22" s="33"/>
       <c r="D22" s="33">
@@ -21205,7 +21228,7 @@
     <row r="23" spans="1:14" s="32" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="71"/>
       <c r="B23" s="34" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C23" s="33"/>
       <c r="D23" s="33">
@@ -21225,10 +21248,10 @@
     <row r="24" spans="1:14" s="32" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="71"/>
       <c r="B24" s="34" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C24" s="33" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D24" s="33">
         <v>4000</v>
@@ -21237,7 +21260,7 @@
         <v>1</v>
       </c>
       <c r="F24" s="34" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="G24" s="33"/>
       <c r="H24" s="33"/>
@@ -21253,7 +21276,7 @@
     <row r="25" spans="1:14" s="32" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="71"/>
       <c r="B25" s="34" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C25" s="33"/>
       <c r="D25" s="33">
@@ -21273,7 +21296,7 @@
     <row r="26" spans="1:14" s="32" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="71"/>
       <c r="B26" s="34" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C26" s="33"/>
       <c r="D26" s="33">
@@ -21293,7 +21316,7 @@
     <row r="27" spans="1:14" s="32" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="71"/>
       <c r="B27" s="34" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C27" s="33"/>
       <c r="D27" s="33">
@@ -21313,7 +21336,7 @@
     <row r="28" spans="1:14" s="32" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="71"/>
       <c r="B28" s="34" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C28" s="33"/>
       <c r="D28" s="33">
@@ -21355,7 +21378,7 @@
         <v>300</v>
       </c>
       <c r="B30" s="34" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C30" s="34"/>
       <c r="D30" s="34">
@@ -21377,7 +21400,7 @@
     <row r="31" spans="1:14" s="32" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="71"/>
       <c r="B31" s="34" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C31" s="34"/>
       <c r="D31" s="34">
@@ -21397,7 +21420,7 @@
     <row r="32" spans="1:14" s="32" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="71"/>
       <c r="B32" s="34" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C32" s="34"/>
       <c r="D32" s="34">
@@ -21417,7 +21440,7 @@
     <row r="33" spans="1:14" s="32" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="71"/>
       <c r="B33" s="34" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C33" s="34"/>
       <c r="D33" s="34">
@@ -21437,7 +21460,7 @@
     <row r="34" spans="1:14" s="32" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="71"/>
       <c r="B34" s="34" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C34" s="34"/>
       <c r="D34" s="34">
@@ -21457,7 +21480,7 @@
     <row r="35" spans="1:14" s="32" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="71"/>
       <c r="B35" s="34" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C35" s="34"/>
       <c r="D35" s="34">
@@ -21477,7 +21500,7 @@
     <row r="36" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="72"/>
       <c r="B36" s="34" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C36" s="34"/>
       <c r="D36" s="34">
@@ -21601,7 +21624,7 @@
         <v>306</v>
       </c>
       <c r="B42" s="34" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C42" s="33"/>
       <c r="D42" s="33"/>
@@ -21621,27 +21644,35 @@
     <row r="43" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="71"/>
       <c r="B43" s="34" t="s">
-        <v>381</v>
-      </c>
-      <c r="C43" s="34"/>
-      <c r="D43" s="33"/>
+        <v>431</v>
+      </c>
+      <c r="C43" s="34" t="s">
+        <v>433</v>
+      </c>
+      <c r="D43" s="33">
+        <v>500</v>
+      </c>
       <c r="E43" s="33"/>
-      <c r="F43" s="33"/>
+      <c r="F43" s="34" t="s">
+        <v>432</v>
+      </c>
       <c r="G43" s="33"/>
       <c r="H43" s="33"/>
       <c r="I43" s="33"/>
       <c r="J43" s="33"/>
       <c r="K43" s="33"/>
       <c r="L43" s="2"/>
-      <c r="M43" s="33"/>
+      <c r="M43" s="33">
+        <v>0</v>
+      </c>
       <c r="N43" s="33">
-        <v>400</v>
+        <v>500</v>
       </c>
     </row>
     <row r="44" spans="1:14" s="32" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="71"/>
       <c r="B44" s="34" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C44" s="34"/>
       <c r="D44" s="33"/>
@@ -21661,7 +21692,7 @@
     <row r="45" spans="1:14" s="32" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="72"/>
       <c r="B45" s="34" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C45" s="34"/>
       <c r="D45" s="33"/>
@@ -21680,7 +21711,7 @@
     </row>
     <row r="46" spans="1:14" s="32" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="62" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B46" s="34"/>
       <c r="C46" s="34"/>
@@ -21700,7 +21731,7 @@
     </row>
     <row r="47" spans="1:14" s="32" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="62" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B47" s="34"/>
       <c r="C47" s="34"/>
@@ -21784,10 +21815,10 @@
     </row>
     <row r="51" spans="1:14" s="32" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="34" t="s">
+        <v>377</v>
+      </c>
+      <c r="B51" s="34" t="s">
         <v>378</v>
-      </c>
-      <c r="B51" s="34" t="s">
-        <v>379</v>
       </c>
       <c r="C51" s="33"/>
       <c r="D51" s="33"/>
@@ -21810,20 +21841,32 @@
       <c r="A52" s="34" t="s">
         <v>374</v>
       </c>
-      <c r="B52" s="34"/>
-      <c r="C52" s="33"/>
-      <c r="D52" s="33"/>
-      <c r="E52" s="33"/>
-      <c r="F52" s="33"/>
+      <c r="B52" s="34" t="s">
+        <v>430</v>
+      </c>
+      <c r="C52" s="33" t="s">
+        <v>434</v>
+      </c>
+      <c r="D52" s="33">
+        <v>3500</v>
+      </c>
+      <c r="E52" s="33">
+        <v>1</v>
+      </c>
+      <c r="F52" s="34" t="s">
+        <v>432</v>
+      </c>
       <c r="G52" s="33" t="s">
-        <v>375</v>
+        <v>429</v>
       </c>
       <c r="H52" s="33"/>
       <c r="I52" s="33"/>
       <c r="J52" s="33"/>
       <c r="K52" s="33"/>
       <c r="L52" s="2"/>
-      <c r="M52" s="33"/>
+      <c r="M52" s="33">
+        <v>300</v>
+      </c>
       <c r="N52" s="33">
         <v>2600</v>
       </c>
@@ -21890,7 +21933,7 @@
     </row>
     <row r="56" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -21912,10 +21955,10 @@
     </row>
     <row r="57" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" s="2">
@@ -21938,7 +21981,7 @@
     </row>
     <row r="58" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -21946,7 +21989,7 @@
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
       <c r="G58" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="H58" s="2"/>
       <c r="I58" s="2"/>
@@ -21962,10 +22005,10 @@
     </row>
     <row r="59" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C59" s="1"/>
       <c r="D59" s="2">
@@ -21975,7 +22018,7 @@
         <v>7</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="G59" s="1"/>
       <c r="H59" s="2"/>
@@ -22192,11 +22235,6 @@
     <row r="79" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="A22:A29"/>
-    <mergeCell ref="N22:N29"/>
-    <mergeCell ref="A30:A36"/>
-    <mergeCell ref="N30:N36"/>
     <mergeCell ref="B4:B7"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="N4:N7"/>
@@ -22206,6 +22244,11 @@
     <mergeCell ref="M8:M9"/>
     <mergeCell ref="M4:M7"/>
     <mergeCell ref="F4:F7"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="A22:A29"/>
+    <mergeCell ref="N22:N29"/>
+    <mergeCell ref="A30:A36"/>
+    <mergeCell ref="N30:N36"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -22217,8 +22260,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -22561,7 +22604,7 @@
         <v>43851</v>
       </c>
       <c r="C27" s="33" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D27" s="33"/>
       <c r="E27" s="33"/>
@@ -22571,10 +22614,16 @@
       <c r="A28" s="33">
         <v>27</v>
       </c>
-      <c r="B28" s="33"/>
-      <c r="C28" s="33"/>
+      <c r="B28" s="31">
+        <v>43892</v>
+      </c>
+      <c r="C28" s="34" t="s">
+        <v>435</v>
+      </c>
       <c r="D28" s="33"/>
-      <c r="E28" s="33"/>
+      <c r="E28" s="34" t="s">
+        <v>436</v>
+      </c>
       <c r="F28" s="33"/>
     </row>
     <row r="29" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">

--- a/表格.xlsx
+++ b/表格.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\doc\-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD4475F5-C223-407A-A3BA-E17F34BACC05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F148A8F-7BD3-4615-815D-0BDB0D36AAA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="661" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="661" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="总体" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="438">
   <si>
     <t>地面</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2440,6 +2440,22 @@
   </si>
   <si>
     <t>先送石基和蹲便器，支付宝已付300元，包送货安装（有赠品未领）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2020-03-20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（余小宏）</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -20685,9 +20701,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:O79"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J52" sqref="J52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K47" sqref="K47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -21656,14 +21672,16 @@
       <c r="F43" s="34" t="s">
         <v>432</v>
       </c>
-      <c r="G43" s="33"/>
+      <c r="G43" s="33" t="s">
+        <v>437</v>
+      </c>
       <c r="H43" s="33"/>
       <c r="I43" s="33"/>
       <c r="J43" s="33"/>
       <c r="K43" s="33"/>
       <c r="L43" s="2"/>
       <c r="M43" s="33">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="N43" s="33">
         <v>500</v>
@@ -21865,7 +21883,7 @@
       <c r="K52" s="33"/>
       <c r="L52" s="2"/>
       <c r="M52" s="33">
-        <v>300</v>
+        <v>3500</v>
       </c>
       <c r="N52" s="33">
         <v>2600</v>
@@ -22235,6 +22253,11 @@
     <row r="79" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="A22:A29"/>
+    <mergeCell ref="N22:N29"/>
+    <mergeCell ref="A30:A36"/>
+    <mergeCell ref="N30:N36"/>
     <mergeCell ref="B4:B7"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="N4:N7"/>
@@ -22244,11 +22267,6 @@
     <mergeCell ref="M8:M9"/>
     <mergeCell ref="M4:M7"/>
     <mergeCell ref="F4:F7"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="A22:A29"/>
-    <mergeCell ref="N22:N29"/>
-    <mergeCell ref="A30:A36"/>
-    <mergeCell ref="N30:N36"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -22260,7 +22278,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>

--- a/表格.xlsx
+++ b/表格.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\doc\-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F148A8F-7BD3-4615-815D-0BDB0D36AAA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B03FCB0-98EF-4C49-B73F-48D832B3CD54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="661" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="661" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="总体" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,8 @@
     <sheet name="候选" sheetId="12" r:id="rId9"/>
     <sheet name="预算" sheetId="13" r:id="rId10"/>
     <sheet name="时间安排" sheetId="14" r:id="rId11"/>
+    <sheet name="Sheet1" sheetId="16" r:id="rId12"/>
+    <sheet name="门" sheetId="15" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">插座规划1!$A$1:$AL$724</definedName>
@@ -43,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="481">
   <si>
     <t>地面</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2458,12 +2460,225 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>王力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门/窗套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门/窗套颜色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待定（Tata？）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>封平门洞与墙壁齐平</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>书房门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>观景阳台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生活阳台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铝合金/木？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>推拉门（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>先封套后期再买门？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门/窗材质</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方案待定，预留了空间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>次卫外侧门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与房间门套颜色一致？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>次卫内侧门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>铝合金</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>儿童房门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>过道门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客房门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主卧门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先封套？后期再购买门？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>衣帽间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>窗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>书房窗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大理石侧边/上面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上挂推拉单门，侧边墙壁不封套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>儿童房窗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厨房/卫生间窗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门/窗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两侧封平，留右侧空调口，预埋空调管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其余各房间窗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门套高度工长有疑问</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西门子洗碗机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SJ636X01JC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天猫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2565,6 +2780,19 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="16">
     <fill>
@@ -2657,7 +2885,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -2754,11 +2982,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -2889,6 +3148,21 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2926,6 +3200,24 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -7671,7 +7963,7 @@
     </row>
     <row r="169" spans="1:21" s="32" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="33"/>
-      <c r="B169" s="70" t="s">
+      <c r="B169" s="75" t="s">
         <v>406</v>
       </c>
       <c r="C169" s="33"/>
@@ -7698,7 +7990,7 @@
     </row>
     <row r="170" spans="1:21" s="32" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="33"/>
-      <c r="B170" s="71"/>
+      <c r="B170" s="76"/>
       <c r="C170" s="33"/>
       <c r="D170" s="36"/>
       <c r="E170" s="36"/>
@@ -7735,7 +8027,7 @@
     </row>
     <row r="171" spans="1:21" s="32" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="33"/>
-      <c r="B171" s="72"/>
+      <c r="B171" s="77"/>
       <c r="C171" s="33"/>
       <c r="D171" s="36"/>
       <c r="E171" s="36"/>
@@ -7873,10 +8165,10 @@
       <c r="I175" s="36"/>
       <c r="J175" s="36"/>
       <c r="K175" s="36"/>
-      <c r="L175" s="67">
+      <c r="L175" s="72">
         <v>597.46</v>
       </c>
-      <c r="M175" s="67">
+      <c r="M175" s="72">
         <v>597.46</v>
       </c>
       <c r="N175" s="33"/>
@@ -7912,8 +8204,8 @@
       <c r="I176" s="36"/>
       <c r="J176" s="36"/>
       <c r="K176" s="36"/>
-      <c r="L176" s="69"/>
-      <c r="M176" s="69"/>
+      <c r="L176" s="74"/>
+      <c r="M176" s="74"/>
       <c r="N176" s="33"/>
       <c r="O176" s="33" t="s">
         <v>199</v>
@@ -8605,24 +8897,24 @@
       <c r="I199" s="36"/>
       <c r="J199" s="36"/>
       <c r="K199" s="36"/>
-      <c r="L199" s="67">
+      <c r="L199" s="72">
         <v>11890</v>
       </c>
-      <c r="M199" s="67">
+      <c r="M199" s="72">
         <v>5000</v>
       </c>
       <c r="N199" s="33">
         <v>1</v>
       </c>
-      <c r="O199" s="70" t="s">
+      <c r="O199" s="75" t="s">
         <v>350</v>
       </c>
       <c r="P199" s="33"/>
       <c r="Q199" s="33"/>
-      <c r="R199" s="70" t="s">
+      <c r="R199" s="75" t="s">
         <v>355</v>
       </c>
-      <c r="S199" s="64">
+      <c r="S199" s="69">
         <v>43745</v>
       </c>
       <c r="T199" s="33">
@@ -8646,16 +8938,16 @@
       <c r="I200" s="36"/>
       <c r="J200" s="36"/>
       <c r="K200" s="36"/>
-      <c r="L200" s="68"/>
-      <c r="M200" s="68"/>
+      <c r="L200" s="73"/>
+      <c r="M200" s="73"/>
       <c r="N200" s="33">
         <v>3</v>
       </c>
-      <c r="O200" s="71"/>
+      <c r="O200" s="76"/>
       <c r="P200" s="33"/>
       <c r="Q200" s="33"/>
-      <c r="R200" s="71"/>
-      <c r="S200" s="65"/>
+      <c r="R200" s="76"/>
+      <c r="S200" s="70"/>
       <c r="T200" s="33"/>
       <c r="U200" s="34" t="s">
         <v>359</v>
@@ -8675,16 +8967,16 @@
       <c r="I201" s="36"/>
       <c r="J201" s="36"/>
       <c r="K201" s="36"/>
-      <c r="L201" s="69"/>
-      <c r="M201" s="69"/>
+      <c r="L201" s="74"/>
+      <c r="M201" s="74"/>
       <c r="N201" s="33">
         <v>1</v>
       </c>
-      <c r="O201" s="72"/>
+      <c r="O201" s="77"/>
       <c r="P201" s="33"/>
       <c r="Q201" s="33"/>
-      <c r="R201" s="72"/>
-      <c r="S201" s="66"/>
+      <c r="R201" s="77"/>
+      <c r="S201" s="71"/>
       <c r="T201" s="33"/>
       <c r="U201" s="34" t="s">
         <v>360</v>
@@ -20701,9 +20993,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:O79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K47" sqref="K47"/>
+      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -20813,16 +21105,16 @@
       </c>
     </row>
     <row r="4" spans="1:15" s="32" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="70" t="s">
+      <c r="A4" s="75" t="s">
         <v>253</v>
       </c>
-      <c r="B4" s="70" t="s">
+      <c r="B4" s="75" t="s">
         <v>272</v>
       </c>
       <c r="C4" s="33"/>
       <c r="D4" s="33"/>
       <c r="E4" s="33"/>
-      <c r="F4" s="70" t="s">
+      <c r="F4" s="75" t="s">
         <v>416</v>
       </c>
       <c r="G4" s="33"/>
@@ -20831,36 +21123,36 @@
       <c r="J4" s="33"/>
       <c r="K4" s="33"/>
       <c r="L4" s="2"/>
-      <c r="M4" s="67">
+      <c r="M4" s="72">
         <v>19968</v>
       </c>
-      <c r="N4" s="67">
+      <c r="N4" s="72">
         <v>19968</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="71"/>
-      <c r="B5" s="71"/>
+      <c r="A5" s="76"/>
+      <c r="B5" s="76"/>
       <c r="C5" s="33"/>
       <c r="D5" s="33"/>
       <c r="E5" s="33"/>
-      <c r="F5" s="68"/>
+      <c r="F5" s="73"/>
       <c r="G5" s="34"/>
       <c r="H5" s="33"/>
       <c r="I5" s="33"/>
       <c r="J5" s="33"/>
       <c r="K5" s="33"/>
       <c r="L5" s="2"/>
-      <c r="M5" s="68"/>
-      <c r="N5" s="68"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
     </row>
     <row r="6" spans="1:15" s="32" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="71"/>
-      <c r="B6" s="71"/>
+      <c r="A6" s="76"/>
+      <c r="B6" s="76"/>
       <c r="C6" s="33"/>
       <c r="D6" s="33"/>
       <c r="E6" s="33"/>
-      <c r="F6" s="68"/>
+      <c r="F6" s="73"/>
       <c r="G6" s="34" t="s">
         <v>427</v>
       </c>
@@ -20869,41 +21161,41 @@
       <c r="J6" s="33"/>
       <c r="K6" s="33"/>
       <c r="L6" s="1"/>
-      <c r="M6" s="68"/>
-      <c r="N6" s="68"/>
+      <c r="M6" s="73"/>
+      <c r="N6" s="73"/>
       <c r="O6" s="32">
         <v>688</v>
       </c>
     </row>
     <row r="7" spans="1:15" s="32" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="72"/>
-      <c r="B7" s="72"/>
+      <c r="A7" s="77"/>
+      <c r="B7" s="77"/>
       <c r="C7" s="33"/>
       <c r="D7" s="33"/>
       <c r="E7" s="33"/>
-      <c r="F7" s="69"/>
+      <c r="F7" s="74"/>
       <c r="G7" s="33"/>
       <c r="H7" s="33"/>
       <c r="I7" s="33"/>
       <c r="J7" s="33"/>
       <c r="K7" s="33"/>
       <c r="L7" s="1"/>
-      <c r="M7" s="69"/>
-      <c r="N7" s="69"/>
+      <c r="M7" s="74"/>
+      <c r="N7" s="74"/>
     </row>
     <row r="8" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="34" t="s">
         <v>260</v>
       </c>
-      <c r="B8" s="67" t="s">
+      <c r="B8" s="72" t="s">
         <v>266</v>
       </c>
       <c r="C8" s="34"/>
       <c r="D8" s="33"/>
       <c r="E8" s="33">
-        <v>3</v>
-      </c>
-      <c r="F8" s="70" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="75" t="s">
         <v>351</v>
       </c>
       <c r="G8" s="33"/>
@@ -20912,10 +21204,10 @@
       <c r="J8" s="33"/>
       <c r="K8" s="33"/>
       <c r="L8" s="2"/>
-      <c r="M8" s="67">
+      <c r="M8" s="72">
         <v>10000</v>
       </c>
-      <c r="N8" s="67">
+      <c r="N8" s="72">
         <v>11792</v>
       </c>
     </row>
@@ -20923,21 +21215,21 @@
       <c r="A9" s="34" t="s">
         <v>357</v>
       </c>
-      <c r="B9" s="69"/>
+      <c r="B9" s="74"/>
       <c r="C9" s="34"/>
       <c r="D9" s="33"/>
       <c r="E9" s="33">
         <v>1</v>
       </c>
-      <c r="F9" s="69"/>
+      <c r="F9" s="74"/>
       <c r="G9" s="33"/>
       <c r="H9" s="33"/>
       <c r="I9" s="33"/>
       <c r="J9" s="33"/>
       <c r="K9" s="33"/>
       <c r="L9" s="2"/>
-      <c r="M9" s="69"/>
-      <c r="N9" s="69"/>
+      <c r="M9" s="74"/>
+      <c r="N9" s="74"/>
     </row>
     <row r="10" spans="1:15" s="32" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="34" t="s">
@@ -21218,7 +21510,7 @@
       </c>
     </row>
     <row r="22" spans="1:14" s="32" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="70" t="s">
+      <c r="A22" s="75" t="s">
         <v>299</v>
       </c>
       <c r="B22" s="34" t="s">
@@ -21237,12 +21529,12 @@
       <c r="K22" s="33"/>
       <c r="L22" s="2"/>
       <c r="M22" s="33"/>
-      <c r="N22" s="67">
+      <c r="N22" s="72">
         <v>50000</v>
       </c>
     </row>
     <row r="23" spans="1:14" s="32" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="71"/>
+      <c r="A23" s="76"/>
       <c r="B23" s="34" t="s">
         <v>387</v>
       </c>
@@ -21259,10 +21551,10 @@
       <c r="K23" s="33"/>
       <c r="L23" s="2"/>
       <c r="M23" s="33"/>
-      <c r="N23" s="68"/>
+      <c r="N23" s="73"/>
     </row>
     <row r="24" spans="1:14" s="32" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="71"/>
+      <c r="A24" s="76"/>
       <c r="B24" s="34" t="s">
         <v>386</v>
       </c>
@@ -21287,10 +21579,10 @@
       <c r="M24" s="33">
         <v>4691.5</v>
       </c>
-      <c r="N24" s="68"/>
+      <c r="N24" s="73"/>
     </row>
     <row r="25" spans="1:14" s="32" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="71"/>
+      <c r="A25" s="76"/>
       <c r="B25" s="34" t="s">
         <v>382</v>
       </c>
@@ -21307,10 +21599,10 @@
       <c r="K25" s="33"/>
       <c r="L25" s="2"/>
       <c r="M25" s="33"/>
-      <c r="N25" s="68"/>
+      <c r="N25" s="73"/>
     </row>
     <row r="26" spans="1:14" s="32" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="71"/>
+      <c r="A26" s="76"/>
       <c r="B26" s="34" t="s">
         <v>383</v>
       </c>
@@ -21327,10 +21619,10 @@
       <c r="K26" s="33"/>
       <c r="L26" s="2"/>
       <c r="M26" s="33"/>
-      <c r="N26" s="68"/>
+      <c r="N26" s="73"/>
     </row>
     <row r="27" spans="1:14" s="32" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="71"/>
+      <c r="A27" s="76"/>
       <c r="B27" s="34" t="s">
         <v>384</v>
       </c>
@@ -21347,10 +21639,10 @@
       <c r="K27" s="33"/>
       <c r="L27" s="2"/>
       <c r="M27" s="33"/>
-      <c r="N27" s="68"/>
+      <c r="N27" s="73"/>
     </row>
     <row r="28" spans="1:14" s="32" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="71"/>
+      <c r="A28" s="76"/>
       <c r="B28" s="34" t="s">
         <v>385</v>
       </c>
@@ -21367,10 +21659,10 @@
       <c r="K28" s="33"/>
       <c r="L28" s="2"/>
       <c r="M28" s="33"/>
-      <c r="N28" s="68"/>
+      <c r="N28" s="73"/>
     </row>
     <row r="29" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="72"/>
+      <c r="A29" s="77"/>
       <c r="B29" s="34" t="s">
         <v>301</v>
       </c>
@@ -21387,10 +21679,10 @@
       <c r="K29" s="33"/>
       <c r="L29" s="2"/>
       <c r="M29" s="33"/>
-      <c r="N29" s="69"/>
+      <c r="N29" s="74"/>
     </row>
     <row r="30" spans="1:14" s="32" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="70" t="s">
+      <c r="A30" s="75" t="s">
         <v>300</v>
       </c>
       <c r="B30" s="34" t="s">
@@ -21409,12 +21701,12 @@
       <c r="K30" s="33"/>
       <c r="L30" s="2"/>
       <c r="M30" s="33"/>
-      <c r="N30" s="67">
+      <c r="N30" s="72">
         <v>50000</v>
       </c>
     </row>
     <row r="31" spans="1:14" s="32" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="71"/>
+      <c r="A31" s="76"/>
       <c r="B31" s="34" t="s">
         <v>389</v>
       </c>
@@ -21431,10 +21723,10 @@
       <c r="K31" s="33"/>
       <c r="L31" s="2"/>
       <c r="M31" s="33"/>
-      <c r="N31" s="68"/>
+      <c r="N31" s="73"/>
     </row>
     <row r="32" spans="1:14" s="32" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="71"/>
+      <c r="A32" s="76"/>
       <c r="B32" s="34" t="s">
         <v>393</v>
       </c>
@@ -21451,10 +21743,10 @@
       <c r="K32" s="33"/>
       <c r="L32" s="2"/>
       <c r="M32" s="33"/>
-      <c r="N32" s="68"/>
+      <c r="N32" s="73"/>
     </row>
     <row r="33" spans="1:14" s="32" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="71"/>
+      <c r="A33" s="76"/>
       <c r="B33" s="34" t="s">
         <v>392</v>
       </c>
@@ -21471,10 +21763,10 @@
       <c r="K33" s="33"/>
       <c r="L33" s="2"/>
       <c r="M33" s="33"/>
-      <c r="N33" s="68"/>
+      <c r="N33" s="73"/>
     </row>
     <row r="34" spans="1:14" s="32" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="71"/>
+      <c r="A34" s="76"/>
       <c r="B34" s="34" t="s">
         <v>391</v>
       </c>
@@ -21491,10 +21783,10 @@
       <c r="K34" s="33"/>
       <c r="L34" s="2"/>
       <c r="M34" s="33"/>
-      <c r="N34" s="68"/>
+      <c r="N34" s="73"/>
     </row>
     <row r="35" spans="1:14" s="32" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="71"/>
+      <c r="A35" s="76"/>
       <c r="B35" s="34" t="s">
         <v>394</v>
       </c>
@@ -21511,10 +21803,10 @@
       <c r="K35" s="33"/>
       <c r="L35" s="2"/>
       <c r="M35" s="33"/>
-      <c r="N35" s="68"/>
+      <c r="N35" s="73"/>
     </row>
     <row r="36" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="72"/>
+      <c r="A36" s="77"/>
       <c r="B36" s="34" t="s">
         <v>395</v>
       </c>
@@ -21531,7 +21823,7 @@
       <c r="K36" s="33"/>
       <c r="L36" s="2"/>
       <c r="M36" s="33"/>
-      <c r="N36" s="69"/>
+      <c r="N36" s="74"/>
     </row>
     <row r="37" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="34" t="s">
@@ -21636,7 +21928,7 @@
       </c>
     </row>
     <row r="42" spans="1:14" s="32" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="70" t="s">
+      <c r="A42" s="75" t="s">
         <v>306</v>
       </c>
       <c r="B42" s="34" t="s">
@@ -21658,7 +21950,7 @@
       </c>
     </row>
     <row r="43" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="71"/>
+      <c r="A43" s="76"/>
       <c r="B43" s="34" t="s">
         <v>431</v>
       </c>
@@ -21688,7 +21980,7 @@
       </c>
     </row>
     <row r="44" spans="1:14" s="32" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="71"/>
+      <c r="A44" s="76"/>
       <c r="B44" s="34" t="s">
         <v>380</v>
       </c>
@@ -21708,7 +22000,7 @@
       </c>
     </row>
     <row r="45" spans="1:14" s="32" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="72"/>
+      <c r="A45" s="77"/>
       <c r="B45" s="34" t="s">
         <v>381</v>
       </c>
@@ -22921,6 +23213,977 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35B9F7CE-E7D3-40E4-9486-C4ED7FA33435}">
+  <dimension ref="A1:I39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6" customWidth="1"/>
+    <col min="2" max="2" width="11.9140625" style="82" customWidth="1"/>
+    <col min="3" max="4" width="9.5" style="82" bestFit="1" customWidth="1"/>
+    <col min="5" max="9" width="8.6640625" style="82"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="83" t="s">
+        <v>477</v>
+      </c>
+      <c r="B1" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="64" t="s">
+        <v>237</v>
+      </c>
+      <c r="D1" s="64" t="s">
+        <v>322</v>
+      </c>
+      <c r="E1" s="64" t="s">
+        <v>479</v>
+      </c>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+    </row>
+    <row r="2" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="84"/>
+      <c r="B2" s="65" t="s">
+        <v>478</v>
+      </c>
+      <c r="C2" s="86">
+        <v>7399</v>
+      </c>
+      <c r="D2" s="87">
+        <v>43920</v>
+      </c>
+      <c r="E2" s="64" t="s">
+        <v>480</v>
+      </c>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+    </row>
+    <row r="3" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="84"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+    </row>
+    <row r="4" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="84"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+    </row>
+    <row r="5" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="84"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+    </row>
+    <row r="6" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="84"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="65"/>
+    </row>
+    <row r="7" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="84"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="65"/>
+    </row>
+    <row r="8" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="84"/>
+      <c r="B8" s="65"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="65"/>
+    </row>
+    <row r="9" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="84"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="65"/>
+    </row>
+    <row r="10" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="84"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="65"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="65"/>
+    </row>
+    <row r="11" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="84"/>
+      <c r="B11" s="65"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="65"/>
+    </row>
+    <row r="12" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="84"/>
+      <c r="B12" s="65"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="65"/>
+    </row>
+    <row r="13" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="84"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="65"/>
+    </row>
+    <row r="14" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="84"/>
+      <c r="B14" s="65"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="65"/>
+    </row>
+    <row r="15" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="84"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="65"/>
+    </row>
+    <row r="16" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="84"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="65"/>
+      <c r="I16" s="65"/>
+    </row>
+    <row r="17" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="84"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="65"/>
+      <c r="G17" s="65"/>
+      <c r="H17" s="65"/>
+      <c r="I17" s="65"/>
+    </row>
+    <row r="18" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="85"/>
+      <c r="B18" s="65"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="65"/>
+      <c r="H18" s="65"/>
+      <c r="I18" s="65"/>
+    </row>
+    <row r="19" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2"/>
+      <c r="B19" s="65"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="65"/>
+      <c r="H19" s="65"/>
+      <c r="I19" s="65"/>
+    </row>
+    <row r="20" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="65"/>
+      <c r="H20" s="65"/>
+      <c r="I20" s="65"/>
+    </row>
+    <row r="21" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2"/>
+      <c r="B21" s="65"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="65"/>
+      <c r="G21" s="65"/>
+      <c r="H21" s="65"/>
+      <c r="I21" s="65"/>
+    </row>
+    <row r="22" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2"/>
+      <c r="B22" s="65"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="65"/>
+      <c r="G22" s="65"/>
+      <c r="H22" s="65"/>
+      <c r="I22" s="65"/>
+    </row>
+    <row r="23" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2"/>
+      <c r="B23" s="65"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="65"/>
+      <c r="H23" s="65"/>
+      <c r="I23" s="65"/>
+    </row>
+    <row r="24" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2"/>
+      <c r="B24" s="65"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="65"/>
+      <c r="H24" s="65"/>
+      <c r="I24" s="65"/>
+    </row>
+    <row r="25" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2"/>
+      <c r="B25" s="65"/>
+      <c r="C25" s="65"/>
+      <c r="D25" s="65"/>
+      <c r="E25" s="65"/>
+      <c r="F25" s="65"/>
+      <c r="G25" s="65"/>
+      <c r="H25" s="65"/>
+      <c r="I25" s="65"/>
+    </row>
+    <row r="26" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2"/>
+      <c r="B26" s="65"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="65"/>
+      <c r="E26" s="65"/>
+      <c r="F26" s="65"/>
+      <c r="G26" s="65"/>
+      <c r="H26" s="65"/>
+      <c r="I26" s="65"/>
+    </row>
+    <row r="27" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="2"/>
+      <c r="B27" s="65"/>
+      <c r="C27" s="65"/>
+      <c r="D27" s="65"/>
+      <c r="E27" s="65"/>
+      <c r="F27" s="65"/>
+      <c r="G27" s="65"/>
+      <c r="H27" s="65"/>
+      <c r="I27" s="65"/>
+    </row>
+    <row r="28" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="2"/>
+      <c r="B28" s="65"/>
+      <c r="C28" s="65"/>
+      <c r="D28" s="65"/>
+      <c r="E28" s="65"/>
+      <c r="F28" s="65"/>
+      <c r="G28" s="65"/>
+      <c r="H28" s="65"/>
+      <c r="I28" s="65"/>
+    </row>
+    <row r="29" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="2"/>
+      <c r="B29" s="65"/>
+      <c r="C29" s="65"/>
+      <c r="D29" s="65"/>
+      <c r="E29" s="65"/>
+      <c r="F29" s="65"/>
+      <c r="G29" s="65"/>
+      <c r="H29" s="65"/>
+      <c r="I29" s="65"/>
+    </row>
+    <row r="30" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="2"/>
+      <c r="B30" s="65"/>
+      <c r="C30" s="65"/>
+      <c r="D30" s="65"/>
+      <c r="E30" s="65"/>
+      <c r="F30" s="65"/>
+      <c r="G30" s="65"/>
+      <c r="H30" s="65"/>
+      <c r="I30" s="65"/>
+    </row>
+    <row r="31" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="2"/>
+      <c r="B31" s="65"/>
+      <c r="C31" s="65"/>
+      <c r="D31" s="65"/>
+      <c r="E31" s="65"/>
+      <c r="F31" s="65"/>
+      <c r="G31" s="65"/>
+      <c r="H31" s="65"/>
+      <c r="I31" s="65"/>
+    </row>
+    <row r="32" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="2"/>
+      <c r="B32" s="65"/>
+      <c r="C32" s="65"/>
+      <c r="D32" s="65"/>
+      <c r="E32" s="65"/>
+      <c r="F32" s="65"/>
+      <c r="G32" s="65"/>
+      <c r="H32" s="65"/>
+      <c r="I32" s="65"/>
+    </row>
+    <row r="33" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="2"/>
+      <c r="B33" s="65"/>
+      <c r="C33" s="65"/>
+      <c r="D33" s="65"/>
+      <c r="E33" s="65"/>
+      <c r="F33" s="65"/>
+      <c r="G33" s="65"/>
+      <c r="H33" s="65"/>
+      <c r="I33" s="65"/>
+    </row>
+    <row r="34" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="2"/>
+      <c r="B34" s="65"/>
+      <c r="C34" s="65"/>
+      <c r="D34" s="65"/>
+      <c r="E34" s="65"/>
+      <c r="F34" s="65"/>
+      <c r="G34" s="65"/>
+      <c r="H34" s="65"/>
+      <c r="I34" s="65"/>
+    </row>
+    <row r="35" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="2"/>
+      <c r="B35" s="65"/>
+      <c r="C35" s="65"/>
+      <c r="D35" s="65"/>
+      <c r="E35" s="65"/>
+      <c r="F35" s="65"/>
+      <c r="G35" s="65"/>
+      <c r="H35" s="65"/>
+      <c r="I35" s="65"/>
+    </row>
+    <row r="36" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="2"/>
+      <c r="B36" s="65"/>
+      <c r="C36" s="65"/>
+      <c r="D36" s="65"/>
+      <c r="E36" s="65"/>
+      <c r="F36" s="65"/>
+      <c r="G36" s="65"/>
+      <c r="H36" s="65"/>
+      <c r="I36" s="65"/>
+    </row>
+    <row r="37" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="2"/>
+      <c r="B37" s="65"/>
+      <c r="C37" s="65"/>
+      <c r="D37" s="65"/>
+      <c r="E37" s="65"/>
+      <c r="F37" s="65"/>
+      <c r="G37" s="65"/>
+      <c r="H37" s="65"/>
+      <c r="I37" s="65"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="2"/>
+      <c r="B38" s="65"/>
+      <c r="C38" s="65"/>
+      <c r="D38" s="65"/>
+      <c r="E38" s="65"/>
+      <c r="F38" s="65"/>
+      <c r="G38" s="65"/>
+      <c r="H38" s="65"/>
+      <c r="I38" s="65"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="2"/>
+      <c r="B39" s="65"/>
+      <c r="C39" s="65"/>
+      <c r="D39" s="65"/>
+      <c r="E39" s="65"/>
+      <c r="F39" s="65"/>
+      <c r="G39" s="65"/>
+      <c r="H39" s="65"/>
+      <c r="I39" s="65"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:A18"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E16C30A-2AD5-4E51-B017-E8AFFEF48D72}">
+  <dimension ref="A1:H30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.83203125" customWidth="1"/>
+    <col min="2" max="2" width="4.83203125" style="32" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.5" customWidth="1"/>
+    <col min="6" max="7" width="13.25" style="32" customWidth="1"/>
+    <col min="8" max="8" width="35.4140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="64" t="s">
+        <v>312</v>
+      </c>
+      <c r="B1" s="64" t="s">
+        <v>466</v>
+      </c>
+      <c r="C1" s="64" t="s">
+        <v>234</v>
+      </c>
+      <c r="D1" s="64" t="s">
+        <v>473</v>
+      </c>
+      <c r="E1" s="64" t="s">
+        <v>439</v>
+      </c>
+      <c r="F1" s="64" t="s">
+        <v>440</v>
+      </c>
+      <c r="G1" s="64" t="s">
+        <v>451</v>
+      </c>
+      <c r="H1" s="64" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="65">
+        <v>1</v>
+      </c>
+      <c r="B2" s="75" t="s">
+        <v>213</v>
+      </c>
+      <c r="C2" s="64" t="s">
+        <v>220</v>
+      </c>
+      <c r="D2" s="64" t="s">
+        <v>438</v>
+      </c>
+      <c r="E2" s="66" t="s">
+        <v>441</v>
+      </c>
+      <c r="F2" s="66" t="s">
+        <v>442</v>
+      </c>
+      <c r="G2" s="66" t="s">
+        <v>448</v>
+      </c>
+      <c r="H2" s="64" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="65">
+        <v>2</v>
+      </c>
+      <c r="B3" s="73"/>
+      <c r="C3" s="64" t="s">
+        <v>444</v>
+      </c>
+      <c r="D3" s="64" t="s">
+        <v>442</v>
+      </c>
+      <c r="E3" s="66" t="s">
+        <v>441</v>
+      </c>
+      <c r="F3" s="66" t="s">
+        <v>442</v>
+      </c>
+      <c r="G3" s="66" t="s">
+        <v>449</v>
+      </c>
+      <c r="H3" s="64" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="32" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="65"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="64" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" s="64" t="s">
+        <v>442</v>
+      </c>
+      <c r="E4" s="66" t="s">
+        <v>442</v>
+      </c>
+      <c r="F4" s="66" t="s">
+        <v>442</v>
+      </c>
+      <c r="G4" s="66" t="s">
+        <v>449</v>
+      </c>
+      <c r="H4" s="64" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="65">
+        <v>3</v>
+      </c>
+      <c r="B5" s="73"/>
+      <c r="C5" s="64" t="s">
+        <v>445</v>
+      </c>
+      <c r="D5" s="68" t="s">
+        <v>446</v>
+      </c>
+      <c r="E5" s="66" t="s">
+        <v>452</v>
+      </c>
+      <c r="F5" s="66" t="s">
+        <v>442</v>
+      </c>
+      <c r="G5" s="68" t="s">
+        <v>446</v>
+      </c>
+      <c r="H5" s="65"/>
+    </row>
+    <row r="6" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="65">
+        <v>4</v>
+      </c>
+      <c r="B6" s="73"/>
+      <c r="C6" s="64" t="s">
+        <v>447</v>
+      </c>
+      <c r="D6" s="64" t="s">
+        <v>442</v>
+      </c>
+      <c r="E6" s="66" t="s">
+        <v>441</v>
+      </c>
+      <c r="F6" s="66" t="s">
+        <v>442</v>
+      </c>
+      <c r="G6" s="66" t="s">
+        <v>449</v>
+      </c>
+      <c r="H6" s="64" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="65">
+        <v>5</v>
+      </c>
+      <c r="B7" s="73"/>
+      <c r="C7" s="64" t="s">
+        <v>454</v>
+      </c>
+      <c r="D7" s="68" t="s">
+        <v>446</v>
+      </c>
+      <c r="E7" s="66" t="s">
+        <v>452</v>
+      </c>
+      <c r="F7" s="66" t="s">
+        <v>442</v>
+      </c>
+      <c r="G7" s="68" t="s">
+        <v>446</v>
+      </c>
+      <c r="H7" s="64" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="65">
+        <v>6</v>
+      </c>
+      <c r="B8" s="73"/>
+      <c r="C8" s="64" t="s">
+        <v>456</v>
+      </c>
+      <c r="D8" s="64" t="s">
+        <v>442</v>
+      </c>
+      <c r="E8" s="66" t="s">
+        <v>452</v>
+      </c>
+      <c r="F8" s="66" t="s">
+        <v>442</v>
+      </c>
+      <c r="G8" s="67" t="s">
+        <v>457</v>
+      </c>
+      <c r="H8" s="64" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="65">
+        <v>7</v>
+      </c>
+      <c r="B9" s="73"/>
+      <c r="C9" s="64" t="s">
+        <v>458</v>
+      </c>
+      <c r="D9" s="65" t="s">
+        <v>266</v>
+      </c>
+      <c r="E9" s="65" t="s">
+        <v>266</v>
+      </c>
+      <c r="F9" s="64" t="s">
+        <v>459</v>
+      </c>
+      <c r="G9" s="64" t="s">
+        <v>460</v>
+      </c>
+      <c r="H9" s="65"/>
+    </row>
+    <row r="10" spans="1:8" s="32" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="65">
+        <v>8</v>
+      </c>
+      <c r="B10" s="73"/>
+      <c r="C10" s="64" t="s">
+        <v>462</v>
+      </c>
+      <c r="D10" s="65" t="s">
+        <v>266</v>
+      </c>
+      <c r="E10" s="65" t="s">
+        <v>266</v>
+      </c>
+      <c r="F10" s="64" t="s">
+        <v>459</v>
+      </c>
+      <c r="G10" s="64" t="s">
+        <v>460</v>
+      </c>
+      <c r="H10" s="65"/>
+    </row>
+    <row r="11" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="65">
+        <v>9</v>
+      </c>
+      <c r="B11" s="73"/>
+      <c r="C11" s="64" t="s">
+        <v>461</v>
+      </c>
+      <c r="D11" s="65" t="s">
+        <v>266</v>
+      </c>
+      <c r="E11" s="65" t="s">
+        <v>266</v>
+      </c>
+      <c r="F11" s="64" t="s">
+        <v>459</v>
+      </c>
+      <c r="G11" s="64" t="s">
+        <v>460</v>
+      </c>
+      <c r="H11" s="65"/>
+    </row>
+    <row r="12" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="65">
+        <v>10</v>
+      </c>
+      <c r="B12" s="73"/>
+      <c r="C12" s="64" t="s">
+        <v>463</v>
+      </c>
+      <c r="D12" s="68" t="s">
+        <v>446</v>
+      </c>
+      <c r="E12" s="66" t="s">
+        <v>452</v>
+      </c>
+      <c r="F12" s="66" t="s">
+        <v>442</v>
+      </c>
+      <c r="G12" s="68" t="s">
+        <v>446</v>
+      </c>
+      <c r="H12" s="65"/>
+    </row>
+    <row r="13" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="65">
+        <v>11</v>
+      </c>
+      <c r="B13" s="73"/>
+      <c r="C13" s="64" t="s">
+        <v>352</v>
+      </c>
+      <c r="D13" s="65" t="s">
+        <v>266</v>
+      </c>
+      <c r="E13" s="65" t="s">
+        <v>266</v>
+      </c>
+      <c r="F13" s="64" t="s">
+        <v>459</v>
+      </c>
+      <c r="G13" s="64" t="s">
+        <v>460</v>
+      </c>
+      <c r="H13" s="64" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="65">
+        <v>12</v>
+      </c>
+      <c r="B14" s="74"/>
+      <c r="C14" s="64" t="s">
+        <v>465</v>
+      </c>
+      <c r="D14" s="65" t="s">
+        <v>266</v>
+      </c>
+      <c r="E14" s="65" t="s">
+        <v>266</v>
+      </c>
+      <c r="F14" s="64" t="s">
+        <v>459</v>
+      </c>
+      <c r="G14" s="64" t="s">
+        <v>460</v>
+      </c>
+      <c r="H14" s="65"/>
+    </row>
+    <row r="15" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="65">
+        <v>13</v>
+      </c>
+      <c r="B15" s="75" t="s">
+        <v>467</v>
+      </c>
+      <c r="C15" s="64" t="s">
+        <v>468</v>
+      </c>
+      <c r="D15" s="65"/>
+      <c r="E15" s="64" t="s">
+        <v>452</v>
+      </c>
+      <c r="F15" s="64" t="s">
+        <v>442</v>
+      </c>
+      <c r="G15" s="65"/>
+      <c r="H15" s="64" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="65">
+        <v>14</v>
+      </c>
+      <c r="B16" s="73"/>
+      <c r="C16" s="64" t="s">
+        <v>472</v>
+      </c>
+      <c r="D16" s="65"/>
+      <c r="E16" s="64" t="s">
+        <v>452</v>
+      </c>
+      <c r="F16" s="64" t="s">
+        <v>442</v>
+      </c>
+      <c r="G16" s="65"/>
+      <c r="H16" s="65"/>
+    </row>
+    <row r="17" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="65">
+        <v>15</v>
+      </c>
+      <c r="B17" s="73"/>
+      <c r="C17" s="64" t="s">
+        <v>471</v>
+      </c>
+      <c r="D17" s="65"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="64" t="s">
+        <v>442</v>
+      </c>
+      <c r="G17" s="65"/>
+      <c r="H17" s="64" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="65">
+        <v>16</v>
+      </c>
+      <c r="B18" s="73"/>
+      <c r="C18" s="64" t="s">
+        <v>475</v>
+      </c>
+      <c r="D18" s="65"/>
+      <c r="E18" s="64" t="s">
+        <v>452</v>
+      </c>
+      <c r="F18" s="64" t="s">
+        <v>442</v>
+      </c>
+      <c r="G18" s="65"/>
+      <c r="H18" s="65"/>
+    </row>
+    <row r="19" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="65">
+        <v>17</v>
+      </c>
+      <c r="B19" s="65"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="65"/>
+      <c r="H19" s="65"/>
+    </row>
+    <row r="20" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="65">
+        <v>18</v>
+      </c>
+      <c r="B20" s="65"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="65"/>
+      <c r="H20" s="65"/>
+    </row>
+    <row r="21" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="65">
+        <v>19</v>
+      </c>
+      <c r="B21" s="65"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="65"/>
+      <c r="G21" s="65"/>
+      <c r="H21" s="65"/>
+    </row>
+    <row r="22" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="65">
+        <v>20</v>
+      </c>
+      <c r="B22" s="65"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="65"/>
+      <c r="G22" s="65"/>
+      <c r="H22" s="65"/>
+    </row>
+    <row r="23" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="65">
+        <v>21</v>
+      </c>
+      <c r="B23" s="65"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="65"/>
+      <c r="H23" s="65"/>
+    </row>
+    <row r="24" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:B14"/>
+    <mergeCell ref="B15:B18"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AL724"/>
@@ -36767,31 +38030,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="78" t="s">
         <v>269</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="75"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="80"/>
     </row>
     <row r="2" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="78" t="s">
         <v>270</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="75"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="80"/>
     </row>
     <row r="3" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="78" t="s">
         <v>271</v>
       </c>
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="75"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="80"/>
     </row>
     <row r="4" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
@@ -37424,7 +38687,7 @@
       <c r="C13" t="s">
         <v>277</v>
       </c>
-      <c r="D13" s="76" t="s">
+      <c r="D13" s="81" t="s">
         <v>280</v>
       </c>
     </row>
@@ -37435,7 +38698,7 @@
       <c r="C14" t="s">
         <v>279</v>
       </c>
-      <c r="D14" s="76"/>
+      <c r="D14" s="81"/>
     </row>
     <row r="18" spans="1:7" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">

--- a/表格.xlsx
+++ b/表格.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\doc\-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B03FCB0-98EF-4C49-B73F-48D832B3CD54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38D31245-9877-4821-AEDD-AFF4AEAE700C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="661" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="661" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="总体" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">总体!$A$1:$AL$730</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="9">预算!$1:$1</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="499">
   <si>
     <t>地面</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1609,19 +1609,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>卫生间门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>推拉门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>厨房、书房、小阳台</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2671,6 +2659,123 @@
   </si>
   <si>
     <t>天猫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓷砖加工费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴砖师傅//04-08 微信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>书房推拉门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>德心艺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厨房推拉门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>次卫门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小阳台推拉门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tata</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门套、窗套、
+踢脚线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万家丽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>京东</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KFR-26G/BP(FTXB326VCLW)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KFR-36G/BP(FTXJ336VC-W)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>大</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1.5P</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（主卧）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  4-10</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大1P（儿童房）4-10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>儿童房大理石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空调打孔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红星美凯龙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">          </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信转工长//04-13</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3163,6 +3268,15 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3202,9 +3316,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
@@ -3213,12 +3324,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7963,14 +8068,14 @@
     </row>
     <row r="169" spans="1:21" s="32" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="33"/>
-      <c r="B169" s="75" t="s">
-        <v>406</v>
+      <c r="B169" s="78" t="s">
+        <v>403</v>
       </c>
       <c r="C169" s="33"/>
       <c r="D169" s="36"/>
       <c r="E169" s="36"/>
       <c r="F169" s="39" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="G169" s="36"/>
       <c r="H169" s="36"/>
@@ -7990,12 +8095,12 @@
     </row>
     <row r="170" spans="1:21" s="32" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="33"/>
-      <c r="B170" s="76"/>
+      <c r="B170" s="79"/>
       <c r="C170" s="33"/>
       <c r="D170" s="36"/>
       <c r="E170" s="36"/>
       <c r="F170" s="39" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="G170" s="36"/>
       <c r="H170" s="36"/>
@@ -8010,7 +8115,7 @@
       </c>
       <c r="N170" s="33"/>
       <c r="O170" s="63" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="P170" s="33"/>
       <c r="Q170" s="33"/>
@@ -8018,21 +8123,21 @@
         <v>196</v>
       </c>
       <c r="S170" s="33" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="T170" s="33"/>
       <c r="U170" s="33" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="171" spans="1:21" s="32" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="33"/>
-      <c r="B171" s="77"/>
+      <c r="B171" s="80"/>
       <c r="C171" s="33"/>
       <c r="D171" s="36"/>
       <c r="E171" s="36"/>
       <c r="F171" s="39" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="G171" s="36"/>
       <c r="H171" s="36"/>
@@ -8047,7 +8152,7 @@
       </c>
       <c r="N171" s="33"/>
       <c r="O171" s="34" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="P171" s="33"/>
       <c r="Q171" s="33"/>
@@ -8055,11 +8160,11 @@
         <v>196</v>
       </c>
       <c r="S171" s="33" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="T171" s="33"/>
       <c r="U171" s="33" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="172" spans="1:21" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -8084,7 +8189,7 @@
       </c>
       <c r="N172" s="33"/>
       <c r="O172" s="34" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="P172" s="33"/>
       <c r="Q172" s="33"/>
@@ -8092,11 +8197,11 @@
         <v>196</v>
       </c>
       <c r="S172" s="33" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="T172" s="33"/>
       <c r="U172" s="33" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="173" spans="1:21" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -8165,10 +8270,10 @@
       <c r="I175" s="36"/>
       <c r="J175" s="36"/>
       <c r="K175" s="36"/>
-      <c r="L175" s="72">
+      <c r="L175" s="75">
         <v>597.46</v>
       </c>
-      <c r="M175" s="72">
+      <c r="M175" s="75">
         <v>597.46</v>
       </c>
       <c r="N175" s="33"/>
@@ -8204,8 +8309,8 @@
       <c r="I176" s="36"/>
       <c r="J176" s="36"/>
       <c r="K176" s="36"/>
-      <c r="L176" s="74"/>
-      <c r="M176" s="74"/>
+      <c r="L176" s="77"/>
+      <c r="M176" s="77"/>
       <c r="N176" s="33"/>
       <c r="O176" s="33" t="s">
         <v>199</v>
@@ -8638,7 +8743,7 @@
     <row r="191" spans="1:38" s="32" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="33"/>
       <c r="B191" s="55" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C191" s="33"/>
       <c r="D191" s="36"/>
@@ -8660,7 +8765,7 @@
       <c r="P191" s="33"/>
       <c r="Q191" s="33"/>
       <c r="R191" s="33" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="S191" s="31">
         <v>43819</v>
@@ -8722,14 +8827,14 @@
       <c r="P193" s="33"/>
       <c r="Q193" s="33"/>
       <c r="R193" s="34" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="S193" s="31">
         <v>43755</v>
       </c>
       <c r="T193" s="33"/>
       <c r="U193" s="34" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="194" spans="1:21" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -8757,7 +8862,7 @@
       <c r="P194" s="33"/>
       <c r="Q194" s="33"/>
       <c r="R194" s="34" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="S194" s="33"/>
       <c r="T194" s="33"/>
@@ -8835,12 +8940,12 @@
       </c>
       <c r="N197" s="33"/>
       <c r="O197" s="34" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="P197" s="33"/>
       <c r="Q197" s="33"/>
       <c r="R197" s="34" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="S197" s="31">
         <v>43739</v>
@@ -8870,12 +8975,12 @@
       </c>
       <c r="N198" s="33"/>
       <c r="O198" s="34" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="P198" s="33"/>
       <c r="Q198" s="33"/>
       <c r="R198" s="34" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="S198" s="31">
         <v>43744</v>
@@ -8887,7 +8992,7 @@
       <c r="A199" s="33"/>
       <c r="B199" s="33"/>
       <c r="C199" s="34" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="D199" s="36"/>
       <c r="E199" s="36"/>
@@ -8897,38 +9002,38 @@
       <c r="I199" s="36"/>
       <c r="J199" s="36"/>
       <c r="K199" s="36"/>
-      <c r="L199" s="72">
+      <c r="L199" s="75">
         <v>11890</v>
       </c>
-      <c r="M199" s="72">
+      <c r="M199" s="75">
         <v>5000</v>
       </c>
       <c r="N199" s="33">
         <v>1</v>
       </c>
-      <c r="O199" s="75" t="s">
-        <v>350</v>
+      <c r="O199" s="78" t="s">
+        <v>347</v>
       </c>
       <c r="P199" s="33"/>
       <c r="Q199" s="33"/>
-      <c r="R199" s="75" t="s">
-        <v>355</v>
-      </c>
-      <c r="S199" s="69">
+      <c r="R199" s="78" t="s">
+        <v>352</v>
+      </c>
+      <c r="S199" s="72">
         <v>43745</v>
       </c>
       <c r="T199" s="33">
         <v>15274940456</v>
       </c>
       <c r="U199" s="33" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="200" spans="1:21" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="33"/>
       <c r="B200" s="33"/>
       <c r="C200" s="34" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D200" s="36"/>
       <c r="E200" s="36"/>
@@ -8938,26 +9043,26 @@
       <c r="I200" s="36"/>
       <c r="J200" s="36"/>
       <c r="K200" s="36"/>
-      <c r="L200" s="73"/>
-      <c r="M200" s="73"/>
+      <c r="L200" s="76"/>
+      <c r="M200" s="76"/>
       <c r="N200" s="33">
         <v>3</v>
       </c>
-      <c r="O200" s="76"/>
+      <c r="O200" s="79"/>
       <c r="P200" s="33"/>
       <c r="Q200" s="33"/>
-      <c r="R200" s="76"/>
-      <c r="S200" s="70"/>
+      <c r="R200" s="79"/>
+      <c r="S200" s="73"/>
       <c r="T200" s="33"/>
       <c r="U200" s="34" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="201" spans="1:21" s="32" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="33"/>
       <c r="B201" s="33"/>
       <c r="C201" s="34" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D201" s="36"/>
       <c r="E201" s="36"/>
@@ -8967,26 +9072,26 @@
       <c r="I201" s="36"/>
       <c r="J201" s="36"/>
       <c r="K201" s="36"/>
-      <c r="L201" s="74"/>
-      <c r="M201" s="74"/>
+      <c r="L201" s="77"/>
+      <c r="M201" s="77"/>
       <c r="N201" s="33">
         <v>1</v>
       </c>
-      <c r="O201" s="77"/>
+      <c r="O201" s="80"/>
       <c r="P201" s="33"/>
       <c r="Q201" s="33"/>
-      <c r="R201" s="77"/>
-      <c r="S201" s="71"/>
+      <c r="R201" s="80"/>
+      <c r="S201" s="74"/>
       <c r="T201" s="33"/>
       <c r="U201" s="34" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="202" spans="1:21" s="32" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="33"/>
       <c r="B202" s="33"/>
       <c r="C202" s="34" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D202" s="36"/>
       <c r="E202" s="36"/>
@@ -9029,12 +9134,12 @@
       </c>
       <c r="N203" s="33"/>
       <c r="O203" s="34" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="P203" s="33"/>
       <c r="Q203" s="33"/>
       <c r="R203" s="34" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="S203" s="31">
         <v>43741</v>
@@ -9046,7 +9151,7 @@
       <c r="A204" s="33"/>
       <c r="B204" s="33"/>
       <c r="C204" s="34" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D204" s="36"/>
       <c r="E204" s="36"/>
@@ -9064,12 +9169,12 @@
       </c>
       <c r="N204" s="33"/>
       <c r="O204" s="34" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="P204" s="33"/>
       <c r="Q204" s="33"/>
       <c r="R204" s="34" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="S204" s="31">
         <v>43742</v>
@@ -9081,7 +9186,7 @@
       <c r="A205" s="33"/>
       <c r="B205" s="33"/>
       <c r="C205" s="34" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D205" s="36"/>
       <c r="E205" s="36"/>
@@ -9099,12 +9204,12 @@
       </c>
       <c r="N205" s="33"/>
       <c r="O205" s="34" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="P205" s="33"/>
       <c r="Q205" s="33"/>
       <c r="R205" s="34" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="S205" s="31">
         <v>43744</v>
@@ -9118,7 +9223,7 @@
         <v>46</v>
       </c>
       <c r="C206" s="34" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D206" s="36"/>
       <c r="E206" s="36"/>
@@ -9136,12 +9241,12 @@
       </c>
       <c r="N206" s="33"/>
       <c r="O206" s="34" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="P206" s="33"/>
       <c r="Q206" s="33"/>
       <c r="R206" s="34" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="S206" s="31">
         <v>43758</v>
@@ -20991,23 +21096,24 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:O79"/>
+  <dimension ref="A1:O84"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M1" sqref="M1:N1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.58203125" customWidth="1"/>
     <col min="2" max="2" width="10.83203125" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" customWidth="1"/>
+    <col min="3" max="3" width="29.33203125" customWidth="1"/>
     <col min="5" max="5" width="8.58203125" style="32"/>
+    <col min="6" max="6" width="10.6640625" customWidth="1"/>
     <col min="7" max="7" width="25.33203125" customWidth="1"/>
     <col min="12" max="12" width="11.33203125" customWidth="1"/>
     <col min="13" max="13" width="8.6640625" style="30"/>
-    <col min="14" max="14" width="8.58203125" style="30"/>
+    <col min="15" max="15" width="8.58203125" style="30"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="32" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -21030,7 +21136,7 @@
         <v>265</v>
       </c>
       <c r="G1" s="59" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="H1" s="60"/>
       <c r="I1" s="60"/>
@@ -21038,13 +21144,13 @@
       <c r="K1" s="60"/>
       <c r="L1" s="2"/>
       <c r="M1" s="34" t="s">
-        <v>375</v>
-      </c>
-      <c r="N1" s="34" t="s">
+        <v>372</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="O1" s="34" t="s">
         <v>283</v>
-      </c>
-      <c r="O1" s="25" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -21069,7 +21175,10 @@
       <c r="M2" s="33">
         <v>3000</v>
       </c>
-      <c r="N2" s="33">
+      <c r="N2" s="2">
+        <v>11700</v>
+      </c>
+      <c r="O2" s="33">
         <v>13000</v>
       </c>
     </row>
@@ -21084,10 +21193,10 @@
       <c r="D3" s="33"/>
       <c r="E3" s="33"/>
       <c r="F3" s="34" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="G3" s="34" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="H3" s="33"/>
       <c r="I3" s="33"/>
@@ -21097,25 +21206,25 @@
       <c r="M3" s="33">
         <v>16300</v>
       </c>
-      <c r="N3" s="33">
+      <c r="N3" s="2">
+        <v>300</v>
+      </c>
+      <c r="O3" s="33">
         <v>16300</v>
       </c>
-      <c r="O3">
-        <v>300</v>
-      </c>
     </row>
     <row r="4" spans="1:15" s="32" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="78" t="s">
         <v>253</v>
       </c>
-      <c r="B4" s="75" t="s">
+      <c r="B4" s="78" t="s">
         <v>272</v>
       </c>
       <c r="C4" s="33"/>
       <c r="D4" s="33"/>
       <c r="E4" s="33"/>
-      <c r="F4" s="75" t="s">
-        <v>416</v>
+      <c r="F4" s="78" t="s">
+        <v>413</v>
       </c>
       <c r="G4" s="33"/>
       <c r="H4" s="33"/>
@@ -21123,71 +21232,76 @@
       <c r="J4" s="33"/>
       <c r="K4" s="33"/>
       <c r="L4" s="2"/>
-      <c r="M4" s="72">
+      <c r="M4" s="75">
         <v>19968</v>
       </c>
-      <c r="N4" s="72">
+      <c r="N4" s="2"/>
+      <c r="O4" s="75">
         <v>19968</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="76"/>
-      <c r="B5" s="76"/>
+      <c r="A5" s="79"/>
+      <c r="B5" s="79"/>
       <c r="C5" s="33"/>
       <c r="D5" s="33"/>
       <c r="E5" s="33"/>
-      <c r="F5" s="73"/>
+      <c r="F5" s="76"/>
       <c r="G5" s="34"/>
       <c r="H5" s="33"/>
       <c r="I5" s="33"/>
       <c r="J5" s="33"/>
       <c r="K5" s="33"/>
       <c r="L5" s="2"/>
-      <c r="M5" s="73"/>
-      <c r="N5" s="73"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="76"/>
     </row>
     <row r="6" spans="1:15" s="32" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="76"/>
-      <c r="B6" s="76"/>
+      <c r="A6" s="79"/>
+      <c r="B6" s="79"/>
       <c r="C6" s="33"/>
       <c r="D6" s="33"/>
       <c r="E6" s="33"/>
-      <c r="F6" s="73"/>
+      <c r="F6" s="76"/>
       <c r="G6" s="34" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="H6" s="33"/>
       <c r="I6" s="33"/>
       <c r="J6" s="33"/>
       <c r="K6" s="33"/>
       <c r="L6" s="1"/>
-      <c r="M6" s="73"/>
-      <c r="N6" s="73"/>
-      <c r="O6" s="32">
+      <c r="M6" s="76"/>
+      <c r="N6" s="2">
         <v>688</v>
       </c>
+      <c r="O6" s="76"/>
     </row>
     <row r="7" spans="1:15" s="32" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="77"/>
-      <c r="B7" s="77"/>
+      <c r="A7" s="80"/>
+      <c r="B7" s="80"/>
       <c r="C7" s="33"/>
       <c r="D7" s="33"/>
       <c r="E7" s="33"/>
-      <c r="F7" s="74"/>
+      <c r="F7" s="77"/>
       <c r="G7" s="33"/>
       <c r="H7" s="33"/>
       <c r="I7" s="33"/>
       <c r="J7" s="33"/>
       <c r="K7" s="33"/>
       <c r="L7" s="1"/>
-      <c r="M7" s="74"/>
-      <c r="N7" s="74"/>
+      <c r="M7" s="77"/>
+      <c r="N7" s="2">
+        <v>948</v>
+      </c>
+      <c r="O7" s="77"/>
     </row>
     <row r="8" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="34" t="s">
         <v>260</v>
       </c>
-      <c r="B8" s="72" t="s">
+      <c r="B8" s="75" t="s">
         <v>266</v>
       </c>
       <c r="C8" s="34"/>
@@ -21195,8 +21309,8 @@
       <c r="E8" s="33">
         <v>4</v>
       </c>
-      <c r="F8" s="75" t="s">
-        <v>351</v>
+      <c r="F8" s="78" t="s">
+        <v>348</v>
       </c>
       <c r="G8" s="33"/>
       <c r="H8" s="33"/>
@@ -21204,126 +21318,130 @@
       <c r="J8" s="33"/>
       <c r="K8" s="33"/>
       <c r="L8" s="2"/>
-      <c r="M8" s="72">
+      <c r="M8" s="75">
         <v>10000</v>
       </c>
-      <c r="N8" s="72">
+      <c r="N8" s="75">
+        <v>16884</v>
+      </c>
+      <c r="O8" s="75">
         <v>11792</v>
       </c>
     </row>
     <row r="9" spans="1:15" s="32" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="34" t="s">
-        <v>357</v>
-      </c>
-      <c r="B9" s="74"/>
+        <v>354</v>
+      </c>
+      <c r="B9" s="77"/>
       <c r="C9" s="34"/>
       <c r="D9" s="33"/>
       <c r="E9" s="33">
         <v>1</v>
       </c>
-      <c r="F9" s="74"/>
+      <c r="F9" s="77"/>
       <c r="G9" s="33"/>
       <c r="H9" s="33"/>
       <c r="I9" s="33"/>
       <c r="J9" s="33"/>
       <c r="K9" s="33"/>
       <c r="L9" s="2"/>
-      <c r="M9" s="74"/>
-      <c r="N9" s="74"/>
+      <c r="M9" s="76"/>
+      <c r="N9" s="76"/>
+      <c r="O9" s="77"/>
     </row>
     <row r="10" spans="1:15" s="32" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="34" t="s">
-        <v>285</v>
-      </c>
-      <c r="B10" s="33"/>
+        <v>483</v>
+      </c>
+      <c r="B10" s="75" t="s">
+        <v>485</v>
+      </c>
       <c r="C10" s="34"/>
       <c r="D10" s="33"/>
       <c r="E10" s="33">
         <v>1</v>
       </c>
-      <c r="F10" s="33"/>
+      <c r="F10" s="78" t="s">
+        <v>487</v>
+      </c>
       <c r="G10" s="33"/>
       <c r="H10" s="33"/>
-      <c r="I10" s="33"/>
+      <c r="I10" s="33" t="s">
+        <v>497</v>
+      </c>
       <c r="J10" s="33"/>
       <c r="K10" s="33"/>
       <c r="L10" s="2"/>
-      <c r="M10" s="33"/>
-      <c r="N10" s="33">
-        <v>1000</v>
+      <c r="M10" s="76"/>
+      <c r="N10" s="76"/>
+      <c r="O10" s="75">
+        <v>1500</v>
       </c>
     </row>
     <row r="11" spans="1:15" s="32" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="34" t="s">
-        <v>286</v>
-      </c>
-      <c r="B11" s="33"/>
+        <v>482</v>
+      </c>
+      <c r="B11" s="76"/>
       <c r="C11" s="34"/>
       <c r="D11" s="33"/>
       <c r="E11" s="33">
-        <v>3</v>
-      </c>
-      <c r="F11" s="33"/>
-      <c r="G11" s="34" t="s">
-        <v>288</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F11" s="76"/>
+      <c r="G11" s="33"/>
       <c r="H11" s="33"/>
       <c r="I11" s="33"/>
       <c r="J11" s="33"/>
       <c r="K11" s="33"/>
       <c r="L11" s="2"/>
-      <c r="M11" s="33"/>
-      <c r="N11" s="33">
-        <v>4000</v>
-      </c>
+      <c r="M11" s="76"/>
+      <c r="N11" s="76"/>
+      <c r="O11" s="76"/>
     </row>
     <row r="12" spans="1:15" s="32" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="34" t="s">
-        <v>292</v>
-      </c>
-      <c r="B12" s="33"/>
-      <c r="C12" s="33"/>
+        <v>484</v>
+      </c>
+      <c r="B12" s="76"/>
+      <c r="C12" s="34"/>
       <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
+      <c r="E12" s="33">
+        <v>1</v>
+      </c>
+      <c r="F12" s="76"/>
+      <c r="G12" s="34"/>
       <c r="H12" s="33"/>
       <c r="I12" s="33"/>
       <c r="J12" s="33"/>
       <c r="K12" s="33"/>
       <c r="L12" s="2"/>
-      <c r="M12" s="33">
-        <v>3600</v>
-      </c>
-      <c r="N12" s="33">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="34" t="s">
-        <v>291</v>
-      </c>
-      <c r="B13" s="33"/>
-      <c r="C13" s="33"/>
+      <c r="M12" s="76"/>
+      <c r="N12" s="76"/>
+      <c r="O12" s="76"/>
+    </row>
+    <row r="13" spans="1:15" s="32" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="56" t="s">
+        <v>486</v>
+      </c>
+      <c r="B13" s="77"/>
+      <c r="C13" s="34"/>
       <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
+      <c r="E13" s="33">
+        <v>1</v>
+      </c>
+      <c r="F13" s="77"/>
+      <c r="G13" s="34"/>
       <c r="H13" s="33"/>
       <c r="I13" s="33"/>
       <c r="J13" s="33"/>
       <c r="K13" s="33"/>
-      <c r="L13" s="2">
-        <v>38.799999999999997</v>
-      </c>
-      <c r="M13" s="33">
-        <v>42550</v>
-      </c>
-      <c r="N13" s="33">
-        <v>42556</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L13" s="2"/>
+      <c r="M13" s="77"/>
+      <c r="N13" s="77"/>
+      <c r="O13" s="77"/>
+    </row>
+    <row r="14" spans="1:15" s="32" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="34" t="s">
         <v>289</v>
       </c>
@@ -21337,25 +21455,30 @@
       <c r="I14" s="33"/>
       <c r="J14" s="33"/>
       <c r="K14" s="33"/>
-      <c r="L14" s="2" t="s">
-        <v>290</v>
-      </c>
+      <c r="L14" s="2"/>
       <c r="M14" s="33">
-        <v>15870</v>
-      </c>
-      <c r="N14" s="33">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>3600</v>
+      </c>
+      <c r="N14" s="2"/>
+      <c r="O14" s="33">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" s="32" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="34" t="s">
-        <v>376</v>
-      </c>
-      <c r="B15" s="33"/>
-      <c r="C15" s="33"/>
+        <v>480</v>
+      </c>
+      <c r="B15" s="34" t="s">
+        <v>481</v>
+      </c>
+      <c r="C15" s="34"/>
       <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
+      <c r="E15" s="33">
+        <v>1</v>
+      </c>
+      <c r="F15" s="34" t="s">
+        <v>496</v>
+      </c>
       <c r="G15" s="33"/>
       <c r="H15" s="33"/>
       <c r="I15" s="33"/>
@@ -21365,43 +21488,39 @@
       <c r="M15" s="33">
         <v>1800</v>
       </c>
-      <c r="N15" s="33">
-        <v>1800</v>
+      <c r="N15" s="2"/>
+      <c r="O15" s="33">
+        <v>3600</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="34" t="s">
-        <v>293</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="D16" s="2">
-        <v>3200</v>
-      </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="1" t="s">
-        <v>420</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
       <c r="H16" s="33"/>
       <c r="I16" s="33"/>
       <c r="J16" s="33"/>
       <c r="K16" s="33"/>
-      <c r="L16" s="2"/>
+      <c r="L16" s="2">
+        <v>38.799999999999997</v>
+      </c>
       <c r="M16" s="33">
-        <v>200</v>
-      </c>
-      <c r="N16" s="33">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>42550</v>
+      </c>
+      <c r="N16" s="2"/>
+      <c r="O16" s="33">
+        <v>42556</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="34" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="B17" s="33"/>
       <c r="C17" s="33"/>
@@ -21413,17 +21532,20 @@
       <c r="I17" s="33"/>
       <c r="J17" s="33"/>
       <c r="K17" s="33"/>
-      <c r="L17" s="2"/>
+      <c r="L17" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="M17" s="33">
-        <v>600</v>
-      </c>
-      <c r="N17" s="33">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>15870</v>
+      </c>
+      <c r="N17" s="2"/>
+      <c r="O17" s="33">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="34" t="s">
-        <v>294</v>
+        <v>373</v>
       </c>
       <c r="B18" s="33"/>
       <c r="C18" s="33"/>
@@ -21437,37 +21559,47 @@
       <c r="K18" s="33"/>
       <c r="L18" s="2"/>
       <c r="M18" s="33">
-        <v>6600</v>
-      </c>
-      <c r="N18" s="33">
-        <v>6600</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1800</v>
+      </c>
+      <c r="N18" s="2"/>
+      <c r="O18" s="33">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="34" t="s">
-        <v>296</v>
-      </c>
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
+        <v>290</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="D19" s="2">
+        <v>3200</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="1" t="s">
+        <v>417</v>
+      </c>
       <c r="H19" s="33"/>
       <c r="I19" s="33"/>
       <c r="J19" s="33"/>
       <c r="K19" s="33"/>
       <c r="L19" s="2"/>
       <c r="M19" s="33">
-        <v>12300</v>
-      </c>
-      <c r="N19" s="33">
-        <v>12300</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>200</v>
+      </c>
+      <c r="N19" s="2"/>
+      <c r="O19" s="33">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="34" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="B20" s="33"/>
       <c r="C20" s="33"/>
@@ -21480,16 +21612,17 @@
       <c r="J20" s="33"/>
       <c r="K20" s="33"/>
       <c r="L20" s="2"/>
-      <c r="M20" s="33" t="s">
-        <v>400</v>
-      </c>
-      <c r="N20" s="33">
-        <v>4150</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M20" s="33">
+        <v>600</v>
+      </c>
+      <c r="N20" s="2"/>
+      <c r="O20" s="33">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="34" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="B21" s="33"/>
       <c r="C21" s="33"/>
@@ -21503,23 +21636,20 @@
       <c r="K21" s="33"/>
       <c r="L21" s="2"/>
       <c r="M21" s="33">
-        <v>4074</v>
-      </c>
-      <c r="N21" s="33">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" s="32" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="75" t="s">
-        <v>299</v>
-      </c>
-      <c r="B22" s="34" t="s">
-        <v>388</v>
-      </c>
+        <v>6600</v>
+      </c>
+      <c r="N21" s="2"/>
+      <c r="O21" s="33">
+        <v>6600</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="34" t="s">
+        <v>293</v>
+      </c>
+      <c r="B22" s="33"/>
       <c r="C22" s="33"/>
-      <c r="D22" s="33">
-        <v>1500</v>
-      </c>
+      <c r="D22" s="33"/>
       <c r="E22" s="33"/>
       <c r="F22" s="33"/>
       <c r="G22" s="33"/>
@@ -21528,20 +21658,21 @@
       <c r="J22" s="33"/>
       <c r="K22" s="33"/>
       <c r="L22" s="2"/>
-      <c r="M22" s="33"/>
-      <c r="N22" s="72">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" s="32" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="76"/>
-      <c r="B23" s="34" t="s">
-        <v>387</v>
-      </c>
+      <c r="M22" s="33">
+        <v>12300</v>
+      </c>
+      <c r="N22" s="2"/>
+      <c r="O22" s="33">
+        <v>12300</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="34" t="s">
+        <v>294</v>
+      </c>
+      <c r="B23" s="33"/>
       <c r="C23" s="33"/>
-      <c r="D23" s="33">
-        <v>6000</v>
-      </c>
+      <c r="D23" s="33"/>
       <c r="E23" s="33"/>
       <c r="F23" s="33"/>
       <c r="G23" s="33"/>
@@ -21550,26 +21681,23 @@
       <c r="J23" s="33"/>
       <c r="K23" s="33"/>
       <c r="L23" s="2"/>
-      <c r="M23" s="33"/>
-      <c r="N23" s="73"/>
-    </row>
-    <row r="24" spans="1:14" s="32" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="76"/>
-      <c r="B24" s="34" t="s">
-        <v>386</v>
-      </c>
-      <c r="C24" s="33" t="s">
-        <v>402</v>
-      </c>
-      <c r="D24" s="33">
-        <v>4000</v>
-      </c>
-      <c r="E24" s="33">
-        <v>1</v>
-      </c>
-      <c r="F24" s="34" t="s">
-        <v>401</v>
-      </c>
+      <c r="M23" s="33" t="s">
+        <v>397</v>
+      </c>
+      <c r="N23" s="2"/>
+      <c r="O23" s="33">
+        <v>4150</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="34" t="s">
+        <v>295</v>
+      </c>
+      <c r="B24" s="33"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
       <c r="G24" s="33"/>
       <c r="H24" s="33"/>
       <c r="I24" s="33"/>
@@ -21577,18 +21705,23 @@
       <c r="K24" s="33"/>
       <c r="L24" s="2"/>
       <c r="M24" s="33">
-        <v>4691.5</v>
-      </c>
-      <c r="N24" s="73"/>
-    </row>
-    <row r="25" spans="1:14" s="32" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="76"/>
+        <v>4074</v>
+      </c>
+      <c r="N24" s="2"/>
+      <c r="O24" s="33">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" s="32" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="78" t="s">
+        <v>296</v>
+      </c>
       <c r="B25" s="34" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="C25" s="33"/>
       <c r="D25" s="33">
-        <v>16000</v>
+        <v>1500</v>
       </c>
       <c r="E25" s="33"/>
       <c r="F25" s="33"/>
@@ -21599,16 +21732,19 @@
       <c r="K25" s="33"/>
       <c r="L25" s="2"/>
       <c r="M25" s="33"/>
-      <c r="N25" s="73"/>
-    </row>
-    <row r="26" spans="1:14" s="32" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="76"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="75">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" s="32" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="79"/>
       <c r="B26" s="34" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C26" s="33"/>
       <c r="D26" s="33">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="E26" s="33"/>
       <c r="F26" s="33"/>
@@ -21619,156 +21755,185 @@
       <c r="K26" s="33"/>
       <c r="L26" s="2"/>
       <c r="M26" s="33"/>
-      <c r="N26" s="73"/>
-    </row>
-    <row r="27" spans="1:14" s="32" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="76"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="76"/>
+    </row>
+    <row r="27" spans="1:15" s="32" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="79"/>
       <c r="B27" s="34" t="s">
-        <v>384</v>
-      </c>
-      <c r="C27" s="33"/>
+        <v>383</v>
+      </c>
+      <c r="C27" s="33" t="s">
+        <v>399</v>
+      </c>
       <c r="D27" s="33">
-        <v>5000</v>
-      </c>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
+        <v>4000</v>
+      </c>
+      <c r="E27" s="33">
+        <v>1</v>
+      </c>
+      <c r="F27" s="34" t="s">
+        <v>398</v>
+      </c>
       <c r="G27" s="33"/>
       <c r="H27" s="33"/>
       <c r="I27" s="33"/>
       <c r="J27" s="33"/>
       <c r="K27" s="33"/>
       <c r="L27" s="2"/>
-      <c r="M27" s="33"/>
-      <c r="N27" s="73"/>
-    </row>
-    <row r="28" spans="1:14" s="32" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="76"/>
-      <c r="B28" s="34" t="s">
-        <v>385</v>
-      </c>
-      <c r="C28" s="33"/>
+      <c r="M27" s="33">
+        <v>4691.5</v>
+      </c>
+      <c r="N27" s="2"/>
+      <c r="O27" s="76"/>
+    </row>
+    <row r="28" spans="1:15" s="32" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="79"/>
+      <c r="B28" s="78" t="s">
+        <v>379</v>
+      </c>
+      <c r="C28" s="33" t="s">
+        <v>490</v>
+      </c>
       <c r="D28" s="33">
-        <v>2000</v>
-      </c>
-      <c r="E28" s="33"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="33"/>
+        <v>3799</v>
+      </c>
+      <c r="E28" s="33">
+        <v>1</v>
+      </c>
+      <c r="F28" s="34" t="s">
+        <v>488</v>
+      </c>
+      <c r="G28" s="34" t="s">
+        <v>491</v>
+      </c>
       <c r="H28" s="33"/>
       <c r="I28" s="33"/>
       <c r="J28" s="33"/>
       <c r="K28" s="33"/>
       <c r="L28" s="2"/>
-      <c r="M28" s="33"/>
-      <c r="N28" s="73"/>
-    </row>
-    <row r="29" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="77"/>
-      <c r="B29" s="34" t="s">
-        <v>301</v>
-      </c>
-      <c r="C29" s="34"/>
-      <c r="D29" s="34">
-        <v>4000</v>
-      </c>
-      <c r="E29" s="34"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="34"/>
-      <c r="H29" s="34"/>
+      <c r="M28" s="33">
+        <v>3799</v>
+      </c>
+      <c r="N28" s="2"/>
+      <c r="O28" s="76"/>
+    </row>
+    <row r="29" spans="1:15" s="32" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="79"/>
+      <c r="B29" s="79"/>
+      <c r="C29" s="33" t="s">
+        <v>489</v>
+      </c>
+      <c r="D29" s="33">
+        <v>3599</v>
+      </c>
+      <c r="E29" s="33">
+        <v>1</v>
+      </c>
+      <c r="F29" s="34" t="s">
+        <v>488</v>
+      </c>
+      <c r="G29" s="34" t="s">
+        <v>492</v>
+      </c>
+      <c r="H29" s="33"/>
       <c r="I29" s="33"/>
       <c r="J29" s="33"/>
       <c r="K29" s="33"/>
       <c r="L29" s="2"/>
-      <c r="M29" s="33"/>
-      <c r="N29" s="74"/>
-    </row>
-    <row r="30" spans="1:14" s="32" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="75" t="s">
-        <v>300</v>
-      </c>
-      <c r="B30" s="34" t="s">
-        <v>390</v>
-      </c>
-      <c r="C30" s="34"/>
-      <c r="D30" s="34">
-        <v>8000</v>
-      </c>
-      <c r="E30" s="34"/>
-      <c r="F30" s="34"/>
-      <c r="G30" s="34"/>
-      <c r="H30" s="34"/>
+      <c r="M29" s="33">
+        <v>3599</v>
+      </c>
+      <c r="N29" s="2"/>
+      <c r="O29" s="76"/>
+    </row>
+    <row r="30" spans="1:15" s="32" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="79"/>
+      <c r="B30" s="80"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="33">
+        <f>16000-3799-3599</f>
+        <v>8602</v>
+      </c>
+      <c r="E30" s="33"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="33"/>
+      <c r="H30" s="33"/>
       <c r="I30" s="33"/>
       <c r="J30" s="33"/>
       <c r="K30" s="33"/>
       <c r="L30" s="2"/>
       <c r="M30" s="33"/>
-      <c r="N30" s="72">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" s="32" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="76"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="76"/>
+    </row>
+    <row r="31" spans="1:15" s="32" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="79"/>
       <c r="B31" s="34" t="s">
-        <v>389</v>
-      </c>
-      <c r="C31" s="34"/>
-      <c r="D31" s="34">
-        <v>6000</v>
-      </c>
-      <c r="E31" s="34"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="34"/>
-      <c r="H31" s="34"/>
+        <v>380</v>
+      </c>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33">
+        <v>5000</v>
+      </c>
+      <c r="E31" s="33"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="33"/>
+      <c r="H31" s="33"/>
       <c r="I31" s="33"/>
       <c r="J31" s="33"/>
       <c r="K31" s="33"/>
       <c r="L31" s="2"/>
       <c r="M31" s="33"/>
-      <c r="N31" s="73"/>
-    </row>
-    <row r="32" spans="1:14" s="32" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="76"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="76"/>
+    </row>
+    <row r="32" spans="1:15" s="32" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="79"/>
       <c r="B32" s="34" t="s">
-        <v>393</v>
-      </c>
-      <c r="C32" s="34"/>
-      <c r="D32" s="34">
-        <v>3000</v>
-      </c>
-      <c r="E32" s="34"/>
-      <c r="F32" s="34"/>
-      <c r="G32" s="34"/>
-      <c r="H32" s="34"/>
+        <v>381</v>
+      </c>
+      <c r="C32" s="33"/>
+      <c r="D32" s="33">
+        <v>5000</v>
+      </c>
+      <c r="E32" s="33"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="33"/>
       <c r="I32" s="33"/>
       <c r="J32" s="33"/>
       <c r="K32" s="33"/>
       <c r="L32" s="2"/>
       <c r="M32" s="33"/>
-      <c r="N32" s="73"/>
-    </row>
-    <row r="33" spans="1:14" s="32" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="76"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="76"/>
+    </row>
+    <row r="33" spans="1:15" s="32" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="79"/>
       <c r="B33" s="34" t="s">
-        <v>392</v>
-      </c>
-      <c r="C33" s="34"/>
-      <c r="D33" s="34">
-        <v>4000</v>
-      </c>
-      <c r="E33" s="34"/>
-      <c r="F33" s="34"/>
-      <c r="G33" s="34"/>
-      <c r="H33" s="34"/>
+        <v>382</v>
+      </c>
+      <c r="C33" s="33"/>
+      <c r="D33" s="33">
+        <v>2000</v>
+      </c>
+      <c r="E33" s="33"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="33"/>
       <c r="I33" s="33"/>
       <c r="J33" s="33"/>
       <c r="K33" s="33"/>
       <c r="L33" s="2"/>
       <c r="M33" s="33"/>
-      <c r="N33" s="73"/>
-    </row>
-    <row r="34" spans="1:14" s="32" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="76"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="76"/>
+    </row>
+    <row r="34" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="80"/>
       <c r="B34" s="34" t="s">
-        <v>391</v>
+        <v>298</v>
       </c>
       <c r="C34" s="34"/>
       <c r="D34" s="34">
@@ -21783,16 +21948,19 @@
       <c r="K34" s="33"/>
       <c r="L34" s="2"/>
       <c r="M34" s="33"/>
-      <c r="N34" s="73"/>
-    </row>
-    <row r="35" spans="1:14" s="32" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="76"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="77"/>
+    </row>
+    <row r="35" spans="1:15" s="32" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="78" t="s">
+        <v>297</v>
+      </c>
       <c r="B35" s="34" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="C35" s="34"/>
       <c r="D35" s="34">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="E35" s="34"/>
       <c r="F35" s="34"/>
@@ -21803,137 +21971,142 @@
       <c r="K35" s="33"/>
       <c r="L35" s="2"/>
       <c r="M35" s="33"/>
-      <c r="N35" s="73"/>
-    </row>
-    <row r="36" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="77"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="75">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" s="32" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="79"/>
       <c r="B36" s="34" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="C36" s="34"/>
       <c r="D36" s="34">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="E36" s="34"/>
       <c r="F36" s="34"/>
       <c r="G36" s="34"/>
-      <c r="H36" s="33"/>
+      <c r="H36" s="34"/>
       <c r="I36" s="33"/>
       <c r="J36" s="33"/>
       <c r="K36" s="33"/>
       <c r="L36" s="2"/>
       <c r="M36" s="33"/>
-      <c r="N36" s="74"/>
-    </row>
-    <row r="37" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="34" t="s">
-        <v>370</v>
-      </c>
-      <c r="B37" s="33"/>
-      <c r="C37" s="33"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="33"/>
-      <c r="G37" s="33"/>
-      <c r="H37" s="33"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="76"/>
+    </row>
+    <row r="37" spans="1:15" s="32" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="79"/>
+      <c r="B37" s="34" t="s">
+        <v>390</v>
+      </c>
+      <c r="C37" s="34"/>
+      <c r="D37" s="34">
+        <v>3000</v>
+      </c>
+      <c r="E37" s="34"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="34"/>
       <c r="I37" s="33"/>
       <c r="J37" s="33"/>
       <c r="K37" s="33"/>
       <c r="L37" s="2"/>
       <c r="M37" s="33"/>
-      <c r="N37" s="33">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="34" t="s">
-        <v>302</v>
-      </c>
-      <c r="B38" s="33"/>
-      <c r="C38" s="33"/>
-      <c r="D38" s="33"/>
-      <c r="E38" s="33"/>
-      <c r="F38" s="33"/>
-      <c r="G38" s="33"/>
-      <c r="H38" s="33"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="76"/>
+    </row>
+    <row r="38" spans="1:15" s="32" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="79"/>
+      <c r="B38" s="34" t="s">
+        <v>389</v>
+      </c>
+      <c r="C38" s="34"/>
+      <c r="D38" s="34">
+        <v>4000</v>
+      </c>
+      <c r="E38" s="34"/>
+      <c r="F38" s="34"/>
+      <c r="G38" s="34"/>
+      <c r="H38" s="34"/>
       <c r="I38" s="33"/>
       <c r="J38" s="33"/>
       <c r="K38" s="33"/>
       <c r="L38" s="2"/>
       <c r="M38" s="33"/>
-      <c r="N38" s="33">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="34" t="s">
-        <v>303</v>
-      </c>
-      <c r="B39" s="33"/>
-      <c r="C39" s="33"/>
-      <c r="D39" s="33"/>
-      <c r="E39" s="33"/>
-      <c r="F39" s="33"/>
-      <c r="G39" s="33"/>
-      <c r="H39" s="33"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="76"/>
+    </row>
+    <row r="39" spans="1:15" s="32" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="79"/>
+      <c r="B39" s="34" t="s">
+        <v>388</v>
+      </c>
+      <c r="C39" s="34"/>
+      <c r="D39" s="34">
+        <v>4000</v>
+      </c>
+      <c r="E39" s="34"/>
+      <c r="F39" s="34"/>
+      <c r="G39" s="34"/>
+      <c r="H39" s="34"/>
       <c r="I39" s="33"/>
       <c r="J39" s="33"/>
       <c r="K39" s="33"/>
       <c r="L39" s="2"/>
       <c r="M39" s="33"/>
-      <c r="N39" s="33">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="34" t="s">
-        <v>304</v>
-      </c>
-      <c r="B40" s="33"/>
-      <c r="C40" s="33"/>
-      <c r="D40" s="33"/>
-      <c r="E40" s="33"/>
-      <c r="F40" s="33"/>
-      <c r="G40" s="33"/>
-      <c r="H40" s="33"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="76"/>
+    </row>
+    <row r="40" spans="1:15" s="32" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="79"/>
+      <c r="B40" s="34" t="s">
+        <v>391</v>
+      </c>
+      <c r="C40" s="34"/>
+      <c r="D40" s="34">
+        <v>4000</v>
+      </c>
+      <c r="E40" s="34"/>
+      <c r="F40" s="34"/>
+      <c r="G40" s="34"/>
+      <c r="H40" s="34"/>
       <c r="I40" s="33"/>
       <c r="J40" s="33"/>
       <c r="K40" s="33"/>
       <c r="L40" s="2"/>
-      <c r="M40" s="33">
-        <v>444</v>
-      </c>
-      <c r="N40" s="33">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="34" t="s">
-        <v>305</v>
-      </c>
-      <c r="B41" s="33"/>
-      <c r="C41" s="33"/>
-      <c r="D41" s="33"/>
-      <c r="E41" s="33"/>
-      <c r="F41" s="33"/>
-      <c r="G41" s="33"/>
+      <c r="M40" s="33"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="76"/>
+    </row>
+    <row r="41" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="80"/>
+      <c r="B41" s="34" t="s">
+        <v>392</v>
+      </c>
+      <c r="C41" s="34"/>
+      <c r="D41" s="34">
+        <v>11000</v>
+      </c>
+      <c r="E41" s="34"/>
+      <c r="F41" s="34"/>
+      <c r="G41" s="34"/>
       <c r="H41" s="33"/>
       <c r="I41" s="33"/>
       <c r="J41" s="33"/>
       <c r="K41" s="33"/>
       <c r="L41" s="2"/>
       <c r="M41" s="33"/>
-      <c r="N41" s="33">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" s="32" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="75" t="s">
-        <v>306</v>
-      </c>
-      <c r="B42" s="34" t="s">
-        <v>379</v>
-      </c>
+      <c r="N41" s="2"/>
+      <c r="O41" s="77"/>
+    </row>
+    <row r="42" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="34" t="s">
+        <v>367</v>
+      </c>
+      <c r="B42" s="33"/>
       <c r="C42" s="33"/>
       <c r="D42" s="33"/>
       <c r="E42" s="33"/>
@@ -21945,46 +22118,38 @@
       <c r="K42" s="33"/>
       <c r="L42" s="2"/>
       <c r="M42" s="33"/>
-      <c r="N42" s="33">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="76"/>
-      <c r="B43" s="34" t="s">
-        <v>431</v>
-      </c>
-      <c r="C43" s="34" t="s">
-        <v>433</v>
-      </c>
-      <c r="D43" s="33">
-        <v>500</v>
-      </c>
+      <c r="N42" s="2"/>
+      <c r="O42" s="33">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="34" t="s">
+        <v>299</v>
+      </c>
+      <c r="B43" s="33"/>
+      <c r="C43" s="33"/>
+      <c r="D43" s="33"/>
       <c r="E43" s="33"/>
-      <c r="F43" s="34" t="s">
-        <v>432</v>
-      </c>
-      <c r="G43" s="33" t="s">
-        <v>437</v>
-      </c>
+      <c r="F43" s="33"/>
+      <c r="G43" s="33"/>
       <c r="H43" s="33"/>
       <c r="I43" s="33"/>
       <c r="J43" s="33"/>
       <c r="K43" s="33"/>
       <c r="L43" s="2"/>
-      <c r="M43" s="33">
-        <v>500</v>
-      </c>
-      <c r="N43" s="33">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" s="32" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="76"/>
-      <c r="B44" s="34" t="s">
-        <v>380</v>
-      </c>
-      <c r="C44" s="34"/>
+      <c r="M43" s="33"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="33">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="34" t="s">
+        <v>300</v>
+      </c>
+      <c r="B44" s="33"/>
+      <c r="C44" s="33"/>
       <c r="D44" s="33"/>
       <c r="E44" s="33"/>
       <c r="F44" s="33"/>
@@ -21995,16 +22160,17 @@
       <c r="K44" s="33"/>
       <c r="L44" s="2"/>
       <c r="M44" s="33"/>
-      <c r="N44" s="33">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" s="32" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="77"/>
-      <c r="B45" s="34" t="s">
-        <v>381</v>
-      </c>
-      <c r="C45" s="34"/>
+      <c r="N44" s="2"/>
+      <c r="O44" s="33">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="34" t="s">
+        <v>301</v>
+      </c>
+      <c r="B45" s="33"/>
+      <c r="C45" s="33"/>
       <c r="D45" s="33"/>
       <c r="E45" s="33"/>
       <c r="F45" s="33"/>
@@ -22014,17 +22180,20 @@
       <c r="J45" s="33"/>
       <c r="K45" s="33"/>
       <c r="L45" s="2"/>
-      <c r="M45" s="33"/>
-      <c r="N45" s="33">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" s="32" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="62" t="s">
-        <v>396</v>
-      </c>
-      <c r="B46" s="34"/>
-      <c r="C46" s="34"/>
+      <c r="M45" s="33">
+        <v>444</v>
+      </c>
+      <c r="N45" s="2"/>
+      <c r="O45" s="33">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="34" t="s">
+        <v>302</v>
+      </c>
+      <c r="B46" s="33"/>
+      <c r="C46" s="33"/>
       <c r="D46" s="33"/>
       <c r="E46" s="33"/>
       <c r="F46" s="33"/>
@@ -22035,16 +22204,19 @@
       <c r="K46" s="33"/>
       <c r="L46" s="2"/>
       <c r="M46" s="33"/>
-      <c r="N46" s="33">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" s="32" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="62" t="s">
-        <v>397</v>
-      </c>
-      <c r="B47" s="34"/>
-      <c r="C47" s="34"/>
+      <c r="N46" s="2"/>
+      <c r="O46" s="33">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" s="32" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="78" t="s">
+        <v>303</v>
+      </c>
+      <c r="B47" s="34" t="s">
+        <v>376</v>
+      </c>
+      <c r="C47" s="33"/>
       <c r="D47" s="33"/>
       <c r="E47" s="33"/>
       <c r="F47" s="33"/>
@@ -22055,36 +22227,48 @@
       <c r="K47" s="33"/>
       <c r="L47" s="2"/>
       <c r="M47" s="33"/>
-      <c r="N47" s="33">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="34" t="s">
-        <v>307</v>
-      </c>
-      <c r="B48" s="33"/>
-      <c r="C48" s="33"/>
-      <c r="D48" s="33"/>
+      <c r="N47" s="2"/>
+      <c r="O47" s="33">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="79"/>
+      <c r="B48" s="34" t="s">
+        <v>428</v>
+      </c>
+      <c r="C48" s="34" t="s">
+        <v>430</v>
+      </c>
+      <c r="D48" s="33">
+        <v>500</v>
+      </c>
       <c r="E48" s="33"/>
-      <c r="F48" s="33"/>
-      <c r="G48" s="33"/>
+      <c r="F48" s="34" t="s">
+        <v>429</v>
+      </c>
+      <c r="G48" s="33" t="s">
+        <v>434</v>
+      </c>
       <c r="H48" s="33"/>
       <c r="I48" s="33"/>
       <c r="J48" s="33"/>
       <c r="K48" s="33"/>
       <c r="L48" s="2"/>
-      <c r="M48" s="33"/>
-      <c r="N48" s="33">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="34" t="s">
-        <v>308</v>
-      </c>
-      <c r="B49" s="33"/>
-      <c r="C49" s="33"/>
+      <c r="M48" s="33">
+        <v>500</v>
+      </c>
+      <c r="N48" s="2"/>
+      <c r="O48" s="33">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" s="32" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="79"/>
+      <c r="B49" s="34" t="s">
+        <v>377</v>
+      </c>
+      <c r="C49" s="34"/>
       <c r="D49" s="33"/>
       <c r="E49" s="33"/>
       <c r="F49" s="33"/>
@@ -22095,42 +22279,38 @@
       <c r="K49" s="33"/>
       <c r="L49" s="2"/>
       <c r="M49" s="33"/>
-      <c r="N49" s="33">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="34" t="s">
-        <v>309</v>
-      </c>
+      <c r="N49" s="2"/>
+      <c r="O49" s="33">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" s="32" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="80"/>
       <c r="B50" s="34" t="s">
-        <v>368</v>
-      </c>
-      <c r="C50" s="33"/>
+        <v>378</v>
+      </c>
+      <c r="C50" s="34"/>
       <c r="D50" s="33"/>
       <c r="E50" s="33"/>
       <c r="F50" s="33"/>
-      <c r="G50" s="33" t="s">
-        <v>369</v>
-      </c>
+      <c r="G50" s="33"/>
       <c r="H50" s="33"/>
       <c r="I50" s="33"/>
       <c r="J50" s="33"/>
       <c r="K50" s="33"/>
       <c r="L50" s="2"/>
       <c r="M50" s="33"/>
-      <c r="N50" s="33">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" s="32" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="34" t="s">
-        <v>377</v>
-      </c>
-      <c r="B51" s="34" t="s">
-        <v>378</v>
-      </c>
-      <c r="C51" s="33"/>
+      <c r="N50" s="2"/>
+      <c r="O50" s="33">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" s="32" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="62" t="s">
+        <v>393</v>
+      </c>
+      <c r="B51" s="34"/>
+      <c r="C51" s="34"/>
       <c r="D51" s="33"/>
       <c r="E51" s="33"/>
       <c r="F51" s="33"/>
@@ -22140,211 +22320,204 @@
       <c r="J51" s="33"/>
       <c r="K51" s="33"/>
       <c r="L51" s="2"/>
-      <c r="M51" s="33">
-        <v>5000</v>
-      </c>
-      <c r="N51" s="33">
-        <v>6200</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" s="32" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="34" t="s">
-        <v>374</v>
-      </c>
-      <c r="B52" s="34" t="s">
-        <v>430</v>
-      </c>
-      <c r="C52" s="33" t="s">
-        <v>434</v>
-      </c>
-      <c r="D52" s="33">
-        <v>3500</v>
-      </c>
-      <c r="E52" s="33">
-        <v>1</v>
-      </c>
-      <c r="F52" s="34" t="s">
-        <v>432</v>
-      </c>
-      <c r="G52" s="33" t="s">
-        <v>429</v>
-      </c>
+      <c r="M51" s="33"/>
+      <c r="N51" s="2"/>
+      <c r="O51" s="33">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" s="32" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="62" t="s">
+        <v>394</v>
+      </c>
+      <c r="B52" s="34"/>
+      <c r="C52" s="34"/>
+      <c r="D52" s="33"/>
+      <c r="E52" s="33"/>
+      <c r="F52" s="33"/>
+      <c r="G52" s="33"/>
       <c r="H52" s="33"/>
       <c r="I52" s="33"/>
       <c r="J52" s="33"/>
       <c r="K52" s="33"/>
       <c r="L52" s="2"/>
-      <c r="M52" s="33">
-        <v>3500</v>
-      </c>
-      <c r="N52" s="33">
-        <v>2600</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
-      <c r="I53" s="2"/>
-      <c r="J53" s="2"/>
-      <c r="K53" s="2"/>
+      <c r="M52" s="33"/>
+      <c r="N52" s="2"/>
+      <c r="O52" s="33">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="34" t="s">
+        <v>304</v>
+      </c>
+      <c r="B53" s="33"/>
+      <c r="C53" s="33"/>
+      <c r="D53" s="33"/>
+      <c r="E53" s="33"/>
+      <c r="F53" s="33"/>
+      <c r="G53" s="33"/>
+      <c r="H53" s="33"/>
+      <c r="I53" s="33"/>
+      <c r="J53" s="33"/>
+      <c r="K53" s="33"/>
       <c r="L53" s="2"/>
       <c r="M53" s="33"/>
-      <c r="N53" s="33">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="1"/>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
-      <c r="I54" s="2"/>
-      <c r="J54" s="2"/>
-      <c r="K54" s="2"/>
+      <c r="N53" s="2"/>
+      <c r="O53" s="33">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="34" t="s">
+        <v>305</v>
+      </c>
+      <c r="B54" s="33"/>
+      <c r="C54" s="33"/>
+      <c r="D54" s="33"/>
+      <c r="E54" s="33"/>
+      <c r="F54" s="33"/>
+      <c r="G54" s="33"/>
+      <c r="H54" s="33"/>
+      <c r="I54" s="33"/>
+      <c r="J54" s="33"/>
+      <c r="K54" s="33"/>
       <c r="L54" s="2"/>
       <c r="M54" s="33"/>
-      <c r="N54" s="33">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
-      <c r="I55" s="2"/>
-      <c r="J55" s="2"/>
-      <c r="K55" s="2"/>
+      <c r="N54" s="2"/>
+      <c r="O54" s="33">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="34" t="s">
+        <v>306</v>
+      </c>
+      <c r="B55" s="34" t="s">
+        <v>365</v>
+      </c>
+      <c r="C55" s="33"/>
+      <c r="D55" s="33"/>
+      <c r="E55" s="33"/>
+      <c r="F55" s="33"/>
+      <c r="G55" s="33" t="s">
+        <v>366</v>
+      </c>
+      <c r="H55" s="33"/>
+      <c r="I55" s="33"/>
+      <c r="J55" s="33"/>
+      <c r="K55" s="33"/>
       <c r="L55" s="2"/>
-      <c r="M55" s="33">
-        <v>77500</v>
-      </c>
-      <c r="N55" s="33">
-        <v>124606</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
-      <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
-      <c r="I56" s="2"/>
-      <c r="J56" s="2"/>
-      <c r="K56" s="2"/>
+      <c r="M55" s="33"/>
+      <c r="N55" s="2"/>
+      <c r="O55" s="33">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" s="32" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="34" t="s">
+        <v>374</v>
+      </c>
+      <c r="B56" s="34" t="s">
+        <v>375</v>
+      </c>
+      <c r="C56" s="33"/>
+      <c r="D56" s="33"/>
+      <c r="E56" s="33"/>
+      <c r="F56" s="33"/>
+      <c r="G56" s="33"/>
+      <c r="H56" s="33"/>
+      <c r="I56" s="33"/>
+      <c r="J56" s="33"/>
+      <c r="K56" s="33"/>
       <c r="L56" s="2"/>
       <c r="M56" s="33">
-        <v>500</v>
-      </c>
-      <c r="N56" s="33">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2">
-        <v>596</v>
-      </c>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
-      <c r="H57" s="2"/>
-      <c r="I57" s="2"/>
-      <c r="J57" s="2"/>
-      <c r="K57" s="2"/>
+        <v>5000</v>
+      </c>
+      <c r="N56" s="2"/>
+      <c r="O56" s="33">
+        <v>6200</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" s="32" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="34" t="s">
+        <v>371</v>
+      </c>
+      <c r="B57" s="34" t="s">
+        <v>427</v>
+      </c>
+      <c r="C57" s="33" t="s">
+        <v>431</v>
+      </c>
+      <c r="D57" s="33">
+        <v>3500</v>
+      </c>
+      <c r="E57" s="33">
+        <v>1</v>
+      </c>
+      <c r="F57" s="34" t="s">
+        <v>429</v>
+      </c>
+      <c r="G57" s="33" t="s">
+        <v>426</v>
+      </c>
+      <c r="H57" s="33"/>
+      <c r="I57" s="33"/>
+      <c r="J57" s="33"/>
+      <c r="K57" s="33"/>
       <c r="L57" s="2"/>
       <c r="M57" s="33">
-        <v>596</v>
-      </c>
-      <c r="N57" s="33">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>3500</v>
+      </c>
+      <c r="N57" s="2"/>
+      <c r="O57" s="33">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>417</v>
+        <v>307</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
-      <c r="G58" s="1" t="s">
-        <v>425</v>
-      </c>
+      <c r="G58" s="2"/>
       <c r="H58" s="2"/>
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
       <c r="K58" s="2"/>
       <c r="L58" s="2"/>
-      <c r="M58" s="33">
+      <c r="M58" s="33"/>
+      <c r="N58" s="2"/>
+      <c r="O58" s="33">
         <v>2000</v>
       </c>
-      <c r="N58" s="33">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="C59" s="1"/>
-      <c r="D59" s="2">
-        <v>199</v>
-      </c>
-      <c r="E59" s="2">
-        <v>7</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="G59" s="1"/>
+    </row>
+    <row r="59" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="1"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
       <c r="H59" s="2"/>
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
       <c r="K59" s="2"/>
       <c r="L59" s="2"/>
-      <c r="M59" s="33">
-        <v>199</v>
-      </c>
-      <c r="N59" s="33">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="2"/>
+      <c r="M59" s="33"/>
+      <c r="N59" s="2"/>
+      <c r="O59" s="33">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>308</v>
+      </c>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
@@ -22356,11 +22529,18 @@
       <c r="J60" s="2"/>
       <c r="K60" s="2"/>
       <c r="L60" s="2"/>
-      <c r="M60" s="33"/>
-      <c r="N60" s="33"/>
-    </row>
-    <row r="61" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="2"/>
+      <c r="M60" s="33">
+        <v>77500</v>
+      </c>
+      <c r="N60" s="2"/>
+      <c r="O60" s="33">
+        <v>124606</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>400</v>
+      </c>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
@@ -22372,14 +22552,25 @@
       <c r="J61" s="2"/>
       <c r="K61" s="2"/>
       <c r="L61" s="2"/>
-      <c r="M61" s="33"/>
-      <c r="N61" s="33"/>
-    </row>
-    <row r="62" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="2"/>
-      <c r="B62" s="2"/>
+      <c r="M61" s="33">
+        <v>500</v>
+      </c>
+      <c r="N61" s="2"/>
+      <c r="O61" s="33">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>402</v>
+      </c>
       <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
+      <c r="D62" s="2">
+        <v>596</v>
+      </c>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
@@ -22388,75 +22579,126 @@
       <c r="J62" s="2"/>
       <c r="K62" s="2"/>
       <c r="L62" s="2"/>
-      <c r="M62" s="33"/>
-      <c r="N62" s="33"/>
-    </row>
-    <row r="63" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="2"/>
+      <c r="M62" s="33">
+        <v>596</v>
+      </c>
+      <c r="N62" s="2"/>
+      <c r="O62" s="33">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>414</v>
+      </c>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
-      <c r="G63" s="2"/>
+      <c r="G63" s="1" t="s">
+        <v>422</v>
+      </c>
       <c r="H63" s="2"/>
       <c r="I63" s="2"/>
       <c r="J63" s="2"/>
       <c r="K63" s="2"/>
       <c r="L63" s="2"/>
-      <c r="M63" s="33"/>
-      <c r="N63" s="33"/>
-    </row>
-    <row r="64" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="2"/>
-      <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
-      <c r="F64" s="2"/>
-      <c r="G64" s="2"/>
+      <c r="M63" s="33">
+        <v>2000</v>
+      </c>
+      <c r="N63" s="2"/>
+      <c r="O63" s="33">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="C64" s="1"/>
+      <c r="D64" s="2">
+        <v>199</v>
+      </c>
+      <c r="E64" s="2">
+        <v>7</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="G64" s="1"/>
       <c r="H64" s="2"/>
       <c r="I64" s="2"/>
       <c r="J64" s="2"/>
       <c r="K64" s="2"/>
       <c r="L64" s="2"/>
-      <c r="M64" s="33"/>
-      <c r="N64" s="33"/>
-    </row>
-    <row r="65" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="2"/>
+      <c r="M64" s="33">
+        <v>199</v>
+      </c>
+      <c r="N64" s="2"/>
+      <c r="O64" s="33">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>478</v>
+      </c>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
-      <c r="G65" s="2"/>
+      <c r="G65" s="1" t="s">
+        <v>479</v>
+      </c>
       <c r="H65" s="2"/>
       <c r="I65" s="2"/>
       <c r="J65" s="2"/>
       <c r="K65" s="2"/>
       <c r="L65" s="2"/>
-      <c r="M65" s="33"/>
-      <c r="N65" s="33"/>
-    </row>
-    <row r="66" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="2"/>
+      <c r="M65" s="33">
+        <v>306</v>
+      </c>
+      <c r="N65" s="2"/>
+      <c r="O65" s="33"/>
+    </row>
+    <row r="66" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>493</v>
+      </c>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
-      <c r="D66" s="2"/>
-      <c r="E66" s="2"/>
-      <c r="F66" s="2"/>
-      <c r="G66" s="2"/>
+      <c r="D66" s="2">
+        <v>700</v>
+      </c>
+      <c r="E66" s="2">
+        <v>1</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>498</v>
+      </c>
       <c r="H66" s="2"/>
       <c r="I66" s="2"/>
       <c r="J66" s="2"/>
       <c r="K66" s="2"/>
       <c r="L66" s="2"/>
-      <c r="M66" s="33"/>
-      <c r="N66" s="33"/>
-    </row>
-    <row r="67" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="2"/>
+      <c r="M66" s="33">
+        <v>700</v>
+      </c>
+      <c r="N66" s="2"/>
+      <c r="O66" s="33"/>
+    </row>
+    <row r="67" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>495</v>
+      </c>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
@@ -22469,9 +22711,10 @@
       <c r="K67" s="2"/>
       <c r="L67" s="2"/>
       <c r="M67" s="33"/>
-      <c r="N67" s="33"/>
-    </row>
-    <row r="68" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N67" s="2"/>
+      <c r="O67" s="33"/>
+    </row>
+    <row r="68" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -22485,9 +22728,10 @@
       <c r="K68" s="2"/>
       <c r="L68" s="2"/>
       <c r="M68" s="33"/>
-      <c r="N68" s="33"/>
-    </row>
-    <row r="69" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N68" s="2"/>
+      <c r="O68" s="33"/>
+    </row>
+    <row r="69" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -22501,9 +22745,10 @@
       <c r="K69" s="2"/>
       <c r="L69" s="2"/>
       <c r="M69" s="33"/>
-      <c r="N69" s="33"/>
-    </row>
-    <row r="70" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N69" s="2"/>
+      <c r="O69" s="33"/>
+    </row>
+    <row r="70" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -22517,9 +22762,10 @@
       <c r="K70" s="2"/>
       <c r="L70" s="2"/>
       <c r="M70" s="33"/>
-      <c r="N70" s="33"/>
-    </row>
-    <row r="71" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N70" s="2"/>
+      <c r="O70" s="33"/>
+    </row>
+    <row r="71" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -22533,32 +22779,123 @@
       <c r="K71" s="2"/>
       <c r="L71" s="2"/>
       <c r="M71" s="33"/>
-      <c r="N71" s="33"/>
-    </row>
-    <row r="72" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="73" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="74" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="75" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="76" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="77" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="78" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="79" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="N71" s="2"/>
+      <c r="O71" s="33"/>
+    </row>
+    <row r="72" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="2"/>
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="2"/>
+      <c r="H72" s="2"/>
+      <c r="I72" s="2"/>
+      <c r="J72" s="2"/>
+      <c r="K72" s="2"/>
+      <c r="L72" s="2"/>
+      <c r="M72" s="33"/>
+      <c r="N72" s="2"/>
+      <c r="O72" s="33"/>
+    </row>
+    <row r="73" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="2"/>
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
+      <c r="I73" s="2"/>
+      <c r="J73" s="2"/>
+      <c r="K73" s="2"/>
+      <c r="L73" s="2"/>
+      <c r="M73" s="33"/>
+      <c r="N73" s="2"/>
+      <c r="O73" s="33"/>
+    </row>
+    <row r="74" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="2"/>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
+      <c r="I74" s="2"/>
+      <c r="J74" s="2"/>
+      <c r="K74" s="2"/>
+      <c r="L74" s="2"/>
+      <c r="M74" s="33"/>
+      <c r="N74" s="2"/>
+      <c r="O74" s="33"/>
+    </row>
+    <row r="75" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="2"/>
+      <c r="B75" s="2"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
+      <c r="I75" s="2"/>
+      <c r="J75" s="2"/>
+      <c r="K75" s="2"/>
+      <c r="L75" s="2"/>
+      <c r="M75" s="33"/>
+      <c r="N75" s="2"/>
+      <c r="O75" s="33"/>
+    </row>
+    <row r="76" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="2"/>
+      <c r="B76" s="2"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2"/>
+      <c r="H76" s="2"/>
+      <c r="I76" s="2"/>
+      <c r="J76" s="2"/>
+      <c r="K76" s="2"/>
+      <c r="L76" s="2"/>
+      <c r="M76" s="33"/>
+      <c r="N76" s="2"/>
+      <c r="O76" s="33"/>
+    </row>
+    <row r="77" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="78" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="79" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="80" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="81" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="82" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="83" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="84" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="A22:A29"/>
-    <mergeCell ref="N22:N29"/>
-    <mergeCell ref="A30:A36"/>
-    <mergeCell ref="N30:N36"/>
+  <mergeCells count="19">
     <mergeCell ref="B4:B7"/>
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="N4:N7"/>
     <mergeCell ref="F8:F9"/>
-    <mergeCell ref="N8:N9"/>
     <mergeCell ref="B8:B9"/>
-    <mergeCell ref="M8:M9"/>
     <mergeCell ref="M4:M7"/>
     <mergeCell ref="F4:F7"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="F10:F13"/>
+    <mergeCell ref="A47:A50"/>
+    <mergeCell ref="A25:A34"/>
+    <mergeCell ref="A35:A41"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="N8:N13"/>
+    <mergeCell ref="M8:M13"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="O4:O7"/>
+    <mergeCell ref="O35:O41"/>
+    <mergeCell ref="O25:O34"/>
+    <mergeCell ref="O10:O13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -22586,22 +22923,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="59" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B1" s="59" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C1" s="59" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D1" s="59" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="E1" s="59" t="s">
         <v>218</v>
       </c>
       <c r="F1" s="59" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -22610,11 +22947,11 @@
       </c>
       <c r="B2" s="33"/>
       <c r="C2" s="34" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D2" s="33"/>
       <c r="E2" s="34" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="F2" s="33"/>
     </row>
@@ -22624,11 +22961,11 @@
       </c>
       <c r="B3" s="33"/>
       <c r="C3" s="34" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D3" s="33"/>
       <c r="E3" s="34" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F3" s="33"/>
     </row>
@@ -22638,7 +22975,7 @@
       </c>
       <c r="B4" s="33"/>
       <c r="C4" s="34" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D4" s="33"/>
       <c r="E4" s="33"/>
@@ -22652,7 +22989,7 @@
         <v>43742</v>
       </c>
       <c r="C5" s="34" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D5" s="33"/>
       <c r="E5" s="33"/>
@@ -22664,11 +23001,11 @@
       </c>
       <c r="B6" s="33"/>
       <c r="C6" s="34" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D6" s="33"/>
       <c r="E6" s="34" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="F6" s="33"/>
     </row>
@@ -22702,7 +23039,7 @@
       </c>
       <c r="B10" s="33"/>
       <c r="C10" s="34" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D10" s="33"/>
       <c r="E10" s="33"/>
@@ -22722,11 +23059,11 @@
       </c>
       <c r="B12" s="33"/>
       <c r="C12" s="33" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D12" s="33"/>
       <c r="E12" s="34" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="F12" s="33"/>
     </row>
@@ -22738,7 +23075,7 @@
       <c r="C13" s="33"/>
       <c r="D13" s="33"/>
       <c r="E13" s="34" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F13" s="33"/>
     </row>
@@ -22758,7 +23095,7 @@
       </c>
       <c r="B15" s="33"/>
       <c r="C15" s="34" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D15" s="33"/>
       <c r="E15" s="33"/>
@@ -22772,11 +23109,11 @@
         <v>43744</v>
       </c>
       <c r="C16" s="34" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D16" s="33"/>
       <c r="E16" s="34" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="F16" s="33"/>
     </row>
@@ -22786,7 +23123,7 @@
       </c>
       <c r="B17" s="33"/>
       <c r="C17" s="34" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D17" s="33"/>
       <c r="E17" s="33"/>
@@ -22798,11 +23135,11 @@
       </c>
       <c r="B18" s="33"/>
       <c r="C18" s="34" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D18" s="33"/>
       <c r="E18" s="33" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="F18" s="33"/>
     </row>
@@ -22812,11 +23149,11 @@
       </c>
       <c r="B19" s="33"/>
       <c r="C19" s="34" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="D19" s="33"/>
       <c r="E19" s="33" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="F19" s="33"/>
     </row>
@@ -22838,11 +23175,11 @@
         <v>43745</v>
       </c>
       <c r="C21" s="34" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="D21" s="33"/>
       <c r="E21" s="34" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="F21" s="33"/>
     </row>
@@ -22852,7 +23189,7 @@
       </c>
       <c r="B22" s="33"/>
       <c r="C22" s="33" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D22" s="33"/>
       <c r="E22" s="33"/>
@@ -22864,7 +23201,7 @@
       </c>
       <c r="B23" s="33"/>
       <c r="C23" s="33" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D23" s="33"/>
       <c r="E23" s="33"/>
@@ -22876,7 +23213,7 @@
       </c>
       <c r="B24" s="33"/>
       <c r="C24" s="33" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="D24" s="33"/>
       <c r="E24" s="33"/>
@@ -22888,7 +23225,7 @@
       </c>
       <c r="B25" s="33"/>
       <c r="C25" s="33" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D25" s="33"/>
       <c r="E25" s="33"/>
@@ -22900,7 +23237,7 @@
       </c>
       <c r="B26" s="33"/>
       <c r="C26" s="33" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D26" s="33"/>
       <c r="E26" s="33"/>
@@ -22914,7 +23251,7 @@
         <v>43851</v>
       </c>
       <c r="C27" s="33" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="D27" s="33"/>
       <c r="E27" s="33"/>
@@ -22928,11 +23265,11 @@
         <v>43892</v>
       </c>
       <c r="C28" s="34" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="D28" s="33"/>
       <c r="E28" s="34" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="F28" s="33"/>
     </row>
@@ -23217,21 +23554,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35B9F7CE-E7D3-40E4-9486-C4ED7FA33435}">
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
-    <col min="2" max="2" width="11.9140625" style="82" customWidth="1"/>
-    <col min="3" max="4" width="9.5" style="82" bestFit="1" customWidth="1"/>
-    <col min="5" max="9" width="8.6640625" style="82"/>
+    <col min="2" max="2" width="11.9140625" style="69" customWidth="1"/>
+    <col min="3" max="4" width="9.5" style="69" bestFit="1" customWidth="1"/>
+    <col min="5" max="9" width="8.6640625" style="69"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="83" t="s">
-        <v>477</v>
+      <c r="A1" s="85" t="s">
+        <v>474</v>
       </c>
       <c r="B1" s="64" t="s">
         <v>11</v>
@@ -23240,10 +23577,10 @@
         <v>237</v>
       </c>
       <c r="D1" s="64" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="E1" s="64" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="F1" s="65"/>
       <c r="G1" s="65"/>
@@ -23251,18 +23588,18 @@
       <c r="I1" s="65"/>
     </row>
     <row r="2" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="84"/>
+      <c r="A2" s="86"/>
       <c r="B2" s="65" t="s">
-        <v>478</v>
-      </c>
-      <c r="C2" s="86">
+        <v>475</v>
+      </c>
+      <c r="C2" s="70">
         <v>7399</v>
       </c>
-      <c r="D2" s="87">
+      <c r="D2" s="71">
         <v>43920</v>
       </c>
       <c r="E2" s="64" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="F2" s="65"/>
       <c r="G2" s="65"/>
@@ -23270,7 +23607,7 @@
       <c r="I2" s="65"/>
     </row>
     <row r="3" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="84"/>
+      <c r="A3" s="86"/>
       <c r="B3" s="65"/>
       <c r="C3" s="65"/>
       <c r="D3" s="65"/>
@@ -23281,7 +23618,7 @@
       <c r="I3" s="65"/>
     </row>
     <row r="4" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="84"/>
+      <c r="A4" s="86"/>
       <c r="B4" s="65"/>
       <c r="C4" s="65"/>
       <c r="D4" s="65"/>
@@ -23292,7 +23629,7 @@
       <c r="I4" s="65"/>
     </row>
     <row r="5" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="84"/>
+      <c r="A5" s="86"/>
       <c r="B5" s="65"/>
       <c r="C5" s="65"/>
       <c r="D5" s="65"/>
@@ -23303,7 +23640,7 @@
       <c r="I5" s="65"/>
     </row>
     <row r="6" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="84"/>
+      <c r="A6" s="86"/>
       <c r="B6" s="65"/>
       <c r="C6" s="65"/>
       <c r="D6" s="65"/>
@@ -23314,7 +23651,7 @@
       <c r="I6" s="65"/>
     </row>
     <row r="7" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="84"/>
+      <c r="A7" s="86"/>
       <c r="B7" s="65"/>
       <c r="C7" s="65"/>
       <c r="D7" s="65"/>
@@ -23325,7 +23662,7 @@
       <c r="I7" s="65"/>
     </row>
     <row r="8" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="84"/>
+      <c r="A8" s="86"/>
       <c r="B8" s="65"/>
       <c r="C8" s="65"/>
       <c r="D8" s="65"/>
@@ -23336,7 +23673,7 @@
       <c r="I8" s="65"/>
     </row>
     <row r="9" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="84"/>
+      <c r="A9" s="86"/>
       <c r="B9" s="65"/>
       <c r="C9" s="65"/>
       <c r="D9" s="65"/>
@@ -23347,7 +23684,7 @@
       <c r="I9" s="65"/>
     </row>
     <row r="10" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="84"/>
+      <c r="A10" s="86"/>
       <c r="B10" s="65"/>
       <c r="C10" s="65"/>
       <c r="D10" s="65"/>
@@ -23358,7 +23695,7 @@
       <c r="I10" s="65"/>
     </row>
     <row r="11" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="84"/>
+      <c r="A11" s="86"/>
       <c r="B11" s="65"/>
       <c r="C11" s="65"/>
       <c r="D11" s="65"/>
@@ -23369,7 +23706,7 @@
       <c r="I11" s="65"/>
     </row>
     <row r="12" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="84"/>
+      <c r="A12" s="86"/>
       <c r="B12" s="65"/>
       <c r="C12" s="65"/>
       <c r="D12" s="65"/>
@@ -23380,7 +23717,7 @@
       <c r="I12" s="65"/>
     </row>
     <row r="13" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="84"/>
+      <c r="A13" s="86"/>
       <c r="B13" s="65"/>
       <c r="C13" s="65"/>
       <c r="D13" s="65"/>
@@ -23391,7 +23728,7 @@
       <c r="I13" s="65"/>
     </row>
     <row r="14" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="84"/>
+      <c r="A14" s="86"/>
       <c r="B14" s="65"/>
       <c r="C14" s="65"/>
       <c r="D14" s="65"/>
@@ -23402,7 +23739,7 @@
       <c r="I14" s="65"/>
     </row>
     <row r="15" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="84"/>
+      <c r="A15" s="86"/>
       <c r="B15" s="65"/>
       <c r="C15" s="65"/>
       <c r="D15" s="65"/>
@@ -23413,7 +23750,7 @@
       <c r="I15" s="65"/>
     </row>
     <row r="16" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="84"/>
+      <c r="A16" s="86"/>
       <c r="B16" s="65"/>
       <c r="C16" s="65"/>
       <c r="D16" s="65"/>
@@ -23424,7 +23761,7 @@
       <c r="I16" s="65"/>
     </row>
     <row r="17" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="84"/>
+      <c r="A17" s="86"/>
       <c r="B17" s="65"/>
       <c r="C17" s="65"/>
       <c r="D17" s="65"/>
@@ -23435,7 +23772,7 @@
       <c r="I17" s="65"/>
     </row>
     <row r="18" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="85"/>
+      <c r="A18" s="87"/>
       <c r="B18" s="65"/>
       <c r="C18" s="65"/>
       <c r="D18" s="65"/>
@@ -23706,25 +24043,25 @@
   <sheetData>
     <row r="1" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="64" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B1" s="64" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="C1" s="64" t="s">
         <v>234</v>
       </c>
       <c r="D1" s="64" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="E1" s="64" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="F1" s="64" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="G1" s="64" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="H1" s="64" t="s">
         <v>218</v>
@@ -23734,93 +24071,93 @@
       <c r="A2" s="65">
         <v>1</v>
       </c>
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="78" t="s">
         <v>213</v>
       </c>
       <c r="C2" s="64" t="s">
         <v>220</v>
       </c>
       <c r="D2" s="64" t="s">
+        <v>435</v>
+      </c>
+      <c r="E2" s="66" t="s">
         <v>438</v>
       </c>
-      <c r="E2" s="66" t="s">
-        <v>441</v>
-      </c>
       <c r="F2" s="66" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="G2" s="66" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="H2" s="64" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65">
         <v>2</v>
       </c>
-      <c r="B3" s="73"/>
+      <c r="B3" s="76"/>
       <c r="C3" s="64" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="D3" s="64" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="E3" s="66" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="F3" s="66" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="G3" s="66" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="H3" s="64" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="32" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
-      <c r="B4" s="73"/>
+      <c r="B4" s="76"/>
       <c r="C4" s="64" t="s">
         <v>85</v>
       </c>
       <c r="D4" s="64" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="E4" s="66" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="F4" s="66" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="G4" s="66" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="H4" s="64" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="65">
         <v>3</v>
       </c>
-      <c r="B5" s="73"/>
+      <c r="B5" s="76"/>
       <c r="C5" s="64" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="D5" s="68" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="E5" s="66" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="F5" s="66" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="G5" s="68" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="H5" s="65"/>
     </row>
@@ -23828,81 +24165,81 @@
       <c r="A6" s="65">
         <v>4</v>
       </c>
-      <c r="B6" s="73"/>
+      <c r="B6" s="76"/>
       <c r="C6" s="64" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="D6" s="64" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="E6" s="66" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="F6" s="66" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="G6" s="66" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="H6" s="64" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="65">
         <v>5</v>
       </c>
-      <c r="B7" s="73"/>
+      <c r="B7" s="76"/>
       <c r="C7" s="64" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="D7" s="68" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="E7" s="66" t="s">
+        <v>449</v>
+      </c>
+      <c r="F7" s="66" t="s">
+        <v>439</v>
+      </c>
+      <c r="G7" s="68" t="s">
+        <v>443</v>
+      </c>
+      <c r="H7" s="64" t="s">
         <v>452</v>
-      </c>
-      <c r="F7" s="66" t="s">
-        <v>442</v>
-      </c>
-      <c r="G7" s="68" t="s">
-        <v>446</v>
-      </c>
-      <c r="H7" s="64" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="65">
         <v>6</v>
       </c>
-      <c r="B8" s="73"/>
+      <c r="B8" s="76"/>
       <c r="C8" s="64" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="D8" s="64" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="E8" s="66" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="F8" s="66" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="G8" s="67" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="H8" s="64" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="65">
         <v>7</v>
       </c>
-      <c r="B9" s="73"/>
+      <c r="B9" s="76"/>
       <c r="C9" s="64" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="D9" s="65" t="s">
         <v>266</v>
@@ -23911,10 +24248,10 @@
         <v>266</v>
       </c>
       <c r="F9" s="64" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="G9" s="64" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="H9" s="65"/>
     </row>
@@ -23922,9 +24259,9 @@
       <c r="A10" s="65">
         <v>8</v>
       </c>
-      <c r="B10" s="73"/>
+      <c r="B10" s="76"/>
       <c r="C10" s="64" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D10" s="65" t="s">
         <v>266</v>
@@ -23933,10 +24270,10 @@
         <v>266</v>
       </c>
       <c r="F10" s="64" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="G10" s="64" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="H10" s="65"/>
     </row>
@@ -23944,9 +24281,9 @@
       <c r="A11" s="65">
         <v>9</v>
       </c>
-      <c r="B11" s="73"/>
+      <c r="B11" s="76"/>
       <c r="C11" s="64" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="D11" s="65" t="s">
         <v>266</v>
@@ -23955,10 +24292,10 @@
         <v>266</v>
       </c>
       <c r="F11" s="64" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="G11" s="64" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="H11" s="65"/>
     </row>
@@ -23966,21 +24303,21 @@
       <c r="A12" s="65">
         <v>10</v>
       </c>
-      <c r="B12" s="73"/>
+      <c r="B12" s="76"/>
       <c r="C12" s="64" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="D12" s="68" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="E12" s="66" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="F12" s="66" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="G12" s="68" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="H12" s="65"/>
     </row>
@@ -23988,9 +24325,9 @@
       <c r="A13" s="65">
         <v>11</v>
       </c>
-      <c r="B13" s="73"/>
+      <c r="B13" s="76"/>
       <c r="C13" s="64" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D13" s="65" t="s">
         <v>266</v>
@@ -23999,22 +24336,22 @@
         <v>266</v>
       </c>
       <c r="F13" s="64" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="G13" s="64" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="H13" s="64" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="65">
         <v>12</v>
       </c>
-      <c r="B14" s="74"/>
+      <c r="B14" s="77"/>
       <c r="C14" s="64" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="D14" s="65" t="s">
         <v>266</v>
@@ -24023,10 +24360,10 @@
         <v>266</v>
       </c>
       <c r="F14" s="64" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="G14" s="64" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="H14" s="65"/>
     </row>
@@ -24034,38 +24371,38 @@
       <c r="A15" s="65">
         <v>13</v>
       </c>
-      <c r="B15" s="75" t="s">
-        <v>467</v>
+      <c r="B15" s="78" t="s">
+        <v>464</v>
       </c>
       <c r="C15" s="64" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D15" s="65"/>
       <c r="E15" s="64" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="F15" s="64" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="G15" s="65"/>
       <c r="H15" s="64" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="65">
         <v>14</v>
       </c>
-      <c r="B16" s="73"/>
+      <c r="B16" s="76"/>
       <c r="C16" s="64" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="D16" s="65"/>
       <c r="E16" s="64" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="F16" s="64" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="G16" s="65"/>
       <c r="H16" s="65"/>
@@ -24074,34 +24411,34 @@
       <c r="A17" s="65">
         <v>15</v>
       </c>
-      <c r="B17" s="73"/>
+      <c r="B17" s="76"/>
       <c r="C17" s="64" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D17" s="65"/>
       <c r="E17" s="65"/>
       <c r="F17" s="64" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="G17" s="65"/>
       <c r="H17" s="64" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="65">
         <v>16</v>
       </c>
-      <c r="B18" s="73"/>
+      <c r="B18" s="76"/>
       <c r="C18" s="64" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="D18" s="65"/>
       <c r="E18" s="64" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="F18" s="64" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="G18" s="65"/>
       <c r="H18" s="65"/>
@@ -38030,31 +38367,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="81" t="s">
         <v>269</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="80"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="83"/>
     </row>
     <row r="2" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="81" t="s">
         <v>270</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83"/>
     </row>
     <row r="3" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="81" t="s">
         <v>271</v>
       </c>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="80"/>
+      <c r="B3" s="82"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="83"/>
     </row>
     <row r="4" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
@@ -38687,7 +39024,7 @@
       <c r="C13" t="s">
         <v>277</v>
       </c>
-      <c r="D13" s="81" t="s">
+      <c r="D13" s="84" t="s">
         <v>280</v>
       </c>
     </row>
@@ -38698,7 +39035,7 @@
       <c r="C14" t="s">
         <v>279</v>
       </c>
-      <c r="D14" s="81"/>
+      <c r="D14" s="84"/>
     </row>
     <row r="18" spans="1:7" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
